--- a/data/GIS KPIs.xlsx
+++ b/data/GIS KPIs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="44805" windowHeight="22980" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="44805" windowHeight="22980" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fields" sheetId="3" state="hidden" r:id="rId1"/>
@@ -780,7 +780,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -994,6 +994,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1001,7 +1023,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1237,10 +1259,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1254,6 +1272,29 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2093,7 +2134,7 @@
   <dimension ref="A1:I200"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25"/>
@@ -2103,10 +2144,10 @@
     <col min="3" max="3" width="27.375" style="87" customWidth="1"/>
     <col min="4" max="4" width="13.125" style="52" customWidth="1"/>
     <col min="5" max="5" width="44.625" style="88" customWidth="1"/>
-    <col min="6" max="6" width="44.375" style="92" customWidth="1"/>
-    <col min="7" max="7" width="22.625" style="91" customWidth="1"/>
-    <col min="8" max="8" width="63.5" style="90" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="94" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.375" style="91" customWidth="1"/>
+    <col min="7" max="7" width="22.625" style="90" customWidth="1"/>
+    <col min="8" max="8" width="63.5" style="89" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="93" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="10.625" style="30"/>
   </cols>
   <sheetData>
@@ -2293,28 +2334,28 @@
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9" ht="15">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="113" t="s">
         <v>184</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="109"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="30"/>
-      <c r="E15" s="102" t="s">
+      <c r="E15" s="107" t="s">
         <v>185</v>
       </c>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="106"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="111"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="108" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="106"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="36"/>
       <c r="E16" s="82" t="s">
         <v>118</v>
@@ -2328,749 +2369,754 @@
       <c r="H16" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="I16" s="93" t="s">
+      <c r="I16" s="92" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="110"/>
-      <c r="C17" s="111"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="89"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="110"/>
-      <c r="C18" s="111"/>
-      <c r="F18" s="86"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="110"/>
-      <c r="C19" s="111"/>
+    <row r="17" spans="2:9">
+      <c r="B17" s="115"/>
+      <c r="C17" s="116"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="99"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="115"/>
+      <c r="C18" s="116"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="54"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="115"/>
+      <c r="C19" s="116"/>
       <c r="F19" s="86"/>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="110"/>
-      <c r="C20" s="111"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="110"/>
-      <c r="C21" s="111"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="110"/>
-      <c r="C23" s="111"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="110"/>
-      <c r="C24" s="111"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="110"/>
-      <c r="C25" s="111"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="110"/>
-      <c r="C26" s="111"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="110"/>
-      <c r="C27" s="111"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="110"/>
-      <c r="C28" s="111"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="110"/>
-      <c r="C29" s="111"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="110"/>
-      <c r="C30" s="111"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="110"/>
-      <c r="C31" s="111"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="110"/>
-      <c r="C32" s="111"/>
+    <row r="20" spans="2:9">
+      <c r="B20" s="115"/>
+      <c r="C20" s="116"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="115"/>
+      <c r="C21" s="116"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="115"/>
+      <c r="C22" s="116"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="115"/>
+      <c r="C23" s="116"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="115"/>
+      <c r="C24" s="116"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="115"/>
+      <c r="C25" s="116"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="115"/>
+      <c r="C26" s="116"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="115"/>
+      <c r="C27" s="116"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="115"/>
+      <c r="C28" s="116"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="115"/>
+      <c r="C29" s="116"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="115"/>
+      <c r="C30" s="116"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="115"/>
+      <c r="C31" s="116"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="115"/>
+      <c r="C32" s="116"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="110"/>
-      <c r="C33" s="111"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="116"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="110"/>
-      <c r="C34" s="111"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="116"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="110"/>
-      <c r="C35" s="111"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="116"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="110"/>
-      <c r="C36" s="111"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="116"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="110"/>
-      <c r="C37" s="111"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="116"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="110"/>
-      <c r="C38" s="111"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="116"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="110"/>
-      <c r="C39" s="111"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="116"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="110"/>
-      <c r="C40" s="111"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="116"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="110"/>
-      <c r="C41" s="111"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="116"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="110"/>
-      <c r="C42" s="111"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="116"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="110"/>
-      <c r="C43" s="111"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="116"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="110"/>
-      <c r="C44" s="111"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="116"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="110"/>
-      <c r="C45" s="111"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="116"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="110"/>
-      <c r="C46" s="111"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="116"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="110"/>
-      <c r="C47" s="111"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="116"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="110"/>
-      <c r="C48" s="111"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="116"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="110"/>
-      <c r="C49" s="111"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="116"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="110"/>
-      <c r="C50" s="111"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="116"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="110"/>
-      <c r="C51" s="111"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="116"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="110"/>
-      <c r="C52" s="111"/>
+      <c r="B52" s="115"/>
+      <c r="C52" s="116"/>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="110"/>
-      <c r="C53" s="111"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="116"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="110"/>
-      <c r="C54" s="111"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="116"/>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="110"/>
-      <c r="C55" s="111"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="116"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="110"/>
-      <c r="C56" s="111"/>
+      <c r="B56" s="115"/>
+      <c r="C56" s="116"/>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="110"/>
-      <c r="C57" s="111"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="116"/>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="110"/>
-      <c r="C58" s="111"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="116"/>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="110"/>
-      <c r="C59" s="111"/>
+      <c r="B59" s="115"/>
+      <c r="C59" s="116"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="110"/>
-      <c r="C60" s="111"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="116"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="110"/>
-      <c r="C61" s="111"/>
+      <c r="B61" s="115"/>
+      <c r="C61" s="116"/>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="110"/>
-      <c r="C62" s="111"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="116"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="110"/>
-      <c r="C63" s="111"/>
+      <c r="B63" s="115"/>
+      <c r="C63" s="116"/>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="110"/>
-      <c r="C64" s="111"/>
+      <c r="B64" s="115"/>
+      <c r="C64" s="116"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="110"/>
-      <c r="C65" s="111"/>
+      <c r="B65" s="115"/>
+      <c r="C65" s="116"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="110"/>
-      <c r="C66" s="111"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="116"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="110"/>
-      <c r="C67" s="111"/>
+      <c r="B67" s="115"/>
+      <c r="C67" s="116"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="110"/>
-      <c r="C68" s="111"/>
+      <c r="B68" s="115"/>
+      <c r="C68" s="116"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="110"/>
-      <c r="C69" s="111"/>
+      <c r="B69" s="115"/>
+      <c r="C69" s="116"/>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="110"/>
-      <c r="C70" s="111"/>
+      <c r="B70" s="115"/>
+      <c r="C70" s="116"/>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="110"/>
-      <c r="C71" s="111"/>
+      <c r="B71" s="115"/>
+      <c r="C71" s="116"/>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="110"/>
-      <c r="C72" s="111"/>
+      <c r="B72" s="115"/>
+      <c r="C72" s="116"/>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="110"/>
-      <c r="C73" s="111"/>
+      <c r="B73" s="115"/>
+      <c r="C73" s="116"/>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="110"/>
-      <c r="C74" s="111"/>
+      <c r="B74" s="115"/>
+      <c r="C74" s="116"/>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="110"/>
-      <c r="C75" s="111"/>
+      <c r="B75" s="115"/>
+      <c r="C75" s="116"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="110"/>
-      <c r="C76" s="111"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="116"/>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="110"/>
-      <c r="C77" s="111"/>
+      <c r="B77" s="115"/>
+      <c r="C77" s="116"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="110"/>
-      <c r="C78" s="111"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="116"/>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="110"/>
-      <c r="C79" s="111"/>
+      <c r="B79" s="115"/>
+      <c r="C79" s="116"/>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="110"/>
-      <c r="C80" s="111"/>
+      <c r="B80" s="115"/>
+      <c r="C80" s="116"/>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="110"/>
-      <c r="C81" s="111"/>
+      <c r="B81" s="115"/>
+      <c r="C81" s="116"/>
     </row>
     <row r="82" spans="2:3">
-      <c r="B82" s="110"/>
-      <c r="C82" s="111"/>
+      <c r="B82" s="115"/>
+      <c r="C82" s="116"/>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="110"/>
-      <c r="C83" s="111"/>
+      <c r="B83" s="115"/>
+      <c r="C83" s="116"/>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="110"/>
-      <c r="C84" s="111"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="116"/>
     </row>
     <row r="85" spans="2:3">
-      <c r="B85" s="110"/>
-      <c r="C85" s="111"/>
+      <c r="B85" s="115"/>
+      <c r="C85" s="116"/>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="110"/>
-      <c r="C86" s="111"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="116"/>
     </row>
     <row r="87" spans="2:3">
-      <c r="B87" s="110"/>
-      <c r="C87" s="111"/>
+      <c r="B87" s="115"/>
+      <c r="C87" s="116"/>
     </row>
     <row r="88" spans="2:3">
-      <c r="B88" s="110"/>
-      <c r="C88" s="111"/>
+      <c r="B88" s="115"/>
+      <c r="C88" s="116"/>
     </row>
     <row r="89" spans="2:3">
-      <c r="B89" s="110"/>
-      <c r="C89" s="111"/>
+      <c r="B89" s="115"/>
+      <c r="C89" s="116"/>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="110"/>
-      <c r="C90" s="111"/>
+      <c r="B90" s="115"/>
+      <c r="C90" s="116"/>
     </row>
     <row r="91" spans="2:3">
-      <c r="B91" s="110"/>
-      <c r="C91" s="111"/>
+      <c r="B91" s="115"/>
+      <c r="C91" s="116"/>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="110"/>
-      <c r="C92" s="111"/>
+      <c r="B92" s="115"/>
+      <c r="C92" s="116"/>
     </row>
     <row r="93" spans="2:3">
-      <c r="B93" s="110"/>
-      <c r="C93" s="111"/>
+      <c r="B93" s="115"/>
+      <c r="C93" s="116"/>
     </row>
     <row r="94" spans="2:3">
-      <c r="B94" s="110"/>
-      <c r="C94" s="111"/>
+      <c r="B94" s="115"/>
+      <c r="C94" s="116"/>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="110"/>
-      <c r="C95" s="111"/>
+      <c r="B95" s="115"/>
+      <c r="C95" s="116"/>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" s="110"/>
-      <c r="C96" s="111"/>
+      <c r="B96" s="115"/>
+      <c r="C96" s="116"/>
     </row>
     <row r="97" spans="2:3">
-      <c r="B97" s="110"/>
-      <c r="C97" s="111"/>
+      <c r="B97" s="115"/>
+      <c r="C97" s="116"/>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="110"/>
-      <c r="C98" s="111"/>
+      <c r="B98" s="115"/>
+      <c r="C98" s="116"/>
     </row>
     <row r="99" spans="2:3">
-      <c r="B99" s="110"/>
-      <c r="C99" s="111"/>
+      <c r="B99" s="115"/>
+      <c r="C99" s="116"/>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="110"/>
-      <c r="C100" s="111"/>
+      <c r="B100" s="115"/>
+      <c r="C100" s="116"/>
     </row>
     <row r="101" spans="2:3">
-      <c r="B101" s="110"/>
-      <c r="C101" s="111"/>
+      <c r="B101" s="115"/>
+      <c r="C101" s="116"/>
     </row>
     <row r="102" spans="2:3">
-      <c r="B102" s="110"/>
-      <c r="C102" s="111"/>
+      <c r="B102" s="115"/>
+      <c r="C102" s="116"/>
     </row>
     <row r="103" spans="2:3">
-      <c r="B103" s="110"/>
-      <c r="C103" s="111"/>
+      <c r="B103" s="115"/>
+      <c r="C103" s="116"/>
     </row>
     <row r="104" spans="2:3">
-      <c r="B104" s="110"/>
-      <c r="C104" s="111"/>
+      <c r="B104" s="115"/>
+      <c r="C104" s="116"/>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="110"/>
-      <c r="C105" s="111"/>
+      <c r="B105" s="115"/>
+      <c r="C105" s="116"/>
     </row>
     <row r="106" spans="2:3">
-      <c r="B106" s="110"/>
-      <c r="C106" s="111"/>
+      <c r="B106" s="115"/>
+      <c r="C106" s="116"/>
     </row>
     <row r="107" spans="2:3">
-      <c r="B107" s="110"/>
-      <c r="C107" s="111"/>
+      <c r="B107" s="115"/>
+      <c r="C107" s="116"/>
     </row>
     <row r="108" spans="2:3">
-      <c r="B108" s="110"/>
-      <c r="C108" s="111"/>
+      <c r="B108" s="115"/>
+      <c r="C108" s="116"/>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="110"/>
-      <c r="C109" s="111"/>
+      <c r="B109" s="115"/>
+      <c r="C109" s="116"/>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="110"/>
-      <c r="C110" s="111"/>
+      <c r="B110" s="115"/>
+      <c r="C110" s="116"/>
     </row>
     <row r="111" spans="2:3">
-      <c r="B111" s="110"/>
-      <c r="C111" s="111"/>
+      <c r="B111" s="115"/>
+      <c r="C111" s="116"/>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="110"/>
-      <c r="C112" s="111"/>
+      <c r="B112" s="115"/>
+      <c r="C112" s="116"/>
     </row>
     <row r="113" spans="2:3">
-      <c r="B113" s="110"/>
-      <c r="C113" s="111"/>
+      <c r="B113" s="115"/>
+      <c r="C113" s="116"/>
     </row>
     <row r="114" spans="2:3">
-      <c r="B114" s="110"/>
-      <c r="C114" s="111"/>
+      <c r="B114" s="115"/>
+      <c r="C114" s="116"/>
     </row>
     <row r="115" spans="2:3">
-      <c r="B115" s="110"/>
-      <c r="C115" s="111"/>
+      <c r="B115" s="115"/>
+      <c r="C115" s="116"/>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="110"/>
-      <c r="C116" s="111"/>
+      <c r="B116" s="115"/>
+      <c r="C116" s="116"/>
     </row>
     <row r="117" spans="2:3">
-      <c r="B117" s="110"/>
-      <c r="C117" s="111"/>
+      <c r="B117" s="115"/>
+      <c r="C117" s="116"/>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="110"/>
-      <c r="C118" s="111"/>
+      <c r="B118" s="115"/>
+      <c r="C118" s="116"/>
     </row>
     <row r="119" spans="2:3">
-      <c r="B119" s="110"/>
-      <c r="C119" s="111"/>
+      <c r="B119" s="115"/>
+      <c r="C119" s="116"/>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="110"/>
-      <c r="C120" s="111"/>
+      <c r="B120" s="115"/>
+      <c r="C120" s="116"/>
     </row>
     <row r="121" spans="2:3">
-      <c r="B121" s="110"/>
-      <c r="C121" s="111"/>
+      <c r="B121" s="115"/>
+      <c r="C121" s="116"/>
     </row>
     <row r="122" spans="2:3">
-      <c r="B122" s="110"/>
-      <c r="C122" s="111"/>
+      <c r="B122" s="115"/>
+      <c r="C122" s="116"/>
     </row>
     <row r="123" spans="2:3">
-      <c r="B123" s="110"/>
-      <c r="C123" s="111"/>
+      <c r="B123" s="115"/>
+      <c r="C123" s="116"/>
     </row>
     <row r="124" spans="2:3">
-      <c r="B124" s="110"/>
-      <c r="C124" s="111"/>
+      <c r="B124" s="115"/>
+      <c r="C124" s="116"/>
     </row>
     <row r="125" spans="2:3">
-      <c r="B125" s="110"/>
-      <c r="C125" s="111"/>
+      <c r="B125" s="115"/>
+      <c r="C125" s="116"/>
     </row>
     <row r="126" spans="2:3">
-      <c r="B126" s="110"/>
-      <c r="C126" s="111"/>
+      <c r="B126" s="115"/>
+      <c r="C126" s="116"/>
     </row>
     <row r="127" spans="2:3">
-      <c r="B127" s="110"/>
-      <c r="C127" s="111"/>
+      <c r="B127" s="115"/>
+      <c r="C127" s="116"/>
     </row>
     <row r="128" spans="2:3">
-      <c r="B128" s="110"/>
-      <c r="C128" s="111"/>
+      <c r="B128" s="115"/>
+      <c r="C128" s="116"/>
     </row>
     <row r="129" spans="2:3">
-      <c r="B129" s="110"/>
-      <c r="C129" s="111"/>
+      <c r="B129" s="115"/>
+      <c r="C129" s="116"/>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="110"/>
-      <c r="C130" s="111"/>
+      <c r="B130" s="115"/>
+      <c r="C130" s="116"/>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="110"/>
-      <c r="C131" s="111"/>
+      <c r="B131" s="115"/>
+      <c r="C131" s="116"/>
     </row>
     <row r="132" spans="2:3">
-      <c r="B132" s="110"/>
-      <c r="C132" s="111"/>
+      <c r="B132" s="115"/>
+      <c r="C132" s="116"/>
     </row>
     <row r="133" spans="2:3">
-      <c r="B133" s="110"/>
-      <c r="C133" s="111"/>
+      <c r="B133" s="115"/>
+      <c r="C133" s="116"/>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="110"/>
-      <c r="C134" s="111"/>
+      <c r="B134" s="115"/>
+      <c r="C134" s="116"/>
     </row>
     <row r="135" spans="2:3">
-      <c r="B135" s="110"/>
-      <c r="C135" s="111"/>
+      <c r="B135" s="115"/>
+      <c r="C135" s="116"/>
     </row>
     <row r="136" spans="2:3">
-      <c r="B136" s="110"/>
-      <c r="C136" s="111"/>
+      <c r="B136" s="115"/>
+      <c r="C136" s="116"/>
     </row>
     <row r="137" spans="2:3">
-      <c r="B137" s="110"/>
-      <c r="C137" s="111"/>
+      <c r="B137" s="115"/>
+      <c r="C137" s="116"/>
     </row>
     <row r="138" spans="2:3">
-      <c r="B138" s="110"/>
-      <c r="C138" s="111"/>
+      <c r="B138" s="115"/>
+      <c r="C138" s="116"/>
     </row>
     <row r="139" spans="2:3">
-      <c r="B139" s="110"/>
-      <c r="C139" s="111"/>
+      <c r="B139" s="115"/>
+      <c r="C139" s="116"/>
     </row>
     <row r="140" spans="2:3">
-      <c r="B140" s="110"/>
-      <c r="C140" s="111"/>
+      <c r="B140" s="115"/>
+      <c r="C140" s="116"/>
     </row>
     <row r="141" spans="2:3">
-      <c r="B141" s="110"/>
-      <c r="C141" s="111"/>
+      <c r="B141" s="115"/>
+      <c r="C141" s="116"/>
     </row>
     <row r="142" spans="2:3">
-      <c r="B142" s="110"/>
-      <c r="C142" s="111"/>
+      <c r="B142" s="115"/>
+      <c r="C142" s="116"/>
     </row>
     <row r="143" spans="2:3">
-      <c r="B143" s="110"/>
-      <c r="C143" s="111"/>
+      <c r="B143" s="115"/>
+      <c r="C143" s="116"/>
     </row>
     <row r="144" spans="2:3">
-      <c r="B144" s="110"/>
-      <c r="C144" s="111"/>
+      <c r="B144" s="115"/>
+      <c r="C144" s="116"/>
     </row>
     <row r="145" spans="2:3">
-      <c r="B145" s="110"/>
-      <c r="C145" s="111"/>
+      <c r="B145" s="115"/>
+      <c r="C145" s="116"/>
     </row>
     <row r="146" spans="2:3">
-      <c r="B146" s="110"/>
-      <c r="C146" s="111"/>
+      <c r="B146" s="115"/>
+      <c r="C146" s="116"/>
     </row>
     <row r="147" spans="2:3">
-      <c r="B147" s="110"/>
-      <c r="C147" s="111"/>
+      <c r="B147" s="115"/>
+      <c r="C147" s="116"/>
     </row>
     <row r="148" spans="2:3">
-      <c r="B148" s="110"/>
-      <c r="C148" s="111"/>
+      <c r="B148" s="115"/>
+      <c r="C148" s="116"/>
     </row>
     <row r="149" spans="2:3">
-      <c r="B149" s="110"/>
-      <c r="C149" s="111"/>
+      <c r="B149" s="115"/>
+      <c r="C149" s="116"/>
     </row>
     <row r="150" spans="2:3">
-      <c r="B150" s="110"/>
-      <c r="C150" s="111"/>
+      <c r="B150" s="115"/>
+      <c r="C150" s="116"/>
     </row>
     <row r="151" spans="2:3">
-      <c r="B151" s="110"/>
-      <c r="C151" s="111"/>
+      <c r="B151" s="115"/>
+      <c r="C151" s="116"/>
     </row>
     <row r="152" spans="2:3">
-      <c r="B152" s="110"/>
-      <c r="C152" s="111"/>
+      <c r="B152" s="115"/>
+      <c r="C152" s="116"/>
     </row>
     <row r="153" spans="2:3">
-      <c r="B153" s="110"/>
-      <c r="C153" s="111"/>
+      <c r="B153" s="115"/>
+      <c r="C153" s="116"/>
     </row>
     <row r="154" spans="2:3">
-      <c r="B154" s="110"/>
-      <c r="C154" s="111"/>
+      <c r="B154" s="115"/>
+      <c r="C154" s="116"/>
     </row>
     <row r="155" spans="2:3">
-      <c r="B155" s="110"/>
-      <c r="C155" s="111"/>
+      <c r="B155" s="115"/>
+      <c r="C155" s="116"/>
     </row>
     <row r="156" spans="2:3">
-      <c r="B156" s="110"/>
-      <c r="C156" s="111"/>
+      <c r="B156" s="115"/>
+      <c r="C156" s="116"/>
     </row>
     <row r="157" spans="2:3">
-      <c r="B157" s="110"/>
-      <c r="C157" s="111"/>
+      <c r="B157" s="115"/>
+      <c r="C157" s="116"/>
     </row>
     <row r="158" spans="2:3">
-      <c r="B158" s="110"/>
-      <c r="C158" s="111"/>
+      <c r="B158" s="115"/>
+      <c r="C158" s="116"/>
     </row>
     <row r="159" spans="2:3">
-      <c r="B159" s="110"/>
-      <c r="C159" s="111"/>
+      <c r="B159" s="115"/>
+      <c r="C159" s="116"/>
     </row>
     <row r="160" spans="2:3">
-      <c r="B160" s="110"/>
-      <c r="C160" s="111"/>
+      <c r="B160" s="115"/>
+      <c r="C160" s="116"/>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="110"/>
-      <c r="C161" s="111"/>
+      <c r="B161" s="115"/>
+      <c r="C161" s="116"/>
     </row>
     <row r="162" spans="2:3">
-      <c r="B162" s="110"/>
-      <c r="C162" s="111"/>
+      <c r="B162" s="115"/>
+      <c r="C162" s="116"/>
     </row>
     <row r="163" spans="2:3">
-      <c r="B163" s="110"/>
-      <c r="C163" s="111"/>
+      <c r="B163" s="115"/>
+      <c r="C163" s="116"/>
     </row>
     <row r="164" spans="2:3">
-      <c r="B164" s="110"/>
-      <c r="C164" s="111"/>
+      <c r="B164" s="115"/>
+      <c r="C164" s="116"/>
     </row>
     <row r="165" spans="2:3">
-      <c r="B165" s="110"/>
-      <c r="C165" s="111"/>
+      <c r="B165" s="115"/>
+      <c r="C165" s="116"/>
     </row>
     <row r="166" spans="2:3">
-      <c r="B166" s="110"/>
-      <c r="C166" s="111"/>
+      <c r="B166" s="115"/>
+      <c r="C166" s="116"/>
     </row>
     <row r="167" spans="2:3">
-      <c r="B167" s="110"/>
-      <c r="C167" s="111"/>
+      <c r="B167" s="115"/>
+      <c r="C167" s="116"/>
     </row>
     <row r="168" spans="2:3">
-      <c r="B168" s="110"/>
-      <c r="C168" s="111"/>
+      <c r="B168" s="115"/>
+      <c r="C168" s="116"/>
     </row>
     <row r="169" spans="2:3">
-      <c r="B169" s="110"/>
-      <c r="C169" s="111"/>
+      <c r="B169" s="115"/>
+      <c r="C169" s="116"/>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="110"/>
-      <c r="C170" s="111"/>
+      <c r="B170" s="115"/>
+      <c r="C170" s="116"/>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="110"/>
-      <c r="C171" s="111"/>
+      <c r="B171" s="115"/>
+      <c r="C171" s="116"/>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="110"/>
-      <c r="C172" s="111"/>
+      <c r="B172" s="115"/>
+      <c r="C172" s="116"/>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="110"/>
-      <c r="C173" s="111"/>
+      <c r="B173" s="115"/>
+      <c r="C173" s="116"/>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="110"/>
-      <c r="C174" s="111"/>
+      <c r="B174" s="115"/>
+      <c r="C174" s="116"/>
     </row>
     <row r="175" spans="2:3">
-      <c r="B175" s="110"/>
-      <c r="C175" s="111"/>
+      <c r="B175" s="115"/>
+      <c r="C175" s="116"/>
     </row>
     <row r="176" spans="2:3">
-      <c r="B176" s="110"/>
-      <c r="C176" s="111"/>
+      <c r="B176" s="115"/>
+      <c r="C176" s="116"/>
     </row>
     <row r="177" spans="2:3">
-      <c r="B177" s="110"/>
-      <c r="C177" s="111"/>
+      <c r="B177" s="115"/>
+      <c r="C177" s="116"/>
     </row>
     <row r="178" spans="2:3">
-      <c r="B178" s="110"/>
-      <c r="C178" s="111"/>
+      <c r="B178" s="115"/>
+      <c r="C178" s="116"/>
     </row>
     <row r="179" spans="2:3">
-      <c r="B179" s="110"/>
-      <c r="C179" s="111"/>
+      <c r="B179" s="115"/>
+      <c r="C179" s="116"/>
     </row>
     <row r="180" spans="2:3">
-      <c r="B180" s="110"/>
-      <c r="C180" s="111"/>
+      <c r="B180" s="115"/>
+      <c r="C180" s="116"/>
     </row>
     <row r="181" spans="2:3">
-      <c r="B181" s="110"/>
-      <c r="C181" s="111"/>
+      <c r="B181" s="115"/>
+      <c r="C181" s="116"/>
     </row>
     <row r="182" spans="2:3">
-      <c r="B182" s="110"/>
-      <c r="C182" s="111"/>
+      <c r="B182" s="115"/>
+      <c r="C182" s="116"/>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="110"/>
-      <c r="C183" s="111"/>
+      <c r="B183" s="115"/>
+      <c r="C183" s="116"/>
     </row>
     <row r="184" spans="2:3">
-      <c r="B184" s="110"/>
-      <c r="C184" s="111"/>
+      <c r="B184" s="115"/>
+      <c r="C184" s="116"/>
     </row>
     <row r="185" spans="2:3">
-      <c r="B185" s="110"/>
-      <c r="C185" s="111"/>
+      <c r="B185" s="115"/>
+      <c r="C185" s="116"/>
     </row>
     <row r="186" spans="2:3">
-      <c r="B186" s="110"/>
-      <c r="C186" s="111"/>
+      <c r="B186" s="115"/>
+      <c r="C186" s="116"/>
     </row>
     <row r="187" spans="2:3">
-      <c r="B187" s="110"/>
-      <c r="C187" s="111"/>
+      <c r="B187" s="115"/>
+      <c r="C187" s="116"/>
     </row>
     <row r="188" spans="2:3">
-      <c r="B188" s="110"/>
-      <c r="C188" s="111"/>
+      <c r="B188" s="115"/>
+      <c r="C188" s="116"/>
     </row>
     <row r="189" spans="2:3">
-      <c r="B189" s="110"/>
-      <c r="C189" s="111"/>
+      <c r="B189" s="115"/>
+      <c r="C189" s="116"/>
     </row>
     <row r="190" spans="2:3">
-      <c r="B190" s="110"/>
-      <c r="C190" s="111"/>
+      <c r="B190" s="115"/>
+      <c r="C190" s="116"/>
     </row>
     <row r="191" spans="2:3">
-      <c r="B191" s="110"/>
-      <c r="C191" s="111"/>
+      <c r="B191" s="115"/>
+      <c r="C191" s="116"/>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="110"/>
-      <c r="C192" s="111"/>
+      <c r="B192" s="115"/>
+      <c r="C192" s="116"/>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="110"/>
-      <c r="C193" s="111"/>
+      <c r="B193" s="115"/>
+      <c r="C193" s="116"/>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="110"/>
-      <c r="C194" s="111"/>
+      <c r="B194" s="115"/>
+      <c r="C194" s="116"/>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="110"/>
-      <c r="C195" s="111"/>
+      <c r="B195" s="115"/>
+      <c r="C195" s="116"/>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="110"/>
-      <c r="C196" s="111"/>
+      <c r="B196" s="115"/>
+      <c r="C196" s="116"/>
     </row>
     <row r="197" spans="2:3">
-      <c r="B197" s="110"/>
-      <c r="C197" s="111"/>
+      <c r="B197" s="115"/>
+      <c r="C197" s="116"/>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="110"/>
-      <c r="C198" s="111"/>
+      <c r="B198" s="115"/>
+      <c r="C198" s="116"/>
     </row>
     <row r="199" spans="2:3">
-      <c r="B199" s="110"/>
-      <c r="C199" s="111"/>
+      <c r="B199" s="115"/>
+      <c r="C199" s="116"/>
     </row>
     <row r="200" spans="2:3">
-      <c r="B200" s="110"/>
-      <c r="C200" s="111"/>
+      <c r="B200" s="115"/>
+      <c r="C200" s="116"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Fieg7e/RbUbNKBSn4Ew6LRPS5bW+VkMyDKRk3dHimb/71ksXW005tR7RyRcbQPmBDavIv0VnyWIE423CepCt0g==" saltValue="SMY4Ht9joNHKBu+Wlgisqg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -3292,8 +3338,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25"/>
@@ -3308,16 +3354,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15">
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="95"/>
+      <c r="C1" s="100"/>
     </row>
     <row r="3" spans="2:3" ht="15">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="96"/>
+      <c r="C3" s="101"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
@@ -3328,17 +3374,17 @@
       </c>
     </row>
     <row r="5" spans="2:3" ht="17.100000000000001" customHeight="1">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="97"/>
+      <c r="C5" s="102"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f t="array" ref="C6">SUMPRODUCT((Request!C8:C800="Yes")*(Request!F8:F800="Onsite User")/IF((Request!C8:C800="Yes")*(Request!F8:F800="Onsite User"), COUNTIF(Request!A8:A800,Request!A8:A800), 1))</f>
+        <f t="array" ref="C6">SUM(IF((Request!C8:C800="Yes")*(Request!F8:F800="Onsite User"), 1/COUNTIFS(Request!A8:A800, Request!A8:A800, Request!C8:C800, "Yes", Request!F8:F800, "Onsite User")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3347,7 +3393,7 @@
         <v>161</v>
       </c>
       <c r="C7" s="1">
-        <f t="array" ref="C7">SUMPRODUCT((Request!C8:C800="Yes")*(Request!F8:F800="Remote User")/IF((Request!C8:C800="Yes")*(Request!F8:F800="Remote User"), COUNTIF(Request!A8:A800,Request!A8:A800), 1))</f>
+        <f t="array" ref="C7">SUM(IF((Request!C8:C800="Yes")*(Request!F8:F800="Remote User"), 1/COUNTIFS(Request!A8:A800, Request!A8:A800, Request!C8:C800, "Yes", Request!F8:F800, "Remote User")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3356,7 +3402,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <f t="array" ref="C8">SUMPRODUCT((Request!C8:C800="Yes")*(Request!F8:F800="Data User")/IF((Request!C8:C800="Yes")*(Request!F8:F800="Data User"), COUNTIF(Request!A8:A800,Request!A8:A800), 1))</f>
+        <f t="array" ref="C8">SUM(IF((Request!C8:C800="Yes")*(Request!F8:F800="Data User"), 1/COUNTIFS(Request!A8:A800, Request!A8:A800, Request!C8:C800, "Yes", Request!F8:F800, "Data User")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3370,17 +3416,17 @@
       </c>
     </row>
     <row r="10" spans="2:3" ht="17.100000000000001" customHeight="1">
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="97"/>
+      <c r="C10" s="102"/>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1">
-        <f t="array" ref="C11">SUMPRODUCT((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B11)/IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B11), COUNTIF(Request!$A$8:$A$800, Request!$A$8:$A$800), 1))</f>
+        <f t="array" ref="C11">SUM(IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B11), 1/COUNTIFS(Request!$A$8:$A$800, Request!$A$8:$A$800, Request!$C$8:$C$800, "Yes", Request!$D$8:$D$800, B11)))</f>
         <v>0</v>
       </c>
     </row>
@@ -3389,7 +3435,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1">
-        <f t="array" ref="C12">SUMPRODUCT((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B12)/IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B12), COUNTIF(Request!$A$8:$A$800, Request!$A$8:$A$800), 1))</f>
+        <f t="array" ref="C12">SUM(IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B12), 1/COUNTIFS(Request!$A$8:$A$800, Request!$A$8:$A$800, Request!$C$8:$C$800, "Yes", Request!$D$8:$D$800, B12)))</f>
         <v>0</v>
       </c>
     </row>
@@ -3398,7 +3444,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1">
-        <f t="array" ref="C13">SUMPRODUCT((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B13)/IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B13), COUNTIF(Request!$A$8:$A$800, Request!$A$8:$A$800), 1))</f>
+        <f t="array" ref="C13">SUM(IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B13), 1/COUNTIFS(Request!$A$8:$A$800, Request!$A$8:$A$800, Request!$C$8:$C$800, "Yes", Request!$D$8:$D$800, B13)))</f>
         <v>0</v>
       </c>
     </row>
@@ -3407,7 +3453,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <f t="array" ref="C14">SUMPRODUCT((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B14)/IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B14), COUNTIF(Request!$A$8:$A$800, Request!$A$8:$A$800), 1))</f>
+        <f t="array" ref="C14">SUM(IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B14), 1/COUNTIFS(Request!$A$8:$A$800, Request!$A$8:$A$800, Request!$C$8:$C$800, "Yes", Request!$D$8:$D$800, B14)))</f>
         <v>0</v>
       </c>
     </row>
@@ -3416,7 +3462,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1">
-        <f t="array" ref="C15">SUMPRODUCT((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B15)/IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B15), COUNTIF(Request!$A$8:$A$800, Request!$A$8:$A$800), 1))</f>
+        <f t="array" ref="C15">SUM(IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B15), 1/COUNTIFS(Request!$A$8:$A$800, Request!$A$8:$A$800, Request!$C$8:$C$800, "Yes", Request!$D$8:$D$800, B15)))</f>
         <v>0</v>
       </c>
     </row>
@@ -3425,7 +3471,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="1">
-        <f t="array" ref="C16">SUMPRODUCT((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B16)/IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B16), COUNTIF(Request!$A$8:$A$800, Request!$A$8:$A$800), 1))</f>
+        <f t="array" ref="C16">SUM(IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B16), 1/COUNTIFS(Request!$A$8:$A$800, Request!$A$8:$A$800, Request!$C$8:$C$800, "Yes", Request!$D$8:$D$800, B16)))</f>
         <v>0</v>
       </c>
     </row>
@@ -3434,7 +3480,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="1">
-        <f t="array" ref="C17">SUMPRODUCT((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B17)/IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B17), COUNTIF(Request!$A$8:$A$800, Request!$A$8:$A$800), 1))</f>
+        <f t="array" ref="C17">SUM(IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B17), 1/COUNTIFS(Request!$A$8:$A$800, Request!$A$8:$A$800, Request!$C$8:$C$800, "Yes", Request!$D$8:$D$800, B17)))</f>
         <v>0</v>
       </c>
     </row>
@@ -3443,7 +3489,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="1">
-        <f t="array" ref="C18">SUMPRODUCT((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B18)/IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B18), COUNTIF(Request!$A$8:$A$800, Request!$A$8:$A$800), 1))</f>
+        <f t="array" ref="C18">SUM(IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B18), 1/COUNTIFS(Request!$A$8:$A$800, Request!$A$8:$A$800, Request!$C$8:$C$800, "Yes", Request!$D$8:$D$800, B18)))</f>
         <v>0</v>
       </c>
     </row>
@@ -3452,7 +3498,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="1">
-        <f t="array" ref="C19">SUMPRODUCT((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B19)/IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B19), COUNTIF(Request!$A$8:$A$800, Request!$A$8:$A$800), 1))</f>
+        <f t="array" ref="C19">SUM(IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B19), 1/COUNTIFS(Request!$A$8:$A$800, Request!$A$8:$A$800, Request!$C$8:$C$800, "Yes", Request!$D$8:$D$800, B19)))</f>
         <v>0</v>
       </c>
     </row>
@@ -3461,7 +3507,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="1">
-        <f t="array" ref="C20">SUMPRODUCT((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B20)/IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B20), COUNTIF(Request!$A$8:$A$800, Request!$A$8:$A$800), 1))</f>
+        <f t="array" ref="C20">SUM(IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B20), 1/COUNTIFS(Request!$A$8:$A$800, Request!$A$8:$A$800, Request!$C$8:$C$800, "Yes", Request!$D$8:$D$800, B20)))</f>
         <v>0</v>
       </c>
     </row>
@@ -3470,7 +3516,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="1">
-        <f t="array" ref="C21">SUMPRODUCT((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B21)/IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B21), COUNTIF(Request!$A$8:$A$800, Request!$A$8:$A$800), 1))</f>
+        <f t="array" ref="C21">SUM(IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B21), 1/COUNTIFS(Request!$A$8:$A$800, Request!$A$8:$A$800, Request!$C$8:$C$800, "Yes", Request!$D$8:$D$800, B21)))</f>
         <v>0</v>
       </c>
     </row>
@@ -3479,7 +3525,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="1">
-        <f t="array" ref="C22">SUMPRODUCT((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B22)/IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B22), COUNTIF(Request!$A$8:$A$800, Request!$A$8:$A$800), 1))</f>
+        <f t="array" ref="C22">SUM(IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B22), 1/COUNTIFS(Request!$A$8:$A$800, Request!$A$8:$A$800, Request!$C$8:$C$800, "Yes", Request!$D$8:$D$800, B22)))</f>
         <v>0</v>
       </c>
     </row>
@@ -3488,7 +3534,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="1">
-        <f t="array" ref="C23">SUMPRODUCT((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B23)/IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B23), COUNTIF(Request!$A$8:$A$800, Request!$A$8:$A$800), 1))</f>
+        <f t="array" ref="C23">SUM(IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B23), 1/COUNTIFS(Request!$A$8:$A$800, Request!$A$8:$A$800, Request!$C$8:$C$800, "Yes", Request!$D$8:$D$800, B23)))</f>
         <v>0</v>
       </c>
     </row>
@@ -3497,7 +3543,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="1">
-        <f t="array" ref="C24">SUMPRODUCT((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B24)/IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B24), COUNTIF(Request!$A$8:$A$800, Request!$A$8:$A$800), 1))</f>
+        <f t="array" ref="C24">SUM(IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B24), 1/COUNTIFS(Request!$A$8:$A$800, Request!$A$8:$A$800, Request!$C$8:$C$800, "Yes", Request!$D$8:$D$800, B24)))</f>
         <v>0</v>
       </c>
     </row>
@@ -3506,7 +3552,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="1">
-        <f t="array" ref="C25">SUMPRODUCT((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B25)/IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B25), COUNTIF(Request!$A$8:$A$800, Request!$A$8:$A$800), 1))</f>
+        <f t="array" ref="C25">SUM(IF((Request!$C$8:$C$800="Yes")*(Request!$D$8:$D$800=B25), 1/COUNTIFS(Request!$A$8:$A$800, Request!$A$8:$A$800, Request!$C$8:$C$800, "Yes", Request!$D$8:$D$800, B25)))</f>
         <v>0</v>
       </c>
     </row>
@@ -3520,17 +3566,17 @@
       </c>
     </row>
     <row r="27" spans="2:3" ht="17.100000000000001" customHeight="1">
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="97"/>
+      <c r="C27" s="102"/>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="1">
-        <f t="array" ref="C28">SUMPRODUCT((Request!$C$8:$C$800="Yes")*(Request!$G$8:$G$800=B28)/IF((Request!$C$8:$C$800="Yes")*(Request!$G$8:$G$800=B28), COUNTIF(Request!$A$8:$A$800, Request!$A$8:$A$800), 1))</f>
+        <f t="array" ref="C28">SUM(IF((Request!$C$8:$C$800="Yes")*(Request!$G$8:$G$800=B28), 1/COUNTIFS(Request!$A$8:$A$800, Request!$A$8:$A$800, Request!$C$8:$C$800, "Yes", Request!$G$8:$G$800, B28)))</f>
         <v>0</v>
       </c>
     </row>
@@ -3539,7 +3585,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="1">
-        <f t="array" ref="C29">SUMPRODUCT((Request!$C$8:$C$800="Yes")*(Request!$G$8:$G$800=B29)/IF((Request!$C$8:$C$800="Yes")*(Request!$G$8:$G$800=B29), COUNTIF(Request!$A$8:$A$800, Request!$A$8:$A$800), 1))</f>
+        <f t="array" ref="C29">SUM(IF((Request!$C$8:$C$800="Yes")*(Request!$G$8:$G$800=B29), 1/COUNTIFS(Request!$A$8:$A$800, Request!$A$8:$A$800, Request!$C$8:$C$800, "Yes", Request!$G$8:$G$800, B29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -3548,7 +3594,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="1">
-        <f t="array" ref="C30">SUMPRODUCT((Request!$C$8:$C$800="Yes")*(Request!$G$8:$G$800=B30)/IF((Request!$C$8:$C$800="Yes")*(Request!$G$8:$G$800=B30), COUNTIF(Request!$A$8:$A$800, Request!$A$8:$A$800), 1))</f>
+        <f t="array" ref="C30">SUM(IF((Request!$C$8:$C$800="Yes")*(Request!$G$8:$G$800=B30), 1/COUNTIFS(Request!$A$8:$A$800, Request!$A$8:$A$800, Request!$C$8:$C$800, "Yes", Request!$G$8:$G$800, B30)))</f>
         <v>0</v>
       </c>
     </row>
@@ -3557,7 +3603,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="1">
-        <f t="array" ref="C31">SUMPRODUCT((Request!$C$8:$C$800="Yes")*(Request!$G$8:$G$800=B31)/IF((Request!$C$8:$C$800="Yes")*(Request!$G$8:$G$800=B31), COUNTIF(Request!$A$8:$A$800, Request!$A$8:$A$800), 1))</f>
+        <f t="array" ref="C31">SUM(IF((Request!$C$8:$C$800="Yes")*(Request!$G$8:$G$800=B31), 1/COUNTIFS(Request!$A$8:$A$800, Request!$A$8:$A$800, Request!$C$8:$C$800, "Yes", Request!$G$8:$G$800, B31)))</f>
         <v>0</v>
       </c>
     </row>
@@ -3571,10 +3617,10 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="17.100000000000001" customHeight="1">
-      <c r="B34" s="96" t="s">
+      <c r="B34" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="96"/>
+      <c r="C34" s="101"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
@@ -3613,10 +3659,10 @@
     </row>
     <row r="39" spans="2:4" ht="17.100000000000001" customHeight="1"/>
     <row r="40" spans="2:4" ht="15">
-      <c r="B40" s="98" t="s">
+      <c r="B40" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="98"/>
+      <c r="C40" s="103"/>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="2" t="s">
@@ -3636,10 +3682,10 @@
       </c>
     </row>
     <row r="44" spans="2:4" ht="15">
-      <c r="B44" s="98" t="s">
+      <c r="B44" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="98"/>
+      <c r="C44" s="103"/>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="2" t="s">
@@ -3696,10 +3742,10 @@
       </c>
     </row>
     <row r="52" spans="2:3" ht="15">
-      <c r="B52" s="98" t="s">
+      <c r="B52" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="98"/>
+      <c r="C52" s="103"/>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="2" t="s">
@@ -3746,10 +3792,10 @@
       </c>
     </row>
     <row r="59" spans="2:3" ht="15">
-      <c r="B59" s="98" t="s">
+      <c r="B59" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="98"/>
+      <c r="C59" s="103"/>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="2" t="s">
@@ -3805,10 +3851,10 @@
       </c>
     </row>
     <row r="67" spans="2:3" ht="15">
-      <c r="B67" s="98" t="s">
+      <c r="B67" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="98"/>
+      <c r="C67" s="103"/>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="2" t="s">
@@ -3864,10 +3910,10 @@
       </c>
     </row>
     <row r="75" spans="2:3" ht="15">
-      <c r="B75" s="98" t="s">
+      <c r="B75" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="C75" s="98"/>
+      <c r="C75" s="103"/>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="2" t="s">
@@ -3941,10 +3987,10 @@
       </c>
     </row>
     <row r="85" spans="2:3" ht="15">
-      <c r="B85" s="98" t="s">
+      <c r="B85" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="C85" s="98"/>
+      <c r="C85" s="103"/>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="2" t="s">
@@ -4009,10 +4055,10 @@
       </c>
     </row>
     <row r="94" spans="2:3" ht="15">
-      <c r="B94" s="98" t="s">
+      <c r="B94" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="C94" s="98"/>
+      <c r="C94" s="103"/>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" s="2" t="s">
@@ -4059,7 +4105,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CV5YxOsGTOWcj6IKf/+JYa0u3CDjF3oEnkDM9qTpB7esJornBtCmNR0YE+bYZ4fCq4ufqDEwpz3KYgvOUP2gDg==" saltValue="yAkptQiQMw4bMz1hT2xlUA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8/SeBsbY6lGHSK+hJbnzoHVGXiWJ10+P/+rs43nw3SvmGiuFgi3yaca8gJE+q1DJQOPVCr9sCYwF3WoR86+NAg==" saltValue="aeJfQMGpNX6YydUAjibqVg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="14">
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B94:C94"/>
@@ -4084,17 +4130,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.875" defaultRowHeight="17.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" style="48" customWidth="1"/>
-    <col min="2" max="2" width="50" style="48" customWidth="1"/>
-    <col min="3" max="4" width="38.875" style="48"/>
+    <col min="2" max="2" width="74.875" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.75" style="48" customWidth="1"/>
+    <col min="4" max="4" width="38.875" style="48"/>
     <col min="5" max="5" width="38.875" style="49"/>
     <col min="6" max="7" width="38.875" style="48"/>
     <col min="8" max="8" width="38.875" style="49"/>
@@ -4241,8 +4288,35 @@
         <v>80</v>
       </c>
     </row>
+    <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H8" s="94"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H9" s="95"/>
+    </row>
+    <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H10" s="48"/>
+    </row>
+    <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H11" s="48"/>
+    </row>
+    <row r="13" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H13" s="48"/>
+    </row>
+    <row r="16" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H16" s="48"/>
+    </row>
+    <row r="17" spans="8:8" ht="17.100000000000001" customHeight="1">
+      <c r="H17" s="48"/>
+    </row>
+    <row r="19" spans="8:8" ht="17.100000000000001" customHeight="1">
+      <c r="H19" s="48"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fDQHjFv/DP2iCBPN+c3IFrHhbVR7oN8+OH6BZo7cClQ/I8nn+1WpJV8wHiVF4MMzLHmg+BHZ0B1ITU6yqbXe2Q==" saltValue="ff3y9rwuCQiIq5/c6EL3Yw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="l915emW6JwtO8iJ4OVt7gGq+LRbzOQ4LoqFXprDHeuhD92grnoO5Lq/4UNFCwqrnztXQ+Rbxmysb5SzMC6XLTw==" saltValue="huJ2d4/MB4GYTM2OHzp8Ow==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sortState ref="A8:K20">
+    <sortCondition ref="A7"/>
+  </sortState>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="E8:E1048576">
     <cfRule type="expression" dxfId="14" priority="73" stopIfTrue="1">
@@ -4354,11 +4428,11 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3"/>
@@ -5190,7 +5264,7 @@
   <dimension ref="A1:C199"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25"/>
@@ -5231,12 +5305,6 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="C5" s="51" t="str">
-        <f>IFERROR(B5/A5,"")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" spans="1:3">
       <c r="C6" s="51" t="str">
         <f t="shared" ref="C6:C69" si="0">IFERROR(B6/A6,"")</f>
@@ -6406,7 +6474,7 @@
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C5:C199" unlockedFormula="1"/>
+    <ignoredError sqref="C6:C199" unlockedFormula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -6417,7 +6485,7 @@
   <dimension ref="A1:K199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:J24"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25"/>
@@ -6600,1979 +6668,1979 @@
       <c r="A22" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
       <c r="K22" s="72" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
       <c r="K23" s="81"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
       <c r="K24" s="81"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
       <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
       <c r="K26" s="81"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
       <c r="K27" s="81"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
       <c r="K28" s="81"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="B29" s="100"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
       <c r="K29" s="81"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
       <c r="K30" s="81"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
       <c r="K31" s="81"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="B32" s="101"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
       <c r="K32" s="81"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
       <c r="K33" s="81"/>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="100"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
       <c r="K34" s="81"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="100"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="100"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="100"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="100"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="100"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="100"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="101"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="100"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="100"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="100"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="105"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="100"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="100"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="105"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="100"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="105"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="100"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="100"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="100"/>
-      <c r="I45" s="100"/>
-      <c r="J45" s="100"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105"/>
     </row>
     <row r="46" spans="2:11">
-      <c r="B46" s="100"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="105"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="100"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="100"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105"/>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="100"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="100"/>
+      <c r="B48" s="105"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="105"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="100"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="105"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="100"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="105"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="100"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="105"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="100"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="100"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="100"/>
-      <c r="I52" s="100"/>
-      <c r="J52" s="100"/>
+      <c r="B52" s="105"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="105"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="100"/>
-      <c r="C53" s="100"/>
-      <c r="D53" s="100"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="100"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="100"/>
-      <c r="C54" s="100"/>
-      <c r="D54" s="100"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
+      <c r="B54" s="105"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="105"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="100"/>
-      <c r="C55" s="100"/>
-      <c r="D55" s="100"/>
-      <c r="E55" s="100"/>
-      <c r="F55" s="100"/>
-      <c r="G55" s="100"/>
-      <c r="H55" s="100"/>
-      <c r="I55" s="100"/>
-      <c r="J55" s="100"/>
+      <c r="B55" s="105"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="105"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="100"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="100"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="100"/>
+      <c r="B56" s="105"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="105"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="100"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="100"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="100"/>
-      <c r="J57" s="100"/>
+      <c r="B57" s="105"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="105"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="100"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="100"/>
-      <c r="E58" s="100"/>
-      <c r="F58" s="100"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
-      <c r="I58" s="100"/>
-      <c r="J58" s="100"/>
+      <c r="B58" s="105"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="105"/>
+      <c r="J58" s="105"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="100"/>
-      <c r="C59" s="100"/>
-      <c r="D59" s="100"/>
-      <c r="E59" s="100"/>
-      <c r="F59" s="100"/>
-      <c r="G59" s="100"/>
-      <c r="H59" s="100"/>
-      <c r="I59" s="100"/>
-      <c r="J59" s="100"/>
+      <c r="B59" s="105"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="105"/>
+      <c r="G59" s="105"/>
+      <c r="H59" s="105"/>
+      <c r="I59" s="105"/>
+      <c r="J59" s="105"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="100"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="100"/>
-      <c r="E60" s="100"/>
-      <c r="F60" s="100"/>
-      <c r="G60" s="100"/>
-      <c r="H60" s="100"/>
-      <c r="I60" s="100"/>
-      <c r="J60" s="100"/>
+      <c r="B60" s="105"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="105"/>
+      <c r="G60" s="105"/>
+      <c r="H60" s="105"/>
+      <c r="I60" s="105"/>
+      <c r="J60" s="105"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="100"/>
-      <c r="C61" s="100"/>
-      <c r="D61" s="100"/>
-      <c r="E61" s="100"/>
-      <c r="F61" s="100"/>
-      <c r="G61" s="100"/>
-      <c r="H61" s="100"/>
-      <c r="I61" s="100"/>
-      <c r="J61" s="100"/>
+      <c r="B61" s="105"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="105"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="105"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="100"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="100"/>
-      <c r="E62" s="100"/>
-      <c r="F62" s="100"/>
-      <c r="G62" s="100"/>
-      <c r="H62" s="100"/>
-      <c r="I62" s="100"/>
-      <c r="J62" s="100"/>
+      <c r="B62" s="105"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="105"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="105"/>
+      <c r="G62" s="105"/>
+      <c r="H62" s="105"/>
+      <c r="I62" s="105"/>
+      <c r="J62" s="105"/>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="100"/>
-      <c r="C63" s="100"/>
-      <c r="D63" s="100"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="100"/>
-      <c r="G63" s="100"/>
-      <c r="H63" s="100"/>
-      <c r="I63" s="100"/>
-      <c r="J63" s="100"/>
+      <c r="B63" s="105"/>
+      <c r="C63" s="105"/>
+      <c r="D63" s="105"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="105"/>
+      <c r="G63" s="105"/>
+      <c r="H63" s="105"/>
+      <c r="I63" s="105"/>
+      <c r="J63" s="105"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="100"/>
-      <c r="C64" s="100"/>
-      <c r="D64" s="100"/>
-      <c r="E64" s="100"/>
-      <c r="F64" s="100"/>
-      <c r="G64" s="100"/>
-      <c r="H64" s="100"/>
-      <c r="I64" s="100"/>
-      <c r="J64" s="100"/>
+      <c r="B64" s="105"/>
+      <c r="C64" s="105"/>
+      <c r="D64" s="105"/>
+      <c r="E64" s="105"/>
+      <c r="F64" s="105"/>
+      <c r="G64" s="105"/>
+      <c r="H64" s="105"/>
+      <c r="I64" s="105"/>
+      <c r="J64" s="105"/>
     </row>
     <row r="65" spans="2:10">
-      <c r="B65" s="100"/>
-      <c r="C65" s="100"/>
-      <c r="D65" s="100"/>
-      <c r="E65" s="100"/>
-      <c r="F65" s="100"/>
-      <c r="G65" s="100"/>
-      <c r="H65" s="100"/>
-      <c r="I65" s="100"/>
-      <c r="J65" s="100"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="105"/>
+      <c r="E65" s="105"/>
+      <c r="F65" s="105"/>
+      <c r="G65" s="105"/>
+      <c r="H65" s="105"/>
+      <c r="I65" s="105"/>
+      <c r="J65" s="105"/>
     </row>
     <row r="66" spans="2:10">
-      <c r="B66" s="100"/>
-      <c r="C66" s="100"/>
-      <c r="D66" s="100"/>
-      <c r="E66" s="100"/>
-      <c r="F66" s="100"/>
-      <c r="G66" s="100"/>
-      <c r="H66" s="100"/>
-      <c r="I66" s="100"/>
-      <c r="J66" s="100"/>
+      <c r="B66" s="105"/>
+      <c r="C66" s="105"/>
+      <c r="D66" s="105"/>
+      <c r="E66" s="105"/>
+      <c r="F66" s="105"/>
+      <c r="G66" s="105"/>
+      <c r="H66" s="105"/>
+      <c r="I66" s="105"/>
+      <c r="J66" s="105"/>
     </row>
     <row r="67" spans="2:10">
-      <c r="B67" s="100"/>
-      <c r="C67" s="100"/>
-      <c r="D67" s="100"/>
-      <c r="E67" s="100"/>
-      <c r="F67" s="100"/>
-      <c r="G67" s="100"/>
-      <c r="H67" s="100"/>
-      <c r="I67" s="100"/>
-      <c r="J67" s="100"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="105"/>
+      <c r="F67" s="105"/>
+      <c r="G67" s="105"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="105"/>
+      <c r="J67" s="105"/>
     </row>
     <row r="68" spans="2:10">
-      <c r="B68" s="100"/>
-      <c r="C68" s="100"/>
-      <c r="D68" s="100"/>
-      <c r="E68" s="100"/>
-      <c r="F68" s="100"/>
-      <c r="G68" s="100"/>
-      <c r="H68" s="100"/>
-      <c r="I68" s="100"/>
-      <c r="J68" s="100"/>
+      <c r="B68" s="105"/>
+      <c r="C68" s="105"/>
+      <c r="D68" s="105"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="105"/>
+      <c r="G68" s="105"/>
+      <c r="H68" s="105"/>
+      <c r="I68" s="105"/>
+      <c r="J68" s="105"/>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="100"/>
-      <c r="C69" s="100"/>
-      <c r="D69" s="100"/>
-      <c r="E69" s="100"/>
-      <c r="F69" s="100"/>
-      <c r="G69" s="100"/>
-      <c r="H69" s="100"/>
-      <c r="I69" s="100"/>
-      <c r="J69" s="100"/>
+      <c r="B69" s="105"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="105"/>
+      <c r="E69" s="105"/>
+      <c r="F69" s="105"/>
+      <c r="G69" s="105"/>
+      <c r="H69" s="105"/>
+      <c r="I69" s="105"/>
+      <c r="J69" s="105"/>
     </row>
     <row r="70" spans="2:10">
-      <c r="B70" s="100"/>
-      <c r="C70" s="100"/>
-      <c r="D70" s="100"/>
-      <c r="E70" s="100"/>
-      <c r="F70" s="100"/>
-      <c r="G70" s="100"/>
-      <c r="H70" s="100"/>
-      <c r="I70" s="100"/>
-      <c r="J70" s="100"/>
+      <c r="B70" s="105"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="105"/>
+      <c r="E70" s="105"/>
+      <c r="F70" s="105"/>
+      <c r="G70" s="105"/>
+      <c r="H70" s="105"/>
+      <c r="I70" s="105"/>
+      <c r="J70" s="105"/>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="100"/>
-      <c r="C71" s="100"/>
-      <c r="D71" s="100"/>
-      <c r="E71" s="100"/>
-      <c r="F71" s="100"/>
-      <c r="G71" s="100"/>
-      <c r="H71" s="100"/>
-      <c r="I71" s="100"/>
-      <c r="J71" s="100"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="105"/>
+      <c r="D71" s="105"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="105"/>
+      <c r="H71" s="105"/>
+      <c r="I71" s="105"/>
+      <c r="J71" s="105"/>
     </row>
     <row r="72" spans="2:10">
-      <c r="B72" s="100"/>
-      <c r="C72" s="100"/>
-      <c r="D72" s="100"/>
-      <c r="E72" s="100"/>
-      <c r="F72" s="100"/>
-      <c r="G72" s="100"/>
-      <c r="H72" s="100"/>
-      <c r="I72" s="100"/>
-      <c r="J72" s="100"/>
+      <c r="B72" s="105"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="105"/>
+      <c r="E72" s="105"/>
+      <c r="F72" s="105"/>
+      <c r="G72" s="105"/>
+      <c r="H72" s="105"/>
+      <c r="I72" s="105"/>
+      <c r="J72" s="105"/>
     </row>
     <row r="73" spans="2:10">
-      <c r="B73" s="100"/>
-      <c r="C73" s="100"/>
-      <c r="D73" s="100"/>
-      <c r="E73" s="100"/>
-      <c r="F73" s="100"/>
-      <c r="G73" s="100"/>
-      <c r="H73" s="100"/>
-      <c r="I73" s="100"/>
-      <c r="J73" s="100"/>
+      <c r="B73" s="105"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="105"/>
+      <c r="E73" s="105"/>
+      <c r="F73" s="105"/>
+      <c r="G73" s="105"/>
+      <c r="H73" s="105"/>
+      <c r="I73" s="105"/>
+      <c r="J73" s="105"/>
     </row>
     <row r="74" spans="2:10">
-      <c r="B74" s="100"/>
-      <c r="C74" s="100"/>
-      <c r="D74" s="100"/>
-      <c r="E74" s="100"/>
-      <c r="F74" s="100"/>
-      <c r="G74" s="100"/>
-      <c r="H74" s="100"/>
-      <c r="I74" s="100"/>
-      <c r="J74" s="100"/>
+      <c r="B74" s="105"/>
+      <c r="C74" s="105"/>
+      <c r="D74" s="105"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="105"/>
+      <c r="H74" s="105"/>
+      <c r="I74" s="105"/>
+      <c r="J74" s="105"/>
     </row>
     <row r="75" spans="2:10">
-      <c r="B75" s="100"/>
-      <c r="C75" s="100"/>
-      <c r="D75" s="100"/>
-      <c r="E75" s="100"/>
-      <c r="F75" s="100"/>
-      <c r="G75" s="100"/>
-      <c r="H75" s="100"/>
-      <c r="I75" s="100"/>
-      <c r="J75" s="100"/>
+      <c r="B75" s="105"/>
+      <c r="C75" s="105"/>
+      <c r="D75" s="105"/>
+      <c r="E75" s="105"/>
+      <c r="F75" s="105"/>
+      <c r="G75" s="105"/>
+      <c r="H75" s="105"/>
+      <c r="I75" s="105"/>
+      <c r="J75" s="105"/>
     </row>
     <row r="76" spans="2:10">
-      <c r="B76" s="100"/>
-      <c r="C76" s="100"/>
-      <c r="D76" s="100"/>
-      <c r="E76" s="100"/>
-      <c r="F76" s="100"/>
-      <c r="G76" s="100"/>
-      <c r="H76" s="100"/>
-      <c r="I76" s="100"/>
-      <c r="J76" s="100"/>
+      <c r="B76" s="105"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="105"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="105"/>
+      <c r="I76" s="105"/>
+      <c r="J76" s="105"/>
     </row>
     <row r="77" spans="2:10">
-      <c r="B77" s="100"/>
-      <c r="C77" s="100"/>
-      <c r="D77" s="100"/>
-      <c r="E77" s="100"/>
-      <c r="F77" s="100"/>
-      <c r="G77" s="100"/>
-      <c r="H77" s="100"/>
-      <c r="I77" s="100"/>
-      <c r="J77" s="100"/>
+      <c r="B77" s="105"/>
+      <c r="C77" s="105"/>
+      <c r="D77" s="105"/>
+      <c r="E77" s="105"/>
+      <c r="F77" s="105"/>
+      <c r="G77" s="105"/>
+      <c r="H77" s="105"/>
+      <c r="I77" s="105"/>
+      <c r="J77" s="105"/>
     </row>
     <row r="78" spans="2:10">
-      <c r="B78" s="100"/>
-      <c r="C78" s="100"/>
-      <c r="D78" s="100"/>
-      <c r="E78" s="100"/>
-      <c r="F78" s="100"/>
-      <c r="G78" s="100"/>
-      <c r="H78" s="100"/>
-      <c r="I78" s="100"/>
-      <c r="J78" s="100"/>
+      <c r="B78" s="105"/>
+      <c r="C78" s="105"/>
+      <c r="D78" s="105"/>
+      <c r="E78" s="105"/>
+      <c r="F78" s="105"/>
+      <c r="G78" s="105"/>
+      <c r="H78" s="105"/>
+      <c r="I78" s="105"/>
+      <c r="J78" s="105"/>
     </row>
     <row r="79" spans="2:10">
-      <c r="B79" s="100"/>
-      <c r="C79" s="100"/>
-      <c r="D79" s="100"/>
-      <c r="E79" s="100"/>
-      <c r="F79" s="100"/>
-      <c r="G79" s="100"/>
-      <c r="H79" s="100"/>
-      <c r="I79" s="100"/>
-      <c r="J79" s="100"/>
+      <c r="B79" s="105"/>
+      <c r="C79" s="105"/>
+      <c r="D79" s="105"/>
+      <c r="E79" s="105"/>
+      <c r="F79" s="105"/>
+      <c r="G79" s="105"/>
+      <c r="H79" s="105"/>
+      <c r="I79" s="105"/>
+      <c r="J79" s="105"/>
     </row>
     <row r="80" spans="2:10">
-      <c r="B80" s="100"/>
-      <c r="C80" s="100"/>
-      <c r="D80" s="100"/>
-      <c r="E80" s="100"/>
-      <c r="F80" s="100"/>
-      <c r="G80" s="100"/>
-      <c r="H80" s="100"/>
-      <c r="I80" s="100"/>
-      <c r="J80" s="100"/>
+      <c r="B80" s="105"/>
+      <c r="C80" s="105"/>
+      <c r="D80" s="105"/>
+      <c r="E80" s="105"/>
+      <c r="F80" s="105"/>
+      <c r="G80" s="105"/>
+      <c r="H80" s="105"/>
+      <c r="I80" s="105"/>
+      <c r="J80" s="105"/>
     </row>
     <row r="81" spans="2:10">
-      <c r="B81" s="100"/>
-      <c r="C81" s="100"/>
-      <c r="D81" s="100"/>
-      <c r="E81" s="100"/>
-      <c r="F81" s="100"/>
-      <c r="G81" s="100"/>
-      <c r="H81" s="100"/>
-      <c r="I81" s="100"/>
-      <c r="J81" s="100"/>
+      <c r="B81" s="105"/>
+      <c r="C81" s="105"/>
+      <c r="D81" s="105"/>
+      <c r="E81" s="105"/>
+      <c r="F81" s="105"/>
+      <c r="G81" s="105"/>
+      <c r="H81" s="105"/>
+      <c r="I81" s="105"/>
+      <c r="J81" s="105"/>
     </row>
     <row r="82" spans="2:10">
-      <c r="B82" s="100"/>
-      <c r="C82" s="100"/>
-      <c r="D82" s="100"/>
-      <c r="E82" s="100"/>
-      <c r="F82" s="100"/>
-      <c r="G82" s="100"/>
-      <c r="H82" s="100"/>
-      <c r="I82" s="100"/>
-      <c r="J82" s="100"/>
+      <c r="B82" s="105"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="105"/>
+      <c r="E82" s="105"/>
+      <c r="F82" s="105"/>
+      <c r="G82" s="105"/>
+      <c r="H82" s="105"/>
+      <c r="I82" s="105"/>
+      <c r="J82" s="105"/>
     </row>
     <row r="83" spans="2:10">
-      <c r="B83" s="100"/>
-      <c r="C83" s="100"/>
-      <c r="D83" s="100"/>
-      <c r="E83" s="100"/>
-      <c r="F83" s="100"/>
-      <c r="G83" s="100"/>
-      <c r="H83" s="100"/>
-      <c r="I83" s="100"/>
-      <c r="J83" s="100"/>
+      <c r="B83" s="105"/>
+      <c r="C83" s="105"/>
+      <c r="D83" s="105"/>
+      <c r="E83" s="105"/>
+      <c r="F83" s="105"/>
+      <c r="G83" s="105"/>
+      <c r="H83" s="105"/>
+      <c r="I83" s="105"/>
+      <c r="J83" s="105"/>
     </row>
     <row r="84" spans="2:10">
-      <c r="B84" s="100"/>
-      <c r="C84" s="100"/>
-      <c r="D84" s="100"/>
-      <c r="E84" s="100"/>
-      <c r="F84" s="100"/>
-      <c r="G84" s="100"/>
-      <c r="H84" s="100"/>
-      <c r="I84" s="100"/>
-      <c r="J84" s="100"/>
+      <c r="B84" s="105"/>
+      <c r="C84" s="105"/>
+      <c r="D84" s="105"/>
+      <c r="E84" s="105"/>
+      <c r="F84" s="105"/>
+      <c r="G84" s="105"/>
+      <c r="H84" s="105"/>
+      <c r="I84" s="105"/>
+      <c r="J84" s="105"/>
     </row>
     <row r="85" spans="2:10">
-      <c r="B85" s="100"/>
-      <c r="C85" s="100"/>
-      <c r="D85" s="100"/>
-      <c r="E85" s="100"/>
-      <c r="F85" s="100"/>
-      <c r="G85" s="100"/>
-      <c r="H85" s="100"/>
-      <c r="I85" s="100"/>
-      <c r="J85" s="100"/>
+      <c r="B85" s="105"/>
+      <c r="C85" s="105"/>
+      <c r="D85" s="105"/>
+      <c r="E85" s="105"/>
+      <c r="F85" s="105"/>
+      <c r="G85" s="105"/>
+      <c r="H85" s="105"/>
+      <c r="I85" s="105"/>
+      <c r="J85" s="105"/>
     </row>
     <row r="86" spans="2:10">
-      <c r="B86" s="100"/>
-      <c r="C86" s="100"/>
-      <c r="D86" s="100"/>
-      <c r="E86" s="100"/>
-      <c r="F86" s="100"/>
-      <c r="G86" s="100"/>
-      <c r="H86" s="100"/>
-      <c r="I86" s="100"/>
-      <c r="J86" s="100"/>
+      <c r="B86" s="105"/>
+      <c r="C86" s="105"/>
+      <c r="D86" s="105"/>
+      <c r="E86" s="105"/>
+      <c r="F86" s="105"/>
+      <c r="G86" s="105"/>
+      <c r="H86" s="105"/>
+      <c r="I86" s="105"/>
+      <c r="J86" s="105"/>
     </row>
     <row r="87" spans="2:10">
-      <c r="B87" s="100"/>
-      <c r="C87" s="100"/>
-      <c r="D87" s="100"/>
-      <c r="E87" s="100"/>
-      <c r="F87" s="100"/>
-      <c r="G87" s="100"/>
-      <c r="H87" s="100"/>
-      <c r="I87" s="100"/>
-      <c r="J87" s="100"/>
+      <c r="B87" s="105"/>
+      <c r="C87" s="105"/>
+      <c r="D87" s="105"/>
+      <c r="E87" s="105"/>
+      <c r="F87" s="105"/>
+      <c r="G87" s="105"/>
+      <c r="H87" s="105"/>
+      <c r="I87" s="105"/>
+      <c r="J87" s="105"/>
     </row>
     <row r="88" spans="2:10">
-      <c r="B88" s="100"/>
-      <c r="C88" s="100"/>
-      <c r="D88" s="100"/>
-      <c r="E88" s="100"/>
-      <c r="F88" s="100"/>
-      <c r="G88" s="100"/>
-      <c r="H88" s="100"/>
-      <c r="I88" s="100"/>
-      <c r="J88" s="100"/>
+      <c r="B88" s="105"/>
+      <c r="C88" s="105"/>
+      <c r="D88" s="105"/>
+      <c r="E88" s="105"/>
+      <c r="F88" s="105"/>
+      <c r="G88" s="105"/>
+      <c r="H88" s="105"/>
+      <c r="I88" s="105"/>
+      <c r="J88" s="105"/>
     </row>
     <row r="89" spans="2:10">
-      <c r="B89" s="100"/>
-      <c r="C89" s="100"/>
-      <c r="D89" s="100"/>
-      <c r="E89" s="100"/>
-      <c r="F89" s="100"/>
-      <c r="G89" s="100"/>
-      <c r="H89" s="100"/>
-      <c r="I89" s="100"/>
-      <c r="J89" s="100"/>
+      <c r="B89" s="105"/>
+      <c r="C89" s="105"/>
+      <c r="D89" s="105"/>
+      <c r="E89" s="105"/>
+      <c r="F89" s="105"/>
+      <c r="G89" s="105"/>
+      <c r="H89" s="105"/>
+      <c r="I89" s="105"/>
+      <c r="J89" s="105"/>
     </row>
     <row r="90" spans="2:10">
-      <c r="B90" s="100"/>
-      <c r="C90" s="100"/>
-      <c r="D90" s="100"/>
-      <c r="E90" s="100"/>
-      <c r="F90" s="100"/>
-      <c r="G90" s="100"/>
-      <c r="H90" s="100"/>
-      <c r="I90" s="100"/>
-      <c r="J90" s="100"/>
+      <c r="B90" s="105"/>
+      <c r="C90" s="105"/>
+      <c r="D90" s="105"/>
+      <c r="E90" s="105"/>
+      <c r="F90" s="105"/>
+      <c r="G90" s="105"/>
+      <c r="H90" s="105"/>
+      <c r="I90" s="105"/>
+      <c r="J90" s="105"/>
     </row>
     <row r="91" spans="2:10">
-      <c r="B91" s="100"/>
-      <c r="C91" s="100"/>
-      <c r="D91" s="100"/>
-      <c r="E91" s="100"/>
-      <c r="F91" s="100"/>
-      <c r="G91" s="100"/>
-      <c r="H91" s="100"/>
-      <c r="I91" s="100"/>
-      <c r="J91" s="100"/>
+      <c r="B91" s="105"/>
+      <c r="C91" s="105"/>
+      <c r="D91" s="105"/>
+      <c r="E91" s="105"/>
+      <c r="F91" s="105"/>
+      <c r="G91" s="105"/>
+      <c r="H91" s="105"/>
+      <c r="I91" s="105"/>
+      <c r="J91" s="105"/>
     </row>
     <row r="92" spans="2:10">
-      <c r="B92" s="100"/>
-      <c r="C92" s="100"/>
-      <c r="D92" s="100"/>
-      <c r="E92" s="100"/>
-      <c r="F92" s="100"/>
-      <c r="G92" s="100"/>
-      <c r="H92" s="100"/>
-      <c r="I92" s="100"/>
-      <c r="J92" s="100"/>
+      <c r="B92" s="105"/>
+      <c r="C92" s="105"/>
+      <c r="D92" s="105"/>
+      <c r="E92" s="105"/>
+      <c r="F92" s="105"/>
+      <c r="G92" s="105"/>
+      <c r="H92" s="105"/>
+      <c r="I92" s="105"/>
+      <c r="J92" s="105"/>
     </row>
     <row r="93" spans="2:10">
-      <c r="B93" s="100"/>
-      <c r="C93" s="100"/>
-      <c r="D93" s="100"/>
-      <c r="E93" s="100"/>
-      <c r="F93" s="100"/>
-      <c r="G93" s="100"/>
-      <c r="H93" s="100"/>
-      <c r="I93" s="100"/>
-      <c r="J93" s="100"/>
+      <c r="B93" s="105"/>
+      <c r="C93" s="105"/>
+      <c r="D93" s="105"/>
+      <c r="E93" s="105"/>
+      <c r="F93" s="105"/>
+      <c r="G93" s="105"/>
+      <c r="H93" s="105"/>
+      <c r="I93" s="105"/>
+      <c r="J93" s="105"/>
     </row>
     <row r="94" spans="2:10">
-      <c r="B94" s="100"/>
-      <c r="C94" s="100"/>
-      <c r="D94" s="100"/>
-      <c r="E94" s="100"/>
-      <c r="F94" s="100"/>
-      <c r="G94" s="100"/>
-      <c r="H94" s="100"/>
-      <c r="I94" s="100"/>
-      <c r="J94" s="100"/>
+      <c r="B94" s="105"/>
+      <c r="C94" s="105"/>
+      <c r="D94" s="105"/>
+      <c r="E94" s="105"/>
+      <c r="F94" s="105"/>
+      <c r="G94" s="105"/>
+      <c r="H94" s="105"/>
+      <c r="I94" s="105"/>
+      <c r="J94" s="105"/>
     </row>
     <row r="95" spans="2:10">
-      <c r="B95" s="100"/>
-      <c r="C95" s="100"/>
-      <c r="D95" s="100"/>
-      <c r="E95" s="100"/>
-      <c r="F95" s="100"/>
-      <c r="G95" s="100"/>
-      <c r="H95" s="100"/>
-      <c r="I95" s="100"/>
-      <c r="J95" s="100"/>
+      <c r="B95" s="105"/>
+      <c r="C95" s="105"/>
+      <c r="D95" s="105"/>
+      <c r="E95" s="105"/>
+      <c r="F95" s="105"/>
+      <c r="G95" s="105"/>
+      <c r="H95" s="105"/>
+      <c r="I95" s="105"/>
+      <c r="J95" s="105"/>
     </row>
     <row r="96" spans="2:10">
-      <c r="B96" s="100"/>
-      <c r="C96" s="100"/>
-      <c r="D96" s="100"/>
-      <c r="E96" s="100"/>
-      <c r="F96" s="100"/>
-      <c r="G96" s="100"/>
-      <c r="H96" s="100"/>
-      <c r="I96" s="100"/>
-      <c r="J96" s="100"/>
+      <c r="B96" s="105"/>
+      <c r="C96" s="105"/>
+      <c r="D96" s="105"/>
+      <c r="E96" s="105"/>
+      <c r="F96" s="105"/>
+      <c r="G96" s="105"/>
+      <c r="H96" s="105"/>
+      <c r="I96" s="105"/>
+      <c r="J96" s="105"/>
     </row>
     <row r="97" spans="2:10">
-      <c r="B97" s="100"/>
-      <c r="C97" s="100"/>
-      <c r="D97" s="100"/>
-      <c r="E97" s="100"/>
-      <c r="F97" s="100"/>
-      <c r="G97" s="100"/>
-      <c r="H97" s="100"/>
-      <c r="I97" s="100"/>
-      <c r="J97" s="100"/>
+      <c r="B97" s="105"/>
+      <c r="C97" s="105"/>
+      <c r="D97" s="105"/>
+      <c r="E97" s="105"/>
+      <c r="F97" s="105"/>
+      <c r="G97" s="105"/>
+      <c r="H97" s="105"/>
+      <c r="I97" s="105"/>
+      <c r="J97" s="105"/>
     </row>
     <row r="98" spans="2:10">
-      <c r="B98" s="100"/>
-      <c r="C98" s="100"/>
-      <c r="D98" s="100"/>
-      <c r="E98" s="100"/>
-      <c r="F98" s="100"/>
-      <c r="G98" s="100"/>
-      <c r="H98" s="100"/>
-      <c r="I98" s="100"/>
-      <c r="J98" s="100"/>
+      <c r="B98" s="105"/>
+      <c r="C98" s="105"/>
+      <c r="D98" s="105"/>
+      <c r="E98" s="105"/>
+      <c r="F98" s="105"/>
+      <c r="G98" s="105"/>
+      <c r="H98" s="105"/>
+      <c r="I98" s="105"/>
+      <c r="J98" s="105"/>
     </row>
     <row r="99" spans="2:10">
-      <c r="B99" s="100"/>
-      <c r="C99" s="100"/>
-      <c r="D99" s="100"/>
-      <c r="E99" s="100"/>
-      <c r="F99" s="100"/>
-      <c r="G99" s="100"/>
-      <c r="H99" s="100"/>
-      <c r="I99" s="100"/>
-      <c r="J99" s="100"/>
+      <c r="B99" s="105"/>
+      <c r="C99" s="105"/>
+      <c r="D99" s="105"/>
+      <c r="E99" s="105"/>
+      <c r="F99" s="105"/>
+      <c r="G99" s="105"/>
+      <c r="H99" s="105"/>
+      <c r="I99" s="105"/>
+      <c r="J99" s="105"/>
     </row>
     <row r="100" spans="2:10">
-      <c r="B100" s="100"/>
-      <c r="C100" s="100"/>
-      <c r="D100" s="100"/>
-      <c r="E100" s="100"/>
-      <c r="F100" s="100"/>
-      <c r="G100" s="100"/>
-      <c r="H100" s="100"/>
-      <c r="I100" s="100"/>
-      <c r="J100" s="100"/>
+      <c r="B100" s="105"/>
+      <c r="C100" s="105"/>
+      <c r="D100" s="105"/>
+      <c r="E100" s="105"/>
+      <c r="F100" s="105"/>
+      <c r="G100" s="105"/>
+      <c r="H100" s="105"/>
+      <c r="I100" s="105"/>
+      <c r="J100" s="105"/>
     </row>
     <row r="101" spans="2:10">
-      <c r="B101" s="100"/>
-      <c r="C101" s="100"/>
-      <c r="D101" s="100"/>
-      <c r="E101" s="100"/>
-      <c r="F101" s="100"/>
-      <c r="G101" s="100"/>
-      <c r="H101" s="100"/>
-      <c r="I101" s="100"/>
-      <c r="J101" s="100"/>
+      <c r="B101" s="105"/>
+      <c r="C101" s="105"/>
+      <c r="D101" s="105"/>
+      <c r="E101" s="105"/>
+      <c r="F101" s="105"/>
+      <c r="G101" s="105"/>
+      <c r="H101" s="105"/>
+      <c r="I101" s="105"/>
+      <c r="J101" s="105"/>
     </row>
     <row r="102" spans="2:10">
-      <c r="B102" s="100"/>
-      <c r="C102" s="100"/>
-      <c r="D102" s="100"/>
-      <c r="E102" s="100"/>
-      <c r="F102" s="100"/>
-      <c r="G102" s="100"/>
-      <c r="H102" s="100"/>
-      <c r="I102" s="100"/>
-      <c r="J102" s="100"/>
+      <c r="B102" s="105"/>
+      <c r="C102" s="105"/>
+      <c r="D102" s="105"/>
+      <c r="E102" s="105"/>
+      <c r="F102" s="105"/>
+      <c r="G102" s="105"/>
+      <c r="H102" s="105"/>
+      <c r="I102" s="105"/>
+      <c r="J102" s="105"/>
     </row>
     <row r="103" spans="2:10">
-      <c r="B103" s="100"/>
-      <c r="C103" s="100"/>
-      <c r="D103" s="100"/>
-      <c r="E103" s="100"/>
-      <c r="F103" s="100"/>
-      <c r="G103" s="100"/>
-      <c r="H103" s="100"/>
-      <c r="I103" s="100"/>
-      <c r="J103" s="100"/>
+      <c r="B103" s="105"/>
+      <c r="C103" s="105"/>
+      <c r="D103" s="105"/>
+      <c r="E103" s="105"/>
+      <c r="F103" s="105"/>
+      <c r="G103" s="105"/>
+      <c r="H103" s="105"/>
+      <c r="I103" s="105"/>
+      <c r="J103" s="105"/>
     </row>
     <row r="104" spans="2:10">
-      <c r="B104" s="100"/>
-      <c r="C104" s="100"/>
-      <c r="D104" s="100"/>
-      <c r="E104" s="100"/>
-      <c r="F104" s="100"/>
-      <c r="G104" s="100"/>
-      <c r="H104" s="100"/>
-      <c r="I104" s="100"/>
-      <c r="J104" s="100"/>
+      <c r="B104" s="105"/>
+      <c r="C104" s="105"/>
+      <c r="D104" s="105"/>
+      <c r="E104" s="105"/>
+      <c r="F104" s="105"/>
+      <c r="G104" s="105"/>
+      <c r="H104" s="105"/>
+      <c r="I104" s="105"/>
+      <c r="J104" s="105"/>
     </row>
     <row r="105" spans="2:10">
-      <c r="B105" s="100"/>
-      <c r="C105" s="100"/>
-      <c r="D105" s="100"/>
-      <c r="E105" s="100"/>
-      <c r="F105" s="100"/>
-      <c r="G105" s="100"/>
-      <c r="H105" s="100"/>
-      <c r="I105" s="100"/>
-      <c r="J105" s="100"/>
+      <c r="B105" s="105"/>
+      <c r="C105" s="105"/>
+      <c r="D105" s="105"/>
+      <c r="E105" s="105"/>
+      <c r="F105" s="105"/>
+      <c r="G105" s="105"/>
+      <c r="H105" s="105"/>
+      <c r="I105" s="105"/>
+      <c r="J105" s="105"/>
     </row>
     <row r="106" spans="2:10">
-      <c r="B106" s="100"/>
-      <c r="C106" s="100"/>
-      <c r="D106" s="100"/>
-      <c r="E106" s="100"/>
-      <c r="F106" s="100"/>
-      <c r="G106" s="100"/>
-      <c r="H106" s="100"/>
-      <c r="I106" s="100"/>
-      <c r="J106" s="100"/>
+      <c r="B106" s="105"/>
+      <c r="C106" s="105"/>
+      <c r="D106" s="105"/>
+      <c r="E106" s="105"/>
+      <c r="F106" s="105"/>
+      <c r="G106" s="105"/>
+      <c r="H106" s="105"/>
+      <c r="I106" s="105"/>
+      <c r="J106" s="105"/>
     </row>
     <row r="107" spans="2:10">
-      <c r="B107" s="100"/>
-      <c r="C107" s="100"/>
-      <c r="D107" s="100"/>
-      <c r="E107" s="100"/>
-      <c r="F107" s="100"/>
-      <c r="G107" s="100"/>
-      <c r="H107" s="100"/>
-      <c r="I107" s="100"/>
-      <c r="J107" s="100"/>
+      <c r="B107" s="105"/>
+      <c r="C107" s="105"/>
+      <c r="D107" s="105"/>
+      <c r="E107" s="105"/>
+      <c r="F107" s="105"/>
+      <c r="G107" s="105"/>
+      <c r="H107" s="105"/>
+      <c r="I107" s="105"/>
+      <c r="J107" s="105"/>
     </row>
     <row r="108" spans="2:10">
-      <c r="B108" s="100"/>
-      <c r="C108" s="100"/>
-      <c r="D108" s="100"/>
-      <c r="E108" s="100"/>
-      <c r="F108" s="100"/>
-      <c r="G108" s="100"/>
-      <c r="H108" s="100"/>
-      <c r="I108" s="100"/>
-      <c r="J108" s="100"/>
+      <c r="B108" s="105"/>
+      <c r="C108" s="105"/>
+      <c r="D108" s="105"/>
+      <c r="E108" s="105"/>
+      <c r="F108" s="105"/>
+      <c r="G108" s="105"/>
+      <c r="H108" s="105"/>
+      <c r="I108" s="105"/>
+      <c r="J108" s="105"/>
     </row>
     <row r="109" spans="2:10">
-      <c r="B109" s="100"/>
-      <c r="C109" s="100"/>
-      <c r="D109" s="100"/>
-      <c r="E109" s="100"/>
-      <c r="F109" s="100"/>
-      <c r="G109" s="100"/>
-      <c r="H109" s="100"/>
-      <c r="I109" s="100"/>
-      <c r="J109" s="100"/>
+      <c r="B109" s="105"/>
+      <c r="C109" s="105"/>
+      <c r="D109" s="105"/>
+      <c r="E109" s="105"/>
+      <c r="F109" s="105"/>
+      <c r="G109" s="105"/>
+      <c r="H109" s="105"/>
+      <c r="I109" s="105"/>
+      <c r="J109" s="105"/>
     </row>
     <row r="110" spans="2:10">
-      <c r="B110" s="100"/>
-      <c r="C110" s="100"/>
-      <c r="D110" s="100"/>
-      <c r="E110" s="100"/>
-      <c r="F110" s="100"/>
-      <c r="G110" s="100"/>
-      <c r="H110" s="100"/>
-      <c r="I110" s="100"/>
-      <c r="J110" s="100"/>
+      <c r="B110" s="105"/>
+      <c r="C110" s="105"/>
+      <c r="D110" s="105"/>
+      <c r="E110" s="105"/>
+      <c r="F110" s="105"/>
+      <c r="G110" s="105"/>
+      <c r="H110" s="105"/>
+      <c r="I110" s="105"/>
+      <c r="J110" s="105"/>
     </row>
     <row r="111" spans="2:10">
-      <c r="B111" s="100"/>
-      <c r="C111" s="100"/>
-      <c r="D111" s="100"/>
-      <c r="E111" s="100"/>
-      <c r="F111" s="100"/>
-      <c r="G111" s="100"/>
-      <c r="H111" s="100"/>
-      <c r="I111" s="100"/>
-      <c r="J111" s="100"/>
+      <c r="B111" s="105"/>
+      <c r="C111" s="105"/>
+      <c r="D111" s="105"/>
+      <c r="E111" s="105"/>
+      <c r="F111" s="105"/>
+      <c r="G111" s="105"/>
+      <c r="H111" s="105"/>
+      <c r="I111" s="105"/>
+      <c r="J111" s="105"/>
     </row>
     <row r="112" spans="2:10">
-      <c r="B112" s="100"/>
-      <c r="C112" s="100"/>
-      <c r="D112" s="100"/>
-      <c r="E112" s="100"/>
-      <c r="F112" s="100"/>
-      <c r="G112" s="100"/>
-      <c r="H112" s="100"/>
-      <c r="I112" s="100"/>
-      <c r="J112" s="100"/>
+      <c r="B112" s="105"/>
+      <c r="C112" s="105"/>
+      <c r="D112" s="105"/>
+      <c r="E112" s="105"/>
+      <c r="F112" s="105"/>
+      <c r="G112" s="105"/>
+      <c r="H112" s="105"/>
+      <c r="I112" s="105"/>
+      <c r="J112" s="105"/>
     </row>
     <row r="113" spans="2:10">
-      <c r="B113" s="100"/>
-      <c r="C113" s="100"/>
-      <c r="D113" s="100"/>
-      <c r="E113" s="100"/>
-      <c r="F113" s="100"/>
-      <c r="G113" s="100"/>
-      <c r="H113" s="100"/>
-      <c r="I113" s="100"/>
-      <c r="J113" s="100"/>
+      <c r="B113" s="105"/>
+      <c r="C113" s="105"/>
+      <c r="D113" s="105"/>
+      <c r="E113" s="105"/>
+      <c r="F113" s="105"/>
+      <c r="G113" s="105"/>
+      <c r="H113" s="105"/>
+      <c r="I113" s="105"/>
+      <c r="J113" s="105"/>
     </row>
     <row r="114" spans="2:10">
-      <c r="B114" s="100"/>
-      <c r="C114" s="100"/>
-      <c r="D114" s="100"/>
-      <c r="E114" s="100"/>
-      <c r="F114" s="100"/>
-      <c r="G114" s="100"/>
-      <c r="H114" s="100"/>
-      <c r="I114" s="100"/>
-      <c r="J114" s="100"/>
+      <c r="B114" s="105"/>
+      <c r="C114" s="105"/>
+      <c r="D114" s="105"/>
+      <c r="E114" s="105"/>
+      <c r="F114" s="105"/>
+      <c r="G114" s="105"/>
+      <c r="H114" s="105"/>
+      <c r="I114" s="105"/>
+      <c r="J114" s="105"/>
     </row>
     <row r="115" spans="2:10">
-      <c r="B115" s="100"/>
-      <c r="C115" s="100"/>
-      <c r="D115" s="100"/>
-      <c r="E115" s="100"/>
-      <c r="F115" s="100"/>
-      <c r="G115" s="100"/>
-      <c r="H115" s="100"/>
-      <c r="I115" s="100"/>
-      <c r="J115" s="100"/>
+      <c r="B115" s="105"/>
+      <c r="C115" s="105"/>
+      <c r="D115" s="105"/>
+      <c r="E115" s="105"/>
+      <c r="F115" s="105"/>
+      <c r="G115" s="105"/>
+      <c r="H115" s="105"/>
+      <c r="I115" s="105"/>
+      <c r="J115" s="105"/>
     </row>
     <row r="116" spans="2:10">
-      <c r="B116" s="100"/>
-      <c r="C116" s="100"/>
-      <c r="D116" s="100"/>
-      <c r="E116" s="100"/>
-      <c r="F116" s="100"/>
-      <c r="G116" s="100"/>
-      <c r="H116" s="100"/>
-      <c r="I116" s="100"/>
-      <c r="J116" s="100"/>
+      <c r="B116" s="105"/>
+      <c r="C116" s="105"/>
+      <c r="D116" s="105"/>
+      <c r="E116" s="105"/>
+      <c r="F116" s="105"/>
+      <c r="G116" s="105"/>
+      <c r="H116" s="105"/>
+      <c r="I116" s="105"/>
+      <c r="J116" s="105"/>
     </row>
     <row r="117" spans="2:10">
-      <c r="B117" s="100"/>
-      <c r="C117" s="100"/>
-      <c r="D117" s="100"/>
-      <c r="E117" s="100"/>
-      <c r="F117" s="100"/>
-      <c r="G117" s="100"/>
-      <c r="H117" s="100"/>
-      <c r="I117" s="100"/>
-      <c r="J117" s="100"/>
+      <c r="B117" s="105"/>
+      <c r="C117" s="105"/>
+      <c r="D117" s="105"/>
+      <c r="E117" s="105"/>
+      <c r="F117" s="105"/>
+      <c r="G117" s="105"/>
+      <c r="H117" s="105"/>
+      <c r="I117" s="105"/>
+      <c r="J117" s="105"/>
     </row>
     <row r="118" spans="2:10">
-      <c r="B118" s="100"/>
-      <c r="C118" s="100"/>
-      <c r="D118" s="100"/>
-      <c r="E118" s="100"/>
-      <c r="F118" s="100"/>
-      <c r="G118" s="100"/>
-      <c r="H118" s="100"/>
-      <c r="I118" s="100"/>
-      <c r="J118" s="100"/>
+      <c r="B118" s="105"/>
+      <c r="C118" s="105"/>
+      <c r="D118" s="105"/>
+      <c r="E118" s="105"/>
+      <c r="F118" s="105"/>
+      <c r="G118" s="105"/>
+      <c r="H118" s="105"/>
+      <c r="I118" s="105"/>
+      <c r="J118" s="105"/>
     </row>
     <row r="119" spans="2:10">
-      <c r="B119" s="100"/>
-      <c r="C119" s="100"/>
-      <c r="D119" s="100"/>
-      <c r="E119" s="100"/>
-      <c r="F119" s="100"/>
-      <c r="G119" s="100"/>
-      <c r="H119" s="100"/>
-      <c r="I119" s="100"/>
-      <c r="J119" s="100"/>
+      <c r="B119" s="105"/>
+      <c r="C119" s="105"/>
+      <c r="D119" s="105"/>
+      <c r="E119" s="105"/>
+      <c r="F119" s="105"/>
+      <c r="G119" s="105"/>
+      <c r="H119" s="105"/>
+      <c r="I119" s="105"/>
+      <c r="J119" s="105"/>
     </row>
     <row r="120" spans="2:10">
-      <c r="B120" s="100"/>
-      <c r="C120" s="100"/>
-      <c r="D120" s="100"/>
-      <c r="E120" s="100"/>
-      <c r="F120" s="100"/>
-      <c r="G120" s="100"/>
-      <c r="H120" s="100"/>
-      <c r="I120" s="100"/>
-      <c r="J120" s="100"/>
+      <c r="B120" s="105"/>
+      <c r="C120" s="105"/>
+      <c r="D120" s="105"/>
+      <c r="E120" s="105"/>
+      <c r="F120" s="105"/>
+      <c r="G120" s="105"/>
+      <c r="H120" s="105"/>
+      <c r="I120" s="105"/>
+      <c r="J120" s="105"/>
     </row>
     <row r="121" spans="2:10">
-      <c r="B121" s="100"/>
-      <c r="C121" s="100"/>
-      <c r="D121" s="100"/>
-      <c r="E121" s="100"/>
-      <c r="F121" s="100"/>
-      <c r="G121" s="100"/>
-      <c r="H121" s="100"/>
-      <c r="I121" s="100"/>
-      <c r="J121" s="100"/>
+      <c r="B121" s="105"/>
+      <c r="C121" s="105"/>
+      <c r="D121" s="105"/>
+      <c r="E121" s="105"/>
+      <c r="F121" s="105"/>
+      <c r="G121" s="105"/>
+      <c r="H121" s="105"/>
+      <c r="I121" s="105"/>
+      <c r="J121" s="105"/>
     </row>
     <row r="122" spans="2:10">
-      <c r="B122" s="100"/>
-      <c r="C122" s="100"/>
-      <c r="D122" s="100"/>
-      <c r="E122" s="100"/>
-      <c r="F122" s="100"/>
-      <c r="G122" s="100"/>
-      <c r="H122" s="100"/>
-      <c r="I122" s="100"/>
-      <c r="J122" s="100"/>
+      <c r="B122" s="105"/>
+      <c r="C122" s="105"/>
+      <c r="D122" s="105"/>
+      <c r="E122" s="105"/>
+      <c r="F122" s="105"/>
+      <c r="G122" s="105"/>
+      <c r="H122" s="105"/>
+      <c r="I122" s="105"/>
+      <c r="J122" s="105"/>
     </row>
     <row r="123" spans="2:10">
-      <c r="B123" s="100"/>
-      <c r="C123" s="100"/>
-      <c r="D123" s="100"/>
-      <c r="E123" s="100"/>
-      <c r="F123" s="100"/>
-      <c r="G123" s="100"/>
-      <c r="H123" s="100"/>
-      <c r="I123" s="100"/>
-      <c r="J123" s="100"/>
+      <c r="B123" s="105"/>
+      <c r="C123" s="105"/>
+      <c r="D123" s="105"/>
+      <c r="E123" s="105"/>
+      <c r="F123" s="105"/>
+      <c r="G123" s="105"/>
+      <c r="H123" s="105"/>
+      <c r="I123" s="105"/>
+      <c r="J123" s="105"/>
     </row>
     <row r="124" spans="2:10">
-      <c r="B124" s="100"/>
-      <c r="C124" s="100"/>
-      <c r="D124" s="100"/>
-      <c r="E124" s="100"/>
-      <c r="F124" s="100"/>
-      <c r="G124" s="100"/>
-      <c r="H124" s="100"/>
-      <c r="I124" s="100"/>
-      <c r="J124" s="100"/>
+      <c r="B124" s="105"/>
+      <c r="C124" s="105"/>
+      <c r="D124" s="105"/>
+      <c r="E124" s="105"/>
+      <c r="F124" s="105"/>
+      <c r="G124" s="105"/>
+      <c r="H124" s="105"/>
+      <c r="I124" s="105"/>
+      <c r="J124" s="105"/>
     </row>
     <row r="125" spans="2:10">
-      <c r="B125" s="100"/>
-      <c r="C125" s="100"/>
-      <c r="D125" s="100"/>
-      <c r="E125" s="100"/>
-      <c r="F125" s="100"/>
-      <c r="G125" s="100"/>
-      <c r="H125" s="100"/>
-      <c r="I125" s="100"/>
-      <c r="J125" s="100"/>
+      <c r="B125" s="105"/>
+      <c r="C125" s="105"/>
+      <c r="D125" s="105"/>
+      <c r="E125" s="105"/>
+      <c r="F125" s="105"/>
+      <c r="G125" s="105"/>
+      <c r="H125" s="105"/>
+      <c r="I125" s="105"/>
+      <c r="J125" s="105"/>
     </row>
     <row r="126" spans="2:10">
-      <c r="B126" s="100"/>
-      <c r="C126" s="100"/>
-      <c r="D126" s="100"/>
-      <c r="E126" s="100"/>
-      <c r="F126" s="100"/>
-      <c r="G126" s="100"/>
-      <c r="H126" s="100"/>
-      <c r="I126" s="100"/>
-      <c r="J126" s="100"/>
+      <c r="B126" s="105"/>
+      <c r="C126" s="105"/>
+      <c r="D126" s="105"/>
+      <c r="E126" s="105"/>
+      <c r="F126" s="105"/>
+      <c r="G126" s="105"/>
+      <c r="H126" s="105"/>
+      <c r="I126" s="105"/>
+      <c r="J126" s="105"/>
     </row>
     <row r="127" spans="2:10">
-      <c r="B127" s="100"/>
-      <c r="C127" s="100"/>
-      <c r="D127" s="100"/>
-      <c r="E127" s="100"/>
-      <c r="F127" s="100"/>
-      <c r="G127" s="100"/>
-      <c r="H127" s="100"/>
-      <c r="I127" s="100"/>
-      <c r="J127" s="100"/>
+      <c r="B127" s="105"/>
+      <c r="C127" s="105"/>
+      <c r="D127" s="105"/>
+      <c r="E127" s="105"/>
+      <c r="F127" s="105"/>
+      <c r="G127" s="105"/>
+      <c r="H127" s="105"/>
+      <c r="I127" s="105"/>
+      <c r="J127" s="105"/>
     </row>
     <row r="128" spans="2:10">
-      <c r="B128" s="100"/>
-      <c r="C128" s="100"/>
-      <c r="D128" s="100"/>
-      <c r="E128" s="100"/>
-      <c r="F128" s="100"/>
-      <c r="G128" s="100"/>
-      <c r="H128" s="100"/>
-      <c r="I128" s="100"/>
-      <c r="J128" s="100"/>
+      <c r="B128" s="105"/>
+      <c r="C128" s="105"/>
+      <c r="D128" s="105"/>
+      <c r="E128" s="105"/>
+      <c r="F128" s="105"/>
+      <c r="G128" s="105"/>
+      <c r="H128" s="105"/>
+      <c r="I128" s="105"/>
+      <c r="J128" s="105"/>
     </row>
     <row r="129" spans="2:10">
-      <c r="B129" s="100"/>
-      <c r="C129" s="100"/>
-      <c r="D129" s="100"/>
-      <c r="E129" s="100"/>
-      <c r="F129" s="100"/>
-      <c r="G129" s="100"/>
-      <c r="H129" s="100"/>
-      <c r="I129" s="100"/>
-      <c r="J129" s="100"/>
+      <c r="B129" s="105"/>
+      <c r="C129" s="105"/>
+      <c r="D129" s="105"/>
+      <c r="E129" s="105"/>
+      <c r="F129" s="105"/>
+      <c r="G129" s="105"/>
+      <c r="H129" s="105"/>
+      <c r="I129" s="105"/>
+      <c r="J129" s="105"/>
     </row>
     <row r="130" spans="2:10">
-      <c r="B130" s="100"/>
-      <c r="C130" s="100"/>
-      <c r="D130" s="100"/>
-      <c r="E130" s="100"/>
-      <c r="F130" s="100"/>
-      <c r="G130" s="100"/>
-      <c r="H130" s="100"/>
-      <c r="I130" s="100"/>
-      <c r="J130" s="100"/>
+      <c r="B130" s="105"/>
+      <c r="C130" s="105"/>
+      <c r="D130" s="105"/>
+      <c r="E130" s="105"/>
+      <c r="F130" s="105"/>
+      <c r="G130" s="105"/>
+      <c r="H130" s="105"/>
+      <c r="I130" s="105"/>
+      <c r="J130" s="105"/>
     </row>
     <row r="131" spans="2:10">
-      <c r="B131" s="100"/>
-      <c r="C131" s="100"/>
-      <c r="D131" s="100"/>
-      <c r="E131" s="100"/>
-      <c r="F131" s="100"/>
-      <c r="G131" s="100"/>
-      <c r="H131" s="100"/>
-      <c r="I131" s="100"/>
-      <c r="J131" s="100"/>
+      <c r="B131" s="105"/>
+      <c r="C131" s="105"/>
+      <c r="D131" s="105"/>
+      <c r="E131" s="105"/>
+      <c r="F131" s="105"/>
+      <c r="G131" s="105"/>
+      <c r="H131" s="105"/>
+      <c r="I131" s="105"/>
+      <c r="J131" s="105"/>
     </row>
     <row r="132" spans="2:10">
-      <c r="B132" s="100"/>
-      <c r="C132" s="100"/>
-      <c r="D132" s="100"/>
-      <c r="E132" s="100"/>
-      <c r="F132" s="100"/>
-      <c r="G132" s="100"/>
-      <c r="H132" s="100"/>
-      <c r="I132" s="100"/>
-      <c r="J132" s="100"/>
+      <c r="B132" s="105"/>
+      <c r="C132" s="105"/>
+      <c r="D132" s="105"/>
+      <c r="E132" s="105"/>
+      <c r="F132" s="105"/>
+      <c r="G132" s="105"/>
+      <c r="H132" s="105"/>
+      <c r="I132" s="105"/>
+      <c r="J132" s="105"/>
     </row>
     <row r="133" spans="2:10">
-      <c r="B133" s="100"/>
-      <c r="C133" s="100"/>
-      <c r="D133" s="100"/>
-      <c r="E133" s="100"/>
-      <c r="F133" s="100"/>
-      <c r="G133" s="100"/>
-      <c r="H133" s="100"/>
-      <c r="I133" s="100"/>
-      <c r="J133" s="100"/>
+      <c r="B133" s="105"/>
+      <c r="C133" s="105"/>
+      <c r="D133" s="105"/>
+      <c r="E133" s="105"/>
+      <c r="F133" s="105"/>
+      <c r="G133" s="105"/>
+      <c r="H133" s="105"/>
+      <c r="I133" s="105"/>
+      <c r="J133" s="105"/>
     </row>
     <row r="134" spans="2:10">
-      <c r="B134" s="100"/>
-      <c r="C134" s="100"/>
-      <c r="D134" s="100"/>
-      <c r="E134" s="100"/>
-      <c r="F134" s="100"/>
-      <c r="G134" s="100"/>
-      <c r="H134" s="100"/>
-      <c r="I134" s="100"/>
-      <c r="J134" s="100"/>
+      <c r="B134" s="105"/>
+      <c r="C134" s="105"/>
+      <c r="D134" s="105"/>
+      <c r="E134" s="105"/>
+      <c r="F134" s="105"/>
+      <c r="G134" s="105"/>
+      <c r="H134" s="105"/>
+      <c r="I134" s="105"/>
+      <c r="J134" s="105"/>
     </row>
     <row r="135" spans="2:10">
-      <c r="B135" s="100"/>
-      <c r="C135" s="100"/>
-      <c r="D135" s="100"/>
-      <c r="E135" s="100"/>
-      <c r="F135" s="100"/>
-      <c r="G135" s="100"/>
-      <c r="H135" s="100"/>
-      <c r="I135" s="100"/>
-      <c r="J135" s="100"/>
+      <c r="B135" s="105"/>
+      <c r="C135" s="105"/>
+      <c r="D135" s="105"/>
+      <c r="E135" s="105"/>
+      <c r="F135" s="105"/>
+      <c r="G135" s="105"/>
+      <c r="H135" s="105"/>
+      <c r="I135" s="105"/>
+      <c r="J135" s="105"/>
     </row>
     <row r="136" spans="2:10">
-      <c r="B136" s="100"/>
-      <c r="C136" s="100"/>
-      <c r="D136" s="100"/>
-      <c r="E136" s="100"/>
-      <c r="F136" s="100"/>
-      <c r="G136" s="100"/>
-      <c r="H136" s="100"/>
-      <c r="I136" s="100"/>
-      <c r="J136" s="100"/>
+      <c r="B136" s="105"/>
+      <c r="C136" s="105"/>
+      <c r="D136" s="105"/>
+      <c r="E136" s="105"/>
+      <c r="F136" s="105"/>
+      <c r="G136" s="105"/>
+      <c r="H136" s="105"/>
+      <c r="I136" s="105"/>
+      <c r="J136" s="105"/>
     </row>
     <row r="137" spans="2:10">
-      <c r="B137" s="100"/>
-      <c r="C137" s="100"/>
-      <c r="D137" s="100"/>
-      <c r="E137" s="100"/>
-      <c r="F137" s="100"/>
-      <c r="G137" s="100"/>
-      <c r="H137" s="100"/>
-      <c r="I137" s="100"/>
-      <c r="J137" s="100"/>
+      <c r="B137" s="105"/>
+      <c r="C137" s="105"/>
+      <c r="D137" s="105"/>
+      <c r="E137" s="105"/>
+      <c r="F137" s="105"/>
+      <c r="G137" s="105"/>
+      <c r="H137" s="105"/>
+      <c r="I137" s="105"/>
+      <c r="J137" s="105"/>
     </row>
     <row r="138" spans="2:10">
-      <c r="B138" s="100"/>
-      <c r="C138" s="100"/>
-      <c r="D138" s="100"/>
-      <c r="E138" s="100"/>
-      <c r="F138" s="100"/>
-      <c r="G138" s="100"/>
-      <c r="H138" s="100"/>
-      <c r="I138" s="100"/>
-      <c r="J138" s="100"/>
+      <c r="B138" s="105"/>
+      <c r="C138" s="105"/>
+      <c r="D138" s="105"/>
+      <c r="E138" s="105"/>
+      <c r="F138" s="105"/>
+      <c r="G138" s="105"/>
+      <c r="H138" s="105"/>
+      <c r="I138" s="105"/>
+      <c r="J138" s="105"/>
     </row>
     <row r="139" spans="2:10">
-      <c r="B139" s="100"/>
-      <c r="C139" s="100"/>
-      <c r="D139" s="100"/>
-      <c r="E139" s="100"/>
-      <c r="F139" s="100"/>
-      <c r="G139" s="100"/>
-      <c r="H139" s="100"/>
-      <c r="I139" s="100"/>
-      <c r="J139" s="100"/>
+      <c r="B139" s="105"/>
+      <c r="C139" s="105"/>
+      <c r="D139" s="105"/>
+      <c r="E139" s="105"/>
+      <c r="F139" s="105"/>
+      <c r="G139" s="105"/>
+      <c r="H139" s="105"/>
+      <c r="I139" s="105"/>
+      <c r="J139" s="105"/>
     </row>
     <row r="140" spans="2:10">
-      <c r="B140" s="100"/>
-      <c r="C140" s="100"/>
-      <c r="D140" s="100"/>
-      <c r="E140" s="100"/>
-      <c r="F140" s="100"/>
-      <c r="G140" s="100"/>
-      <c r="H140" s="100"/>
-      <c r="I140" s="100"/>
-      <c r="J140" s="100"/>
+      <c r="B140" s="105"/>
+      <c r="C140" s="105"/>
+      <c r="D140" s="105"/>
+      <c r="E140" s="105"/>
+      <c r="F140" s="105"/>
+      <c r="G140" s="105"/>
+      <c r="H140" s="105"/>
+      <c r="I140" s="105"/>
+      <c r="J140" s="105"/>
     </row>
     <row r="141" spans="2:10">
-      <c r="B141" s="100"/>
-      <c r="C141" s="100"/>
-      <c r="D141" s="100"/>
-      <c r="E141" s="100"/>
-      <c r="F141" s="100"/>
-      <c r="G141" s="100"/>
-      <c r="H141" s="100"/>
-      <c r="I141" s="100"/>
-      <c r="J141" s="100"/>
+      <c r="B141" s="105"/>
+      <c r="C141" s="105"/>
+      <c r="D141" s="105"/>
+      <c r="E141" s="105"/>
+      <c r="F141" s="105"/>
+      <c r="G141" s="105"/>
+      <c r="H141" s="105"/>
+      <c r="I141" s="105"/>
+      <c r="J141" s="105"/>
     </row>
     <row r="142" spans="2:10">
-      <c r="B142" s="100"/>
-      <c r="C142" s="100"/>
-      <c r="D142" s="100"/>
-      <c r="E142" s="100"/>
-      <c r="F142" s="100"/>
-      <c r="G142" s="100"/>
-      <c r="H142" s="100"/>
-      <c r="I142" s="100"/>
-      <c r="J142" s="100"/>
+      <c r="B142" s="105"/>
+      <c r="C142" s="105"/>
+      <c r="D142" s="105"/>
+      <c r="E142" s="105"/>
+      <c r="F142" s="105"/>
+      <c r="G142" s="105"/>
+      <c r="H142" s="105"/>
+      <c r="I142" s="105"/>
+      <c r="J142" s="105"/>
     </row>
     <row r="143" spans="2:10">
-      <c r="B143" s="100"/>
-      <c r="C143" s="100"/>
-      <c r="D143" s="100"/>
-      <c r="E143" s="100"/>
-      <c r="F143" s="100"/>
-      <c r="G143" s="100"/>
-      <c r="H143" s="100"/>
-      <c r="I143" s="100"/>
-      <c r="J143" s="100"/>
+      <c r="B143" s="105"/>
+      <c r="C143" s="105"/>
+      <c r="D143" s="105"/>
+      <c r="E143" s="105"/>
+      <c r="F143" s="105"/>
+      <c r="G143" s="105"/>
+      <c r="H143" s="105"/>
+      <c r="I143" s="105"/>
+      <c r="J143" s="105"/>
     </row>
     <row r="144" spans="2:10">
-      <c r="B144" s="100"/>
-      <c r="C144" s="100"/>
-      <c r="D144" s="100"/>
-      <c r="E144" s="100"/>
-      <c r="F144" s="100"/>
-      <c r="G144" s="100"/>
-      <c r="H144" s="100"/>
-      <c r="I144" s="100"/>
-      <c r="J144" s="100"/>
+      <c r="B144" s="105"/>
+      <c r="C144" s="105"/>
+      <c r="D144" s="105"/>
+      <c r="E144" s="105"/>
+      <c r="F144" s="105"/>
+      <c r="G144" s="105"/>
+      <c r="H144" s="105"/>
+      <c r="I144" s="105"/>
+      <c r="J144" s="105"/>
     </row>
     <row r="145" spans="2:10">
-      <c r="B145" s="100"/>
-      <c r="C145" s="100"/>
-      <c r="D145" s="100"/>
-      <c r="E145" s="100"/>
-      <c r="F145" s="100"/>
-      <c r="G145" s="100"/>
-      <c r="H145" s="100"/>
-      <c r="I145" s="100"/>
-      <c r="J145" s="100"/>
+      <c r="B145" s="105"/>
+      <c r="C145" s="105"/>
+      <c r="D145" s="105"/>
+      <c r="E145" s="105"/>
+      <c r="F145" s="105"/>
+      <c r="G145" s="105"/>
+      <c r="H145" s="105"/>
+      <c r="I145" s="105"/>
+      <c r="J145" s="105"/>
     </row>
     <row r="146" spans="2:10">
-      <c r="B146" s="100"/>
-      <c r="C146" s="100"/>
-      <c r="D146" s="100"/>
-      <c r="E146" s="100"/>
-      <c r="F146" s="100"/>
-      <c r="G146" s="100"/>
-      <c r="H146" s="100"/>
-      <c r="I146" s="100"/>
-      <c r="J146" s="100"/>
+      <c r="B146" s="105"/>
+      <c r="C146" s="105"/>
+      <c r="D146" s="105"/>
+      <c r="E146" s="105"/>
+      <c r="F146" s="105"/>
+      <c r="G146" s="105"/>
+      <c r="H146" s="105"/>
+      <c r="I146" s="105"/>
+      <c r="J146" s="105"/>
     </row>
     <row r="147" spans="2:10">
-      <c r="B147" s="100"/>
-      <c r="C147" s="100"/>
-      <c r="D147" s="100"/>
-      <c r="E147" s="100"/>
-      <c r="F147" s="100"/>
-      <c r="G147" s="100"/>
-      <c r="H147" s="100"/>
-      <c r="I147" s="100"/>
-      <c r="J147" s="100"/>
+      <c r="B147" s="105"/>
+      <c r="C147" s="105"/>
+      <c r="D147" s="105"/>
+      <c r="E147" s="105"/>
+      <c r="F147" s="105"/>
+      <c r="G147" s="105"/>
+      <c r="H147" s="105"/>
+      <c r="I147" s="105"/>
+      <c r="J147" s="105"/>
     </row>
     <row r="148" spans="2:10">
-      <c r="B148" s="100"/>
-      <c r="C148" s="100"/>
-      <c r="D148" s="100"/>
-      <c r="E148" s="100"/>
-      <c r="F148" s="100"/>
-      <c r="G148" s="100"/>
-      <c r="H148" s="100"/>
-      <c r="I148" s="100"/>
-      <c r="J148" s="100"/>
+      <c r="B148" s="105"/>
+      <c r="C148" s="105"/>
+      <c r="D148" s="105"/>
+      <c r="E148" s="105"/>
+      <c r="F148" s="105"/>
+      <c r="G148" s="105"/>
+      <c r="H148" s="105"/>
+      <c r="I148" s="105"/>
+      <c r="J148" s="105"/>
     </row>
     <row r="149" spans="2:10">
-      <c r="B149" s="100"/>
-      <c r="C149" s="100"/>
-      <c r="D149" s="100"/>
-      <c r="E149" s="100"/>
-      <c r="F149" s="100"/>
-      <c r="G149" s="100"/>
-      <c r="H149" s="100"/>
-      <c r="I149" s="100"/>
-      <c r="J149" s="100"/>
+      <c r="B149" s="105"/>
+      <c r="C149" s="105"/>
+      <c r="D149" s="105"/>
+      <c r="E149" s="105"/>
+      <c r="F149" s="105"/>
+      <c r="G149" s="105"/>
+      <c r="H149" s="105"/>
+      <c r="I149" s="105"/>
+      <c r="J149" s="105"/>
     </row>
     <row r="150" spans="2:10">
-      <c r="B150" s="100"/>
-      <c r="C150" s="100"/>
-      <c r="D150" s="100"/>
-      <c r="E150" s="100"/>
-      <c r="F150" s="100"/>
-      <c r="G150" s="100"/>
-      <c r="H150" s="100"/>
-      <c r="I150" s="100"/>
-      <c r="J150" s="100"/>
+      <c r="B150" s="105"/>
+      <c r="C150" s="105"/>
+      <c r="D150" s="105"/>
+      <c r="E150" s="105"/>
+      <c r="F150" s="105"/>
+      <c r="G150" s="105"/>
+      <c r="H150" s="105"/>
+      <c r="I150" s="105"/>
+      <c r="J150" s="105"/>
     </row>
     <row r="151" spans="2:10">
-      <c r="B151" s="100"/>
-      <c r="C151" s="100"/>
-      <c r="D151" s="100"/>
-      <c r="E151" s="100"/>
-      <c r="F151" s="100"/>
-      <c r="G151" s="100"/>
-      <c r="H151" s="100"/>
-      <c r="I151" s="100"/>
-      <c r="J151" s="100"/>
+      <c r="B151" s="105"/>
+      <c r="C151" s="105"/>
+      <c r="D151" s="105"/>
+      <c r="E151" s="105"/>
+      <c r="F151" s="105"/>
+      <c r="G151" s="105"/>
+      <c r="H151" s="105"/>
+      <c r="I151" s="105"/>
+      <c r="J151" s="105"/>
     </row>
     <row r="152" spans="2:10">
-      <c r="B152" s="100"/>
-      <c r="C152" s="100"/>
-      <c r="D152" s="100"/>
-      <c r="E152" s="100"/>
-      <c r="F152" s="100"/>
-      <c r="G152" s="100"/>
-      <c r="H152" s="100"/>
-      <c r="I152" s="100"/>
-      <c r="J152" s="100"/>
+      <c r="B152" s="105"/>
+      <c r="C152" s="105"/>
+      <c r="D152" s="105"/>
+      <c r="E152" s="105"/>
+      <c r="F152" s="105"/>
+      <c r="G152" s="105"/>
+      <c r="H152" s="105"/>
+      <c r="I152" s="105"/>
+      <c r="J152" s="105"/>
     </row>
     <row r="153" spans="2:10">
-      <c r="B153" s="100"/>
-      <c r="C153" s="100"/>
-      <c r="D153" s="100"/>
-      <c r="E153" s="100"/>
-      <c r="F153" s="100"/>
-      <c r="G153" s="100"/>
-      <c r="H153" s="100"/>
-      <c r="I153" s="100"/>
-      <c r="J153" s="100"/>
+      <c r="B153" s="105"/>
+      <c r="C153" s="105"/>
+      <c r="D153" s="105"/>
+      <c r="E153" s="105"/>
+      <c r="F153" s="105"/>
+      <c r="G153" s="105"/>
+      <c r="H153" s="105"/>
+      <c r="I153" s="105"/>
+      <c r="J153" s="105"/>
     </row>
     <row r="154" spans="2:10">
-      <c r="B154" s="100"/>
-      <c r="C154" s="100"/>
-      <c r="D154" s="100"/>
-      <c r="E154" s="100"/>
-      <c r="F154" s="100"/>
-      <c r="G154" s="100"/>
-      <c r="H154" s="100"/>
-      <c r="I154" s="100"/>
-      <c r="J154" s="100"/>
+      <c r="B154" s="105"/>
+      <c r="C154" s="105"/>
+      <c r="D154" s="105"/>
+      <c r="E154" s="105"/>
+      <c r="F154" s="105"/>
+      <c r="G154" s="105"/>
+      <c r="H154" s="105"/>
+      <c r="I154" s="105"/>
+      <c r="J154" s="105"/>
     </row>
     <row r="155" spans="2:10">
-      <c r="B155" s="100"/>
-      <c r="C155" s="100"/>
-      <c r="D155" s="100"/>
-      <c r="E155" s="100"/>
-      <c r="F155" s="100"/>
-      <c r="G155" s="100"/>
-      <c r="H155" s="100"/>
-      <c r="I155" s="100"/>
-      <c r="J155" s="100"/>
+      <c r="B155" s="105"/>
+      <c r="C155" s="105"/>
+      <c r="D155" s="105"/>
+      <c r="E155" s="105"/>
+      <c r="F155" s="105"/>
+      <c r="G155" s="105"/>
+      <c r="H155" s="105"/>
+      <c r="I155" s="105"/>
+      <c r="J155" s="105"/>
     </row>
     <row r="156" spans="2:10">
-      <c r="B156" s="100"/>
-      <c r="C156" s="100"/>
-      <c r="D156" s="100"/>
-      <c r="E156" s="100"/>
-      <c r="F156" s="100"/>
-      <c r="G156" s="100"/>
-      <c r="H156" s="100"/>
-      <c r="I156" s="100"/>
-      <c r="J156" s="100"/>
+      <c r="B156" s="105"/>
+      <c r="C156" s="105"/>
+      <c r="D156" s="105"/>
+      <c r="E156" s="105"/>
+      <c r="F156" s="105"/>
+      <c r="G156" s="105"/>
+      <c r="H156" s="105"/>
+      <c r="I156" s="105"/>
+      <c r="J156" s="105"/>
     </row>
     <row r="157" spans="2:10">
-      <c r="B157" s="100"/>
-      <c r="C157" s="100"/>
-      <c r="D157" s="100"/>
-      <c r="E157" s="100"/>
-      <c r="F157" s="100"/>
-      <c r="G157" s="100"/>
-      <c r="H157" s="100"/>
-      <c r="I157" s="100"/>
-      <c r="J157" s="100"/>
+      <c r="B157" s="105"/>
+      <c r="C157" s="105"/>
+      <c r="D157" s="105"/>
+      <c r="E157" s="105"/>
+      <c r="F157" s="105"/>
+      <c r="G157" s="105"/>
+      <c r="H157" s="105"/>
+      <c r="I157" s="105"/>
+      <c r="J157" s="105"/>
     </row>
     <row r="158" spans="2:10">
-      <c r="B158" s="100"/>
-      <c r="C158" s="100"/>
-      <c r="D158" s="100"/>
-      <c r="E158" s="100"/>
-      <c r="F158" s="100"/>
-      <c r="G158" s="100"/>
-      <c r="H158" s="100"/>
-      <c r="I158" s="100"/>
-      <c r="J158" s="100"/>
+      <c r="B158" s="105"/>
+      <c r="C158" s="105"/>
+      <c r="D158" s="105"/>
+      <c r="E158" s="105"/>
+      <c r="F158" s="105"/>
+      <c r="G158" s="105"/>
+      <c r="H158" s="105"/>
+      <c r="I158" s="105"/>
+      <c r="J158" s="105"/>
     </row>
     <row r="159" spans="2:10">
-      <c r="B159" s="100"/>
-      <c r="C159" s="100"/>
-      <c r="D159" s="100"/>
-      <c r="E159" s="100"/>
-      <c r="F159" s="100"/>
-      <c r="G159" s="100"/>
-      <c r="H159" s="100"/>
-      <c r="I159" s="100"/>
-      <c r="J159" s="100"/>
+      <c r="B159" s="105"/>
+      <c r="C159" s="105"/>
+      <c r="D159" s="105"/>
+      <c r="E159" s="105"/>
+      <c r="F159" s="105"/>
+      <c r="G159" s="105"/>
+      <c r="H159" s="105"/>
+      <c r="I159" s="105"/>
+      <c r="J159" s="105"/>
     </row>
     <row r="160" spans="2:10">
-      <c r="B160" s="100"/>
-      <c r="C160" s="100"/>
-      <c r="D160" s="100"/>
-      <c r="E160" s="100"/>
-      <c r="F160" s="100"/>
-      <c r="G160" s="100"/>
-      <c r="H160" s="100"/>
-      <c r="I160" s="100"/>
-      <c r="J160" s="100"/>
+      <c r="B160" s="105"/>
+      <c r="C160" s="105"/>
+      <c r="D160" s="105"/>
+      <c r="E160" s="105"/>
+      <c r="F160" s="105"/>
+      <c r="G160" s="105"/>
+      <c r="H160" s="105"/>
+      <c r="I160" s="105"/>
+      <c r="J160" s="105"/>
     </row>
     <row r="161" spans="2:10">
-      <c r="B161" s="100"/>
-      <c r="C161" s="100"/>
-      <c r="D161" s="100"/>
-      <c r="E161" s="100"/>
-      <c r="F161" s="100"/>
-      <c r="G161" s="100"/>
-      <c r="H161" s="100"/>
-      <c r="I161" s="100"/>
-      <c r="J161" s="100"/>
+      <c r="B161" s="105"/>
+      <c r="C161" s="105"/>
+      <c r="D161" s="105"/>
+      <c r="E161" s="105"/>
+      <c r="F161" s="105"/>
+      <c r="G161" s="105"/>
+      <c r="H161" s="105"/>
+      <c r="I161" s="105"/>
+      <c r="J161" s="105"/>
     </row>
     <row r="162" spans="2:10">
-      <c r="B162" s="100"/>
-      <c r="C162" s="100"/>
-      <c r="D162" s="100"/>
-      <c r="E162" s="100"/>
-      <c r="F162" s="100"/>
-      <c r="G162" s="100"/>
-      <c r="H162" s="100"/>
-      <c r="I162" s="100"/>
-      <c r="J162" s="100"/>
+      <c r="B162" s="105"/>
+      <c r="C162" s="105"/>
+      <c r="D162" s="105"/>
+      <c r="E162" s="105"/>
+      <c r="F162" s="105"/>
+      <c r="G162" s="105"/>
+      <c r="H162" s="105"/>
+      <c r="I162" s="105"/>
+      <c r="J162" s="105"/>
     </row>
     <row r="163" spans="2:10">
-      <c r="B163" s="100"/>
-      <c r="C163" s="100"/>
-      <c r="D163" s="100"/>
-      <c r="E163" s="100"/>
-      <c r="F163" s="100"/>
-      <c r="G163" s="100"/>
-      <c r="H163" s="100"/>
-      <c r="I163" s="100"/>
-      <c r="J163" s="100"/>
+      <c r="B163" s="105"/>
+      <c r="C163" s="105"/>
+      <c r="D163" s="105"/>
+      <c r="E163" s="105"/>
+      <c r="F163" s="105"/>
+      <c r="G163" s="105"/>
+      <c r="H163" s="105"/>
+      <c r="I163" s="105"/>
+      <c r="J163" s="105"/>
     </row>
     <row r="164" spans="2:10">
-      <c r="B164" s="100"/>
-      <c r="C164" s="100"/>
-      <c r="D164" s="100"/>
-      <c r="E164" s="100"/>
-      <c r="F164" s="100"/>
-      <c r="G164" s="100"/>
-      <c r="H164" s="100"/>
-      <c r="I164" s="100"/>
-      <c r="J164" s="100"/>
+      <c r="B164" s="105"/>
+      <c r="C164" s="105"/>
+      <c r="D164" s="105"/>
+      <c r="E164" s="105"/>
+      <c r="F164" s="105"/>
+      <c r="G164" s="105"/>
+      <c r="H164" s="105"/>
+      <c r="I164" s="105"/>
+      <c r="J164" s="105"/>
     </row>
     <row r="165" spans="2:10">
-      <c r="B165" s="100"/>
-      <c r="C165" s="100"/>
-      <c r="D165" s="100"/>
-      <c r="E165" s="100"/>
-      <c r="F165" s="100"/>
-      <c r="G165" s="100"/>
-      <c r="H165" s="100"/>
-      <c r="I165" s="100"/>
-      <c r="J165" s="100"/>
+      <c r="B165" s="105"/>
+      <c r="C165" s="105"/>
+      <c r="D165" s="105"/>
+      <c r="E165" s="105"/>
+      <c r="F165" s="105"/>
+      <c r="G165" s="105"/>
+      <c r="H165" s="105"/>
+      <c r="I165" s="105"/>
+      <c r="J165" s="105"/>
     </row>
     <row r="166" spans="2:10">
-      <c r="B166" s="100"/>
-      <c r="C166" s="100"/>
-      <c r="D166" s="100"/>
-      <c r="E166" s="100"/>
-      <c r="F166" s="100"/>
-      <c r="G166" s="100"/>
-      <c r="H166" s="100"/>
-      <c r="I166" s="100"/>
-      <c r="J166" s="100"/>
+      <c r="B166" s="105"/>
+      <c r="C166" s="105"/>
+      <c r="D166" s="105"/>
+      <c r="E166" s="105"/>
+      <c r="F166" s="105"/>
+      <c r="G166" s="105"/>
+      <c r="H166" s="105"/>
+      <c r="I166" s="105"/>
+      <c r="J166" s="105"/>
     </row>
     <row r="167" spans="2:10">
-      <c r="B167" s="100"/>
-      <c r="C167" s="100"/>
-      <c r="D167" s="100"/>
-      <c r="E167" s="100"/>
-      <c r="F167" s="100"/>
-      <c r="G167" s="100"/>
-      <c r="H167" s="100"/>
-      <c r="I167" s="100"/>
-      <c r="J167" s="100"/>
+      <c r="B167" s="105"/>
+      <c r="C167" s="105"/>
+      <c r="D167" s="105"/>
+      <c r="E167" s="105"/>
+      <c r="F167" s="105"/>
+      <c r="G167" s="105"/>
+      <c r="H167" s="105"/>
+      <c r="I167" s="105"/>
+      <c r="J167" s="105"/>
     </row>
     <row r="168" spans="2:10">
-      <c r="B168" s="100"/>
-      <c r="C168" s="100"/>
-      <c r="D168" s="100"/>
-      <c r="E168" s="100"/>
-      <c r="F168" s="100"/>
-      <c r="G168" s="100"/>
-      <c r="H168" s="100"/>
-      <c r="I168" s="100"/>
-      <c r="J168" s="100"/>
+      <c r="B168" s="105"/>
+      <c r="C168" s="105"/>
+      <c r="D168" s="105"/>
+      <c r="E168" s="105"/>
+      <c r="F168" s="105"/>
+      <c r="G168" s="105"/>
+      <c r="H168" s="105"/>
+      <c r="I168" s="105"/>
+      <c r="J168" s="105"/>
     </row>
     <row r="169" spans="2:10">
-      <c r="B169" s="100"/>
-      <c r="C169" s="100"/>
-      <c r="D169" s="100"/>
-      <c r="E169" s="100"/>
-      <c r="F169" s="100"/>
-      <c r="G169" s="100"/>
-      <c r="H169" s="100"/>
-      <c r="I169" s="100"/>
-      <c r="J169" s="100"/>
+      <c r="B169" s="105"/>
+      <c r="C169" s="105"/>
+      <c r="D169" s="105"/>
+      <c r="E169" s="105"/>
+      <c r="F169" s="105"/>
+      <c r="G169" s="105"/>
+      <c r="H169" s="105"/>
+      <c r="I169" s="105"/>
+      <c r="J169" s="105"/>
     </row>
     <row r="170" spans="2:10">
-      <c r="B170" s="100"/>
-      <c r="C170" s="100"/>
-      <c r="D170" s="100"/>
-      <c r="E170" s="100"/>
-      <c r="F170" s="100"/>
-      <c r="G170" s="100"/>
-      <c r="H170" s="100"/>
-      <c r="I170" s="100"/>
-      <c r="J170" s="100"/>
+      <c r="B170" s="105"/>
+      <c r="C170" s="105"/>
+      <c r="D170" s="105"/>
+      <c r="E170" s="105"/>
+      <c r="F170" s="105"/>
+      <c r="G170" s="105"/>
+      <c r="H170" s="105"/>
+      <c r="I170" s="105"/>
+      <c r="J170" s="105"/>
     </row>
     <row r="171" spans="2:10">
-      <c r="B171" s="100"/>
-      <c r="C171" s="100"/>
-      <c r="D171" s="100"/>
-      <c r="E171" s="100"/>
-      <c r="F171" s="100"/>
-      <c r="G171" s="100"/>
-      <c r="H171" s="100"/>
-      <c r="I171" s="100"/>
-      <c r="J171" s="100"/>
+      <c r="B171" s="105"/>
+      <c r="C171" s="105"/>
+      <c r="D171" s="105"/>
+      <c r="E171" s="105"/>
+      <c r="F171" s="105"/>
+      <c r="G171" s="105"/>
+      <c r="H171" s="105"/>
+      <c r="I171" s="105"/>
+      <c r="J171" s="105"/>
     </row>
     <row r="172" spans="2:10">
-      <c r="B172" s="100"/>
-      <c r="C172" s="100"/>
-      <c r="D172" s="100"/>
-      <c r="E172" s="100"/>
-      <c r="F172" s="100"/>
-      <c r="G172" s="100"/>
-      <c r="H172" s="100"/>
-      <c r="I172" s="100"/>
-      <c r="J172" s="100"/>
+      <c r="B172" s="105"/>
+      <c r="C172" s="105"/>
+      <c r="D172" s="105"/>
+      <c r="E172" s="105"/>
+      <c r="F172" s="105"/>
+      <c r="G172" s="105"/>
+      <c r="H172" s="105"/>
+      <c r="I172" s="105"/>
+      <c r="J172" s="105"/>
     </row>
     <row r="173" spans="2:10">
-      <c r="B173" s="100"/>
-      <c r="C173" s="100"/>
-      <c r="D173" s="100"/>
-      <c r="E173" s="100"/>
-      <c r="F173" s="100"/>
-      <c r="G173" s="100"/>
-      <c r="H173" s="100"/>
-      <c r="I173" s="100"/>
-      <c r="J173" s="100"/>
+      <c r="B173" s="105"/>
+      <c r="C173" s="105"/>
+      <c r="D173" s="105"/>
+      <c r="E173" s="105"/>
+      <c r="F173" s="105"/>
+      <c r="G173" s="105"/>
+      <c r="H173" s="105"/>
+      <c r="I173" s="105"/>
+      <c r="J173" s="105"/>
     </row>
     <row r="174" spans="2:10">
-      <c r="B174" s="100"/>
-      <c r="C174" s="100"/>
-      <c r="D174" s="100"/>
-      <c r="E174" s="100"/>
-      <c r="F174" s="100"/>
-      <c r="G174" s="100"/>
-      <c r="H174" s="100"/>
-      <c r="I174" s="100"/>
-      <c r="J174" s="100"/>
+      <c r="B174" s="105"/>
+      <c r="C174" s="105"/>
+      <c r="D174" s="105"/>
+      <c r="E174" s="105"/>
+      <c r="F174" s="105"/>
+      <c r="G174" s="105"/>
+      <c r="H174" s="105"/>
+      <c r="I174" s="105"/>
+      <c r="J174" s="105"/>
     </row>
     <row r="175" spans="2:10">
-      <c r="B175" s="100"/>
-      <c r="C175" s="100"/>
-      <c r="D175" s="100"/>
-      <c r="E175" s="100"/>
-      <c r="F175" s="100"/>
-      <c r="G175" s="100"/>
-      <c r="H175" s="100"/>
-      <c r="I175" s="100"/>
-      <c r="J175" s="100"/>
+      <c r="B175" s="105"/>
+      <c r="C175" s="105"/>
+      <c r="D175" s="105"/>
+      <c r="E175" s="105"/>
+      <c r="F175" s="105"/>
+      <c r="G175" s="105"/>
+      <c r="H175" s="105"/>
+      <c r="I175" s="105"/>
+      <c r="J175" s="105"/>
     </row>
     <row r="176" spans="2:10">
-      <c r="B176" s="100"/>
-      <c r="C176" s="100"/>
-      <c r="D176" s="100"/>
-      <c r="E176" s="100"/>
-      <c r="F176" s="100"/>
-      <c r="G176" s="100"/>
-      <c r="H176" s="100"/>
-      <c r="I176" s="100"/>
-      <c r="J176" s="100"/>
+      <c r="B176" s="105"/>
+      <c r="C176" s="105"/>
+      <c r="D176" s="105"/>
+      <c r="E176" s="105"/>
+      <c r="F176" s="105"/>
+      <c r="G176" s="105"/>
+      <c r="H176" s="105"/>
+      <c r="I176" s="105"/>
+      <c r="J176" s="105"/>
     </row>
     <row r="177" spans="2:10">
-      <c r="B177" s="100"/>
-      <c r="C177" s="100"/>
-      <c r="D177" s="100"/>
-      <c r="E177" s="100"/>
-      <c r="F177" s="100"/>
-      <c r="G177" s="100"/>
-      <c r="H177" s="100"/>
-      <c r="I177" s="100"/>
-      <c r="J177" s="100"/>
+      <c r="B177" s="105"/>
+      <c r="C177" s="105"/>
+      <c r="D177" s="105"/>
+      <c r="E177" s="105"/>
+      <c r="F177" s="105"/>
+      <c r="G177" s="105"/>
+      <c r="H177" s="105"/>
+      <c r="I177" s="105"/>
+      <c r="J177" s="105"/>
     </row>
     <row r="178" spans="2:10">
-      <c r="B178" s="100"/>
-      <c r="C178" s="100"/>
-      <c r="D178" s="100"/>
-      <c r="E178" s="100"/>
-      <c r="F178" s="100"/>
-      <c r="G178" s="100"/>
-      <c r="H178" s="100"/>
-      <c r="I178" s="100"/>
-      <c r="J178" s="100"/>
+      <c r="B178" s="105"/>
+      <c r="C178" s="105"/>
+      <c r="D178" s="105"/>
+      <c r="E178" s="105"/>
+      <c r="F178" s="105"/>
+      <c r="G178" s="105"/>
+      <c r="H178" s="105"/>
+      <c r="I178" s="105"/>
+      <c r="J178" s="105"/>
     </row>
     <row r="179" spans="2:10">
-      <c r="B179" s="100"/>
-      <c r="C179" s="100"/>
-      <c r="D179" s="100"/>
-      <c r="E179" s="100"/>
-      <c r="F179" s="100"/>
-      <c r="G179" s="100"/>
-      <c r="H179" s="100"/>
-      <c r="I179" s="100"/>
-      <c r="J179" s="100"/>
+      <c r="B179" s="105"/>
+      <c r="C179" s="105"/>
+      <c r="D179" s="105"/>
+      <c r="E179" s="105"/>
+      <c r="F179" s="105"/>
+      <c r="G179" s="105"/>
+      <c r="H179" s="105"/>
+      <c r="I179" s="105"/>
+      <c r="J179" s="105"/>
     </row>
     <row r="180" spans="2:10">
-      <c r="B180" s="100"/>
-      <c r="C180" s="100"/>
-      <c r="D180" s="100"/>
-      <c r="E180" s="100"/>
-      <c r="F180" s="100"/>
-      <c r="G180" s="100"/>
-      <c r="H180" s="100"/>
-      <c r="I180" s="100"/>
-      <c r="J180" s="100"/>
+      <c r="B180" s="105"/>
+      <c r="C180" s="105"/>
+      <c r="D180" s="105"/>
+      <c r="E180" s="105"/>
+      <c r="F180" s="105"/>
+      <c r="G180" s="105"/>
+      <c r="H180" s="105"/>
+      <c r="I180" s="105"/>
+      <c r="J180" s="105"/>
     </row>
     <row r="181" spans="2:10">
-      <c r="B181" s="100"/>
-      <c r="C181" s="100"/>
-      <c r="D181" s="100"/>
-      <c r="E181" s="100"/>
-      <c r="F181" s="100"/>
-      <c r="G181" s="100"/>
-      <c r="H181" s="100"/>
-      <c r="I181" s="100"/>
-      <c r="J181" s="100"/>
+      <c r="B181" s="105"/>
+      <c r="C181" s="105"/>
+      <c r="D181" s="105"/>
+      <c r="E181" s="105"/>
+      <c r="F181" s="105"/>
+      <c r="G181" s="105"/>
+      <c r="H181" s="105"/>
+      <c r="I181" s="105"/>
+      <c r="J181" s="105"/>
     </row>
     <row r="182" spans="2:10">
-      <c r="B182" s="100"/>
-      <c r="C182" s="100"/>
-      <c r="D182" s="100"/>
-      <c r="E182" s="100"/>
-      <c r="F182" s="100"/>
-      <c r="G182" s="100"/>
-      <c r="H182" s="100"/>
-      <c r="I182" s="100"/>
-      <c r="J182" s="100"/>
+      <c r="B182" s="105"/>
+      <c r="C182" s="105"/>
+      <c r="D182" s="105"/>
+      <c r="E182" s="105"/>
+      <c r="F182" s="105"/>
+      <c r="G182" s="105"/>
+      <c r="H182" s="105"/>
+      <c r="I182" s="105"/>
+      <c r="J182" s="105"/>
     </row>
     <row r="183" spans="2:10">
-      <c r="B183" s="100"/>
-      <c r="C183" s="100"/>
-      <c r="D183" s="100"/>
-      <c r="E183" s="100"/>
-      <c r="F183" s="100"/>
-      <c r="G183" s="100"/>
-      <c r="H183" s="100"/>
-      <c r="I183" s="100"/>
-      <c r="J183" s="100"/>
+      <c r="B183" s="105"/>
+      <c r="C183" s="105"/>
+      <c r="D183" s="105"/>
+      <c r="E183" s="105"/>
+      <c r="F183" s="105"/>
+      <c r="G183" s="105"/>
+      <c r="H183" s="105"/>
+      <c r="I183" s="105"/>
+      <c r="J183" s="105"/>
     </row>
     <row r="184" spans="2:10">
-      <c r="B184" s="100"/>
-      <c r="C184" s="100"/>
-      <c r="D184" s="100"/>
-      <c r="E184" s="100"/>
-      <c r="F184" s="100"/>
-      <c r="G184" s="100"/>
-      <c r="H184" s="100"/>
-      <c r="I184" s="100"/>
-      <c r="J184" s="100"/>
+      <c r="B184" s="105"/>
+      <c r="C184" s="105"/>
+      <c r="D184" s="105"/>
+      <c r="E184" s="105"/>
+      <c r="F184" s="105"/>
+      <c r="G184" s="105"/>
+      <c r="H184" s="105"/>
+      <c r="I184" s="105"/>
+      <c r="J184" s="105"/>
     </row>
     <row r="185" spans="2:10">
-      <c r="B185" s="100"/>
-      <c r="C185" s="100"/>
-      <c r="D185" s="100"/>
-      <c r="E185" s="100"/>
-      <c r="F185" s="100"/>
-      <c r="G185" s="100"/>
-      <c r="H185" s="100"/>
-      <c r="I185" s="100"/>
-      <c r="J185" s="100"/>
+      <c r="B185" s="105"/>
+      <c r="C185" s="105"/>
+      <c r="D185" s="105"/>
+      <c r="E185" s="105"/>
+      <c r="F185" s="105"/>
+      <c r="G185" s="105"/>
+      <c r="H185" s="105"/>
+      <c r="I185" s="105"/>
+      <c r="J185" s="105"/>
     </row>
     <row r="186" spans="2:10">
-      <c r="B186" s="100"/>
-      <c r="C186" s="100"/>
-      <c r="D186" s="100"/>
-      <c r="E186" s="100"/>
-      <c r="F186" s="100"/>
-      <c r="G186" s="100"/>
-      <c r="H186" s="100"/>
-      <c r="I186" s="100"/>
-      <c r="J186" s="100"/>
+      <c r="B186" s="105"/>
+      <c r="C186" s="105"/>
+      <c r="D186" s="105"/>
+      <c r="E186" s="105"/>
+      <c r="F186" s="105"/>
+      <c r="G186" s="105"/>
+      <c r="H186" s="105"/>
+      <c r="I186" s="105"/>
+      <c r="J186" s="105"/>
     </row>
     <row r="187" spans="2:10">
-      <c r="B187" s="100"/>
-      <c r="C187" s="100"/>
-      <c r="D187" s="100"/>
-      <c r="E187" s="100"/>
-      <c r="F187" s="100"/>
-      <c r="G187" s="100"/>
-      <c r="H187" s="100"/>
-      <c r="I187" s="100"/>
-      <c r="J187" s="100"/>
+      <c r="B187" s="105"/>
+      <c r="C187" s="105"/>
+      <c r="D187" s="105"/>
+      <c r="E187" s="105"/>
+      <c r="F187" s="105"/>
+      <c r="G187" s="105"/>
+      <c r="H187" s="105"/>
+      <c r="I187" s="105"/>
+      <c r="J187" s="105"/>
     </row>
     <row r="188" spans="2:10">
-      <c r="B188" s="100"/>
-      <c r="C188" s="100"/>
-      <c r="D188" s="100"/>
-      <c r="E188" s="100"/>
-      <c r="F188" s="100"/>
-      <c r="G188" s="100"/>
-      <c r="H188" s="100"/>
-      <c r="I188" s="100"/>
-      <c r="J188" s="100"/>
+      <c r="B188" s="105"/>
+      <c r="C188" s="105"/>
+      <c r="D188" s="105"/>
+      <c r="E188" s="105"/>
+      <c r="F188" s="105"/>
+      <c r="G188" s="105"/>
+      <c r="H188" s="105"/>
+      <c r="I188" s="105"/>
+      <c r="J188" s="105"/>
     </row>
     <row r="189" spans="2:10">
-      <c r="B189" s="100"/>
-      <c r="C189" s="100"/>
-      <c r="D189" s="100"/>
-      <c r="E189" s="100"/>
-      <c r="F189" s="100"/>
-      <c r="G189" s="100"/>
-      <c r="H189" s="100"/>
-      <c r="I189" s="100"/>
-      <c r="J189" s="100"/>
+      <c r="B189" s="105"/>
+      <c r="C189" s="105"/>
+      <c r="D189" s="105"/>
+      <c r="E189" s="105"/>
+      <c r="F189" s="105"/>
+      <c r="G189" s="105"/>
+      <c r="H189" s="105"/>
+      <c r="I189" s="105"/>
+      <c r="J189" s="105"/>
     </row>
     <row r="190" spans="2:10">
-      <c r="B190" s="100"/>
-      <c r="C190" s="100"/>
-      <c r="D190" s="100"/>
-      <c r="E190" s="100"/>
-      <c r="F190" s="100"/>
-      <c r="G190" s="100"/>
-      <c r="H190" s="100"/>
-      <c r="I190" s="100"/>
-      <c r="J190" s="100"/>
+      <c r="B190" s="105"/>
+      <c r="C190" s="105"/>
+      <c r="D190" s="105"/>
+      <c r="E190" s="105"/>
+      <c r="F190" s="105"/>
+      <c r="G190" s="105"/>
+      <c r="H190" s="105"/>
+      <c r="I190" s="105"/>
+      <c r="J190" s="105"/>
     </row>
     <row r="191" spans="2:10">
-      <c r="B191" s="100"/>
-      <c r="C191" s="100"/>
-      <c r="D191" s="100"/>
-      <c r="E191" s="100"/>
-      <c r="F191" s="100"/>
-      <c r="G191" s="100"/>
-      <c r="H191" s="100"/>
-      <c r="I191" s="100"/>
-      <c r="J191" s="100"/>
+      <c r="B191" s="105"/>
+      <c r="C191" s="105"/>
+      <c r="D191" s="105"/>
+      <c r="E191" s="105"/>
+      <c r="F191" s="105"/>
+      <c r="G191" s="105"/>
+      <c r="H191" s="105"/>
+      <c r="I191" s="105"/>
+      <c r="J191" s="105"/>
     </row>
     <row r="192" spans="2:10">
-      <c r="B192" s="100"/>
-      <c r="C192" s="100"/>
-      <c r="D192" s="100"/>
-      <c r="E192" s="100"/>
-      <c r="F192" s="100"/>
-      <c r="G192" s="100"/>
-      <c r="H192" s="100"/>
-      <c r="I192" s="100"/>
-      <c r="J192" s="100"/>
+      <c r="B192" s="105"/>
+      <c r="C192" s="105"/>
+      <c r="D192" s="105"/>
+      <c r="E192" s="105"/>
+      <c r="F192" s="105"/>
+      <c r="G192" s="105"/>
+      <c r="H192" s="105"/>
+      <c r="I192" s="105"/>
+      <c r="J192" s="105"/>
     </row>
     <row r="193" spans="2:10">
-      <c r="B193" s="100"/>
-      <c r="C193" s="100"/>
-      <c r="D193" s="100"/>
-      <c r="E193" s="100"/>
-      <c r="F193" s="100"/>
-      <c r="G193" s="100"/>
-      <c r="H193" s="100"/>
-      <c r="I193" s="100"/>
-      <c r="J193" s="100"/>
+      <c r="B193" s="105"/>
+      <c r="C193" s="105"/>
+      <c r="D193" s="105"/>
+      <c r="E193" s="105"/>
+      <c r="F193" s="105"/>
+      <c r="G193" s="105"/>
+      <c r="H193" s="105"/>
+      <c r="I193" s="105"/>
+      <c r="J193" s="105"/>
     </row>
     <row r="194" spans="2:10">
-      <c r="B194" s="100"/>
-      <c r="C194" s="100"/>
-      <c r="D194" s="100"/>
-      <c r="E194" s="100"/>
-      <c r="F194" s="100"/>
-      <c r="G194" s="100"/>
-      <c r="H194" s="100"/>
-      <c r="I194" s="100"/>
-      <c r="J194" s="100"/>
+      <c r="B194" s="105"/>
+      <c r="C194" s="105"/>
+      <c r="D194" s="105"/>
+      <c r="E194" s="105"/>
+      <c r="F194" s="105"/>
+      <c r="G194" s="105"/>
+      <c r="H194" s="105"/>
+      <c r="I194" s="105"/>
+      <c r="J194" s="105"/>
     </row>
     <row r="195" spans="2:10">
-      <c r="B195" s="100"/>
-      <c r="C195" s="100"/>
-      <c r="D195" s="100"/>
-      <c r="E195" s="100"/>
-      <c r="F195" s="100"/>
-      <c r="G195" s="100"/>
-      <c r="H195" s="100"/>
-      <c r="I195" s="100"/>
-      <c r="J195" s="100"/>
+      <c r="B195" s="105"/>
+      <c r="C195" s="105"/>
+      <c r="D195" s="105"/>
+      <c r="E195" s="105"/>
+      <c r="F195" s="105"/>
+      <c r="G195" s="105"/>
+      <c r="H195" s="105"/>
+      <c r="I195" s="105"/>
+      <c r="J195" s="105"/>
     </row>
     <row r="196" spans="2:10">
-      <c r="B196" s="100"/>
-      <c r="C196" s="100"/>
-      <c r="D196" s="100"/>
-      <c r="E196" s="100"/>
-      <c r="F196" s="100"/>
-      <c r="G196" s="100"/>
-      <c r="H196" s="100"/>
-      <c r="I196" s="100"/>
-      <c r="J196" s="100"/>
+      <c r="B196" s="105"/>
+      <c r="C196" s="105"/>
+      <c r="D196" s="105"/>
+      <c r="E196" s="105"/>
+      <c r="F196" s="105"/>
+      <c r="G196" s="105"/>
+      <c r="H196" s="105"/>
+      <c r="I196" s="105"/>
+      <c r="J196" s="105"/>
     </row>
     <row r="197" spans="2:10">
-      <c r="B197" s="100"/>
-      <c r="C197" s="100"/>
-      <c r="D197" s="100"/>
-      <c r="E197" s="100"/>
-      <c r="F197" s="100"/>
-      <c r="G197" s="100"/>
-      <c r="H197" s="100"/>
-      <c r="I197" s="100"/>
-      <c r="J197" s="100"/>
+      <c r="B197" s="105"/>
+      <c r="C197" s="105"/>
+      <c r="D197" s="105"/>
+      <c r="E197" s="105"/>
+      <c r="F197" s="105"/>
+      <c r="G197" s="105"/>
+      <c r="H197" s="105"/>
+      <c r="I197" s="105"/>
+      <c r="J197" s="105"/>
     </row>
     <row r="198" spans="2:10">
-      <c r="B198" s="100"/>
-      <c r="C198" s="100"/>
-      <c r="D198" s="100"/>
-      <c r="E198" s="100"/>
-      <c r="F198" s="100"/>
-      <c r="G198" s="100"/>
-      <c r="H198" s="100"/>
-      <c r="I198" s="100"/>
-      <c r="J198" s="100"/>
+      <c r="B198" s="105"/>
+      <c r="C198" s="105"/>
+      <c r="D198" s="105"/>
+      <c r="E198" s="105"/>
+      <c r="F198" s="105"/>
+      <c r="G198" s="105"/>
+      <c r="H198" s="105"/>
+      <c r="I198" s="105"/>
+      <c r="J198" s="105"/>
     </row>
     <row r="199" spans="2:10">
-      <c r="B199" s="100"/>
-      <c r="C199" s="100"/>
-      <c r="D199" s="100"/>
-      <c r="E199" s="100"/>
-      <c r="F199" s="100"/>
-      <c r="G199" s="100"/>
-      <c r="H199" s="100"/>
-      <c r="I199" s="100"/>
-      <c r="J199" s="100"/>
+      <c r="B199" s="105"/>
+      <c r="C199" s="105"/>
+      <c r="D199" s="105"/>
+      <c r="E199" s="105"/>
+      <c r="F199" s="105"/>
+      <c r="G199" s="105"/>
+      <c r="H199" s="105"/>
+      <c r="I199" s="105"/>
+      <c r="J199" s="105"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="rFQsq/JRf0N8cInmEqIiKYMWMlkGKxmnUDNADRhy5yLE7ayCyDbU31wwIzWB4sMdpFurv/hzpumbdIBI5YT6Eg==" saltValue="vi6eEjBMXdpGC2wAd3+TuA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -8780,7 +8848,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" customHeight="1"/>
@@ -8861,7 +8929,7 @@
   <dimension ref="A1:I200"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:E20"/>
+      <selection activeCell="A20" sqref="A20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25"/>
@@ -9106,10 +9174,10 @@
       <c r="A19" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="106"/>
+      <c r="C19" s="111"/>
       <c r="D19" s="70" t="s">
         <v>141</v>
       </c>
@@ -9130,734 +9198,734 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="109"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
       <c r="D24" s="57"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="109"/>
       <c r="D25" s="57"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="109"/>
       <c r="D26" s="57"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="109"/>
       <c r="D27" s="57"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="109"/>
       <c r="D28" s="57"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
       <c r="D29" s="57"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="109"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="109"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="109"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="104"/>
-      <c r="C38" s="104"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="109"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="104"/>
-      <c r="C39" s="104"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="104"/>
-      <c r="C40" s="104"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="109"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="104"/>
-      <c r="C41" s="104"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="109"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="104"/>
-      <c r="C42" s="104"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="109"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="104"/>
-      <c r="C43" s="104"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="109"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="104"/>
-      <c r="C44" s="104"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="109"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="104"/>
-      <c r="C45" s="104"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="109"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="104"/>
-      <c r="C46" s="104"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="109"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="109"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="109"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="104"/>
-      <c r="C49" s="104"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="109"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="104"/>
-      <c r="C50" s="104"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="109"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="104"/>
-      <c r="C51" s="104"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="109"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="104"/>
-      <c r="C52" s="104"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="109"/>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="104"/>
-      <c r="C53" s="104"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="109"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="104"/>
-      <c r="C54" s="104"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="109"/>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="104"/>
-      <c r="C55" s="104"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="109"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="104"/>
-      <c r="C56" s="104"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="109"/>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="104"/>
-      <c r="C57" s="104"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="109"/>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="104"/>
-      <c r="C58" s="104"/>
+      <c r="B58" s="109"/>
+      <c r="C58" s="109"/>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="104"/>
-      <c r="C59" s="104"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="109"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="104"/>
-      <c r="C60" s="104"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="109"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="104"/>
-      <c r="C61" s="104"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="109"/>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="104"/>
-      <c r="C62" s="104"/>
+      <c r="B62" s="109"/>
+      <c r="C62" s="109"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="104"/>
-      <c r="C63" s="104"/>
+      <c r="B63" s="109"/>
+      <c r="C63" s="109"/>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="104"/>
-      <c r="C64" s="104"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="109"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="104"/>
-      <c r="C65" s="104"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="109"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="104"/>
-      <c r="C66" s="104"/>
+      <c r="B66" s="109"/>
+      <c r="C66" s="109"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="104"/>
-      <c r="C67" s="104"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="109"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="104"/>
-      <c r="C68" s="104"/>
+      <c r="B68" s="109"/>
+      <c r="C68" s="109"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="104"/>
-      <c r="C69" s="104"/>
+      <c r="B69" s="109"/>
+      <c r="C69" s="109"/>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="104"/>
-      <c r="C70" s="104"/>
+      <c r="B70" s="109"/>
+      <c r="C70" s="109"/>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="104"/>
-      <c r="C71" s="104"/>
+      <c r="B71" s="109"/>
+      <c r="C71" s="109"/>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="104"/>
-      <c r="C72" s="104"/>
+      <c r="B72" s="109"/>
+      <c r="C72" s="109"/>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="104"/>
-      <c r="C73" s="104"/>
+      <c r="B73" s="109"/>
+      <c r="C73" s="109"/>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="104"/>
-      <c r="C74" s="104"/>
+      <c r="B74" s="109"/>
+      <c r="C74" s="109"/>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="104"/>
-      <c r="C75" s="104"/>
+      <c r="B75" s="109"/>
+      <c r="C75" s="109"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="104"/>
-      <c r="C76" s="104"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="109"/>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="104"/>
-      <c r="C77" s="104"/>
+      <c r="B77" s="109"/>
+      <c r="C77" s="109"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="104"/>
-      <c r="C78" s="104"/>
+      <c r="B78" s="109"/>
+      <c r="C78" s="109"/>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="104"/>
-      <c r="C79" s="104"/>
+      <c r="B79" s="109"/>
+      <c r="C79" s="109"/>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="104"/>
-      <c r="C80" s="104"/>
+      <c r="B80" s="109"/>
+      <c r="C80" s="109"/>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="104"/>
-      <c r="C81" s="104"/>
+      <c r="B81" s="109"/>
+      <c r="C81" s="109"/>
     </row>
     <row r="82" spans="2:3">
-      <c r="B82" s="104"/>
-      <c r="C82" s="104"/>
+      <c r="B82" s="109"/>
+      <c r="C82" s="109"/>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="104"/>
-      <c r="C83" s="104"/>
+      <c r="B83" s="109"/>
+      <c r="C83" s="109"/>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="104"/>
-      <c r="C84" s="104"/>
+      <c r="B84" s="109"/>
+      <c r="C84" s="109"/>
     </row>
     <row r="85" spans="2:3">
-      <c r="B85" s="104"/>
-      <c r="C85" s="104"/>
+      <c r="B85" s="109"/>
+      <c r="C85" s="109"/>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="104"/>
-      <c r="C86" s="104"/>
+      <c r="B86" s="109"/>
+      <c r="C86" s="109"/>
     </row>
     <row r="87" spans="2:3">
-      <c r="B87" s="104"/>
-      <c r="C87" s="104"/>
+      <c r="B87" s="109"/>
+      <c r="C87" s="109"/>
     </row>
     <row r="88" spans="2:3">
-      <c r="B88" s="104"/>
-      <c r="C88" s="104"/>
+      <c r="B88" s="109"/>
+      <c r="C88" s="109"/>
     </row>
     <row r="89" spans="2:3">
-      <c r="B89" s="104"/>
-      <c r="C89" s="104"/>
+      <c r="B89" s="109"/>
+      <c r="C89" s="109"/>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="104"/>
-      <c r="C90" s="104"/>
+      <c r="B90" s="109"/>
+      <c r="C90" s="109"/>
     </row>
     <row r="91" spans="2:3">
-      <c r="B91" s="104"/>
-      <c r="C91" s="104"/>
+      <c r="B91" s="109"/>
+      <c r="C91" s="109"/>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="104"/>
-      <c r="C92" s="104"/>
+      <c r="B92" s="109"/>
+      <c r="C92" s="109"/>
     </row>
     <row r="93" spans="2:3">
-      <c r="B93" s="104"/>
-      <c r="C93" s="104"/>
+      <c r="B93" s="109"/>
+      <c r="C93" s="109"/>
     </row>
     <row r="94" spans="2:3">
-      <c r="B94" s="104"/>
-      <c r="C94" s="104"/>
+      <c r="B94" s="109"/>
+      <c r="C94" s="109"/>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="104"/>
-      <c r="C95" s="104"/>
+      <c r="B95" s="109"/>
+      <c r="C95" s="109"/>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" s="104"/>
-      <c r="C96" s="104"/>
+      <c r="B96" s="109"/>
+      <c r="C96" s="109"/>
     </row>
     <row r="97" spans="2:3">
-      <c r="B97" s="104"/>
-      <c r="C97" s="104"/>
+      <c r="B97" s="109"/>
+      <c r="C97" s="109"/>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="104"/>
-      <c r="C98" s="104"/>
+      <c r="B98" s="109"/>
+      <c r="C98" s="109"/>
     </row>
     <row r="99" spans="2:3">
-      <c r="B99" s="104"/>
-      <c r="C99" s="104"/>
+      <c r="B99" s="109"/>
+      <c r="C99" s="109"/>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="104"/>
-      <c r="C100" s="104"/>
+      <c r="B100" s="109"/>
+      <c r="C100" s="109"/>
     </row>
     <row r="101" spans="2:3">
-      <c r="B101" s="104"/>
-      <c r="C101" s="104"/>
+      <c r="B101" s="109"/>
+      <c r="C101" s="109"/>
     </row>
     <row r="102" spans="2:3">
-      <c r="B102" s="104"/>
-      <c r="C102" s="104"/>
+      <c r="B102" s="109"/>
+      <c r="C102" s="109"/>
     </row>
     <row r="103" spans="2:3">
-      <c r="B103" s="104"/>
-      <c r="C103" s="104"/>
+      <c r="B103" s="109"/>
+      <c r="C103" s="109"/>
     </row>
     <row r="104" spans="2:3">
-      <c r="B104" s="104"/>
-      <c r="C104" s="104"/>
+      <c r="B104" s="109"/>
+      <c r="C104" s="109"/>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="104"/>
-      <c r="C105" s="104"/>
+      <c r="B105" s="109"/>
+      <c r="C105" s="109"/>
     </row>
     <row r="106" spans="2:3">
-      <c r="B106" s="104"/>
-      <c r="C106" s="104"/>
+      <c r="B106" s="109"/>
+      <c r="C106" s="109"/>
     </row>
     <row r="107" spans="2:3">
-      <c r="B107" s="104"/>
-      <c r="C107" s="104"/>
+      <c r="B107" s="109"/>
+      <c r="C107" s="109"/>
     </row>
     <row r="108" spans="2:3">
-      <c r="B108" s="104"/>
-      <c r="C108" s="104"/>
+      <c r="B108" s="109"/>
+      <c r="C108" s="109"/>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="104"/>
-      <c r="C109" s="104"/>
+      <c r="B109" s="109"/>
+      <c r="C109" s="109"/>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="104"/>
-      <c r="C110" s="104"/>
+      <c r="B110" s="109"/>
+      <c r="C110" s="109"/>
     </row>
     <row r="111" spans="2:3">
-      <c r="B111" s="104"/>
-      <c r="C111" s="104"/>
+      <c r="B111" s="109"/>
+      <c r="C111" s="109"/>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="104"/>
-      <c r="C112" s="104"/>
+      <c r="B112" s="109"/>
+      <c r="C112" s="109"/>
     </row>
     <row r="113" spans="2:3">
-      <c r="B113" s="104"/>
-      <c r="C113" s="104"/>
+      <c r="B113" s="109"/>
+      <c r="C113" s="109"/>
     </row>
     <row r="114" spans="2:3">
-      <c r="B114" s="104"/>
-      <c r="C114" s="104"/>
+      <c r="B114" s="109"/>
+      <c r="C114" s="109"/>
     </row>
     <row r="115" spans="2:3">
-      <c r="B115" s="104"/>
-      <c r="C115" s="104"/>
+      <c r="B115" s="109"/>
+      <c r="C115" s="109"/>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="104"/>
-      <c r="C116" s="104"/>
+      <c r="B116" s="109"/>
+      <c r="C116" s="109"/>
     </row>
     <row r="117" spans="2:3">
-      <c r="B117" s="104"/>
-      <c r="C117" s="104"/>
+      <c r="B117" s="109"/>
+      <c r="C117" s="109"/>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="104"/>
-      <c r="C118" s="104"/>
+      <c r="B118" s="109"/>
+      <c r="C118" s="109"/>
     </row>
     <row r="119" spans="2:3">
-      <c r="B119" s="104"/>
-      <c r="C119" s="104"/>
+      <c r="B119" s="109"/>
+      <c r="C119" s="109"/>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="104"/>
-      <c r="C120" s="104"/>
+      <c r="B120" s="109"/>
+      <c r="C120" s="109"/>
     </row>
     <row r="121" spans="2:3">
-      <c r="B121" s="104"/>
-      <c r="C121" s="104"/>
+      <c r="B121" s="109"/>
+      <c r="C121" s="109"/>
     </row>
     <row r="122" spans="2:3">
-      <c r="B122" s="104"/>
-      <c r="C122" s="104"/>
+      <c r="B122" s="109"/>
+      <c r="C122" s="109"/>
     </row>
     <row r="123" spans="2:3">
-      <c r="B123" s="104"/>
-      <c r="C123" s="104"/>
+      <c r="B123" s="109"/>
+      <c r="C123" s="109"/>
     </row>
     <row r="124" spans="2:3">
-      <c r="B124" s="104"/>
-      <c r="C124" s="104"/>
+      <c r="B124" s="109"/>
+      <c r="C124" s="109"/>
     </row>
     <row r="125" spans="2:3">
-      <c r="B125" s="104"/>
-      <c r="C125" s="104"/>
+      <c r="B125" s="109"/>
+      <c r="C125" s="109"/>
     </row>
     <row r="126" spans="2:3">
-      <c r="B126" s="104"/>
-      <c r="C126" s="104"/>
+      <c r="B126" s="109"/>
+      <c r="C126" s="109"/>
     </row>
     <row r="127" spans="2:3">
-      <c r="B127" s="104"/>
-      <c r="C127" s="104"/>
+      <c r="B127" s="109"/>
+      <c r="C127" s="109"/>
     </row>
     <row r="128" spans="2:3">
-      <c r="B128" s="104"/>
-      <c r="C128" s="104"/>
+      <c r="B128" s="109"/>
+      <c r="C128" s="109"/>
     </row>
     <row r="129" spans="2:3">
-      <c r="B129" s="104"/>
-      <c r="C129" s="104"/>
+      <c r="B129" s="109"/>
+      <c r="C129" s="109"/>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="104"/>
-      <c r="C130" s="104"/>
+      <c r="B130" s="109"/>
+      <c r="C130" s="109"/>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="104"/>
-      <c r="C131" s="104"/>
+      <c r="B131" s="109"/>
+      <c r="C131" s="109"/>
     </row>
     <row r="132" spans="2:3">
-      <c r="B132" s="104"/>
-      <c r="C132" s="104"/>
+      <c r="B132" s="109"/>
+      <c r="C132" s="109"/>
     </row>
     <row r="133" spans="2:3">
-      <c r="B133" s="104"/>
-      <c r="C133" s="104"/>
+      <c r="B133" s="109"/>
+      <c r="C133" s="109"/>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="104"/>
-      <c r="C134" s="104"/>
+      <c r="B134" s="109"/>
+      <c r="C134" s="109"/>
     </row>
     <row r="135" spans="2:3">
-      <c r="B135" s="104"/>
-      <c r="C135" s="104"/>
+      <c r="B135" s="109"/>
+      <c r="C135" s="109"/>
     </row>
     <row r="136" spans="2:3">
-      <c r="B136" s="104"/>
-      <c r="C136" s="104"/>
+      <c r="B136" s="109"/>
+      <c r="C136" s="109"/>
     </row>
     <row r="137" spans="2:3">
-      <c r="B137" s="104"/>
-      <c r="C137" s="104"/>
+      <c r="B137" s="109"/>
+      <c r="C137" s="109"/>
     </row>
     <row r="138" spans="2:3">
-      <c r="B138" s="104"/>
-      <c r="C138" s="104"/>
+      <c r="B138" s="109"/>
+      <c r="C138" s="109"/>
     </row>
     <row r="139" spans="2:3">
-      <c r="B139" s="104"/>
-      <c r="C139" s="104"/>
+      <c r="B139" s="109"/>
+      <c r="C139" s="109"/>
     </row>
     <row r="140" spans="2:3">
-      <c r="B140" s="104"/>
-      <c r="C140" s="104"/>
+      <c r="B140" s="109"/>
+      <c r="C140" s="109"/>
     </row>
     <row r="141" spans="2:3">
-      <c r="B141" s="104"/>
-      <c r="C141" s="104"/>
+      <c r="B141" s="109"/>
+      <c r="C141" s="109"/>
     </row>
     <row r="142" spans="2:3">
-      <c r="B142" s="104"/>
-      <c r="C142" s="104"/>
+      <c r="B142" s="109"/>
+      <c r="C142" s="109"/>
     </row>
     <row r="143" spans="2:3">
-      <c r="B143" s="104"/>
-      <c r="C143" s="104"/>
+      <c r="B143" s="109"/>
+      <c r="C143" s="109"/>
     </row>
     <row r="144" spans="2:3">
-      <c r="B144" s="104"/>
-      <c r="C144" s="104"/>
+      <c r="B144" s="109"/>
+      <c r="C144" s="109"/>
     </row>
     <row r="145" spans="2:3">
-      <c r="B145" s="104"/>
-      <c r="C145" s="104"/>
+      <c r="B145" s="109"/>
+      <c r="C145" s="109"/>
     </row>
     <row r="146" spans="2:3">
-      <c r="B146" s="104"/>
-      <c r="C146" s="104"/>
+      <c r="B146" s="109"/>
+      <c r="C146" s="109"/>
     </row>
     <row r="147" spans="2:3">
-      <c r="B147" s="104"/>
-      <c r="C147" s="104"/>
+      <c r="B147" s="109"/>
+      <c r="C147" s="109"/>
     </row>
     <row r="148" spans="2:3">
-      <c r="B148" s="104"/>
-      <c r="C148" s="104"/>
+      <c r="B148" s="109"/>
+      <c r="C148" s="109"/>
     </row>
     <row r="149" spans="2:3">
-      <c r="B149" s="104"/>
-      <c r="C149" s="104"/>
+      <c r="B149" s="109"/>
+      <c r="C149" s="109"/>
     </row>
     <row r="150" spans="2:3">
-      <c r="B150" s="104"/>
-      <c r="C150" s="104"/>
+      <c r="B150" s="109"/>
+      <c r="C150" s="109"/>
     </row>
     <row r="151" spans="2:3">
-      <c r="B151" s="104"/>
-      <c r="C151" s="104"/>
+      <c r="B151" s="109"/>
+      <c r="C151" s="109"/>
     </row>
     <row r="152" spans="2:3">
-      <c r="B152" s="104"/>
-      <c r="C152" s="104"/>
+      <c r="B152" s="109"/>
+      <c r="C152" s="109"/>
     </row>
     <row r="153" spans="2:3">
-      <c r="B153" s="104"/>
-      <c r="C153" s="104"/>
+      <c r="B153" s="109"/>
+      <c r="C153" s="109"/>
     </row>
     <row r="154" spans="2:3">
-      <c r="B154" s="104"/>
-      <c r="C154" s="104"/>
+      <c r="B154" s="109"/>
+      <c r="C154" s="109"/>
     </row>
     <row r="155" spans="2:3">
-      <c r="B155" s="104"/>
-      <c r="C155" s="104"/>
+      <c r="B155" s="109"/>
+      <c r="C155" s="109"/>
     </row>
     <row r="156" spans="2:3">
-      <c r="B156" s="104"/>
-      <c r="C156" s="104"/>
+      <c r="B156" s="109"/>
+      <c r="C156" s="109"/>
     </row>
     <row r="157" spans="2:3">
-      <c r="B157" s="104"/>
-      <c r="C157" s="104"/>
+      <c r="B157" s="109"/>
+      <c r="C157" s="109"/>
     </row>
     <row r="158" spans="2:3">
-      <c r="B158" s="104"/>
-      <c r="C158" s="104"/>
+      <c r="B158" s="109"/>
+      <c r="C158" s="109"/>
     </row>
     <row r="159" spans="2:3">
-      <c r="B159" s="104"/>
-      <c r="C159" s="104"/>
+      <c r="B159" s="109"/>
+      <c r="C159" s="109"/>
     </row>
     <row r="160" spans="2:3">
-      <c r="B160" s="104"/>
-      <c r="C160" s="104"/>
+      <c r="B160" s="109"/>
+      <c r="C160" s="109"/>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="104"/>
-      <c r="C161" s="104"/>
+      <c r="B161" s="109"/>
+      <c r="C161" s="109"/>
     </row>
     <row r="162" spans="2:3">
-      <c r="B162" s="104"/>
-      <c r="C162" s="104"/>
+      <c r="B162" s="109"/>
+      <c r="C162" s="109"/>
     </row>
     <row r="163" spans="2:3">
-      <c r="B163" s="104"/>
-      <c r="C163" s="104"/>
+      <c r="B163" s="109"/>
+      <c r="C163" s="109"/>
     </row>
     <row r="164" spans="2:3">
-      <c r="B164" s="104"/>
-      <c r="C164" s="104"/>
+      <c r="B164" s="109"/>
+      <c r="C164" s="109"/>
     </row>
     <row r="165" spans="2:3">
-      <c r="B165" s="104"/>
-      <c r="C165" s="104"/>
+      <c r="B165" s="109"/>
+      <c r="C165" s="109"/>
     </row>
     <row r="166" spans="2:3">
-      <c r="B166" s="104"/>
-      <c r="C166" s="104"/>
+      <c r="B166" s="109"/>
+      <c r="C166" s="109"/>
     </row>
     <row r="167" spans="2:3">
-      <c r="B167" s="104"/>
-      <c r="C167" s="104"/>
+      <c r="B167" s="109"/>
+      <c r="C167" s="109"/>
     </row>
     <row r="168" spans="2:3">
-      <c r="B168" s="104"/>
-      <c r="C168" s="104"/>
+      <c r="B168" s="109"/>
+      <c r="C168" s="109"/>
     </row>
     <row r="169" spans="2:3">
-      <c r="B169" s="104"/>
-      <c r="C169" s="104"/>
+      <c r="B169" s="109"/>
+      <c r="C169" s="109"/>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="104"/>
-      <c r="C170" s="104"/>
+      <c r="B170" s="109"/>
+      <c r="C170" s="109"/>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="104"/>
-      <c r="C171" s="104"/>
+      <c r="B171" s="109"/>
+      <c r="C171" s="109"/>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="104"/>
-      <c r="C172" s="104"/>
+      <c r="B172" s="109"/>
+      <c r="C172" s="109"/>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="104"/>
-      <c r="C173" s="104"/>
+      <c r="B173" s="109"/>
+      <c r="C173" s="109"/>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="104"/>
-      <c r="C174" s="104"/>
+      <c r="B174" s="109"/>
+      <c r="C174" s="109"/>
     </row>
     <row r="175" spans="2:3">
-      <c r="B175" s="104"/>
-      <c r="C175" s="104"/>
+      <c r="B175" s="109"/>
+      <c r="C175" s="109"/>
     </row>
     <row r="176" spans="2:3">
-      <c r="B176" s="104"/>
-      <c r="C176" s="104"/>
+      <c r="B176" s="109"/>
+      <c r="C176" s="109"/>
     </row>
     <row r="177" spans="2:3">
-      <c r="B177" s="104"/>
-      <c r="C177" s="104"/>
+      <c r="B177" s="109"/>
+      <c r="C177" s="109"/>
     </row>
     <row r="178" spans="2:3">
-      <c r="B178" s="104"/>
-      <c r="C178" s="104"/>
+      <c r="B178" s="109"/>
+      <c r="C178" s="109"/>
     </row>
     <row r="179" spans="2:3">
-      <c r="B179" s="104"/>
-      <c r="C179" s="104"/>
+      <c r="B179" s="109"/>
+      <c r="C179" s="109"/>
     </row>
     <row r="180" spans="2:3">
-      <c r="B180" s="104"/>
-      <c r="C180" s="104"/>
+      <c r="B180" s="109"/>
+      <c r="C180" s="109"/>
     </row>
     <row r="181" spans="2:3">
-      <c r="B181" s="104"/>
-      <c r="C181" s="104"/>
+      <c r="B181" s="109"/>
+      <c r="C181" s="109"/>
     </row>
     <row r="182" spans="2:3">
-      <c r="B182" s="104"/>
-      <c r="C182" s="104"/>
+      <c r="B182" s="109"/>
+      <c r="C182" s="109"/>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="104"/>
-      <c r="C183" s="104"/>
+      <c r="B183" s="109"/>
+      <c r="C183" s="109"/>
     </row>
     <row r="184" spans="2:3">
-      <c r="B184" s="104"/>
-      <c r="C184" s="104"/>
+      <c r="B184" s="109"/>
+      <c r="C184" s="109"/>
     </row>
     <row r="185" spans="2:3">
-      <c r="B185" s="104"/>
-      <c r="C185" s="104"/>
+      <c r="B185" s="109"/>
+      <c r="C185" s="109"/>
     </row>
     <row r="186" spans="2:3">
-      <c r="B186" s="104"/>
-      <c r="C186" s="104"/>
+      <c r="B186" s="109"/>
+      <c r="C186" s="109"/>
     </row>
     <row r="187" spans="2:3">
-      <c r="B187" s="104"/>
-      <c r="C187" s="104"/>
+      <c r="B187" s="109"/>
+      <c r="C187" s="109"/>
     </row>
     <row r="188" spans="2:3">
-      <c r="B188" s="104"/>
-      <c r="C188" s="104"/>
+      <c r="B188" s="109"/>
+      <c r="C188" s="109"/>
     </row>
     <row r="189" spans="2:3">
-      <c r="B189" s="104"/>
-      <c r="C189" s="104"/>
+      <c r="B189" s="109"/>
+      <c r="C189" s="109"/>
     </row>
     <row r="190" spans="2:3">
-      <c r="B190" s="104"/>
-      <c r="C190" s="104"/>
+      <c r="B190" s="109"/>
+      <c r="C190" s="109"/>
     </row>
     <row r="191" spans="2:3">
-      <c r="B191" s="104"/>
-      <c r="C191" s="104"/>
+      <c r="B191" s="109"/>
+      <c r="C191" s="109"/>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="104"/>
-      <c r="C192" s="104"/>
+      <c r="B192" s="109"/>
+      <c r="C192" s="109"/>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="104"/>
-      <c r="C193" s="104"/>
+      <c r="B193" s="109"/>
+      <c r="C193" s="109"/>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="104"/>
-      <c r="C194" s="104"/>
+      <c r="B194" s="109"/>
+      <c r="C194" s="109"/>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="104"/>
-      <c r="C195" s="104"/>
+      <c r="B195" s="109"/>
+      <c r="C195" s="109"/>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="104"/>
-      <c r="C196" s="104"/>
+      <c r="B196" s="109"/>
+      <c r="C196" s="109"/>
     </row>
     <row r="197" spans="2:3">
-      <c r="B197" s="104"/>
-      <c r="C197" s="104"/>
+      <c r="B197" s="109"/>
+      <c r="C197" s="109"/>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="104"/>
-      <c r="C198" s="104"/>
+      <c r="B198" s="109"/>
+      <c r="C198" s="109"/>
     </row>
     <row r="199" spans="2:3">
-      <c r="B199" s="104"/>
-      <c r="C199" s="104"/>
+      <c r="B199" s="109"/>
+      <c r="C199" s="109"/>
     </row>
     <row r="200" spans="2:3">
-      <c r="B200" s="104"/>
-      <c r="C200" s="104"/>
+      <c r="B200" s="109"/>
+      <c r="C200" s="109"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BGMC4AvE4h2RkU/1Z5L8lM7Gkpf36wZEkOS2bf/fXkY2c7V3IutWw8MDvR0OArH+R4XtzT0vdjd1Z/OKd7bSVA==" saltValue="CtSfpvPuBPmw1hG9ryqZXw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -10209,734 +10277,734 @@
       <c r="A19" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="107" t="s">
         <v>183</v>
       </c>
-      <c r="C19" s="103"/>
+      <c r="C19" s="108"/>
     </row>
     <row r="20" spans="1:3" ht="14.1" customHeight="1">
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
     </row>
     <row r="21" spans="1:3" ht="12.95" customHeight="1">
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
     </row>
     <row r="22" spans="1:3" ht="12.95" customHeight="1">
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
     </row>
     <row r="23" spans="1:3" ht="12.95" customHeight="1">
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
     </row>
     <row r="24" spans="1:3" ht="11.1" customHeight="1">
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="B32" s="107"/>
-      <c r="C32" s="107"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="107"/>
-      <c r="C35" s="107"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="112"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="112"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="107"/>
-      <c r="C38" s="107"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="112"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="112"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="107"/>
-      <c r="C44" s="107"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="107"/>
-      <c r="C45" s="107"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="112"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="107"/>
-      <c r="C47" s="107"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="112"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="107"/>
-      <c r="C48" s="107"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="112"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="107"/>
-      <c r="C49" s="107"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="112"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="112"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="107"/>
-      <c r="C51" s="107"/>
+      <c r="B51" s="112"/>
+      <c r="C51" s="112"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="107"/>
-      <c r="C52" s="107"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="112"/>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="107"/>
-      <c r="C53" s="107"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="112"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="107"/>
-      <c r="C54" s="107"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="112"/>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="107"/>
-      <c r="C55" s="107"/>
+      <c r="B55" s="112"/>
+      <c r="C55" s="112"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="107"/>
-      <c r="C56" s="107"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="112"/>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="107"/>
-      <c r="C57" s="107"/>
+      <c r="B57" s="112"/>
+      <c r="C57" s="112"/>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="107"/>
-      <c r="C58" s="107"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="112"/>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="107"/>
-      <c r="C59" s="107"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="112"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="107"/>
-      <c r="C60" s="107"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="112"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="107"/>
-      <c r="C61" s="107"/>
+      <c r="B61" s="112"/>
+      <c r="C61" s="112"/>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="107"/>
-      <c r="C62" s="107"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="112"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="107"/>
-      <c r="C63" s="107"/>
+      <c r="B63" s="112"/>
+      <c r="C63" s="112"/>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="107"/>
-      <c r="C64" s="107"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="112"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="107"/>
-      <c r="C65" s="107"/>
+      <c r="B65" s="112"/>
+      <c r="C65" s="112"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="107"/>
-      <c r="C66" s="107"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="112"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="107"/>
-      <c r="C67" s="107"/>
+      <c r="B67" s="112"/>
+      <c r="C67" s="112"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="107"/>
-      <c r="C68" s="107"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="112"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="107"/>
-      <c r="C69" s="107"/>
+      <c r="B69" s="112"/>
+      <c r="C69" s="112"/>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="107"/>
-      <c r="C70" s="107"/>
+      <c r="B70" s="112"/>
+      <c r="C70" s="112"/>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="107"/>
-      <c r="C71" s="107"/>
+      <c r="B71" s="112"/>
+      <c r="C71" s="112"/>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="107"/>
-      <c r="C72" s="107"/>
+      <c r="B72" s="112"/>
+      <c r="C72" s="112"/>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="107"/>
-      <c r="C73" s="107"/>
+      <c r="B73" s="112"/>
+      <c r="C73" s="112"/>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="107"/>
-      <c r="C74" s="107"/>
+      <c r="B74" s="112"/>
+      <c r="C74" s="112"/>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="107"/>
-      <c r="C75" s="107"/>
+      <c r="B75" s="112"/>
+      <c r="C75" s="112"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="107"/>
-      <c r="C76" s="107"/>
+      <c r="B76" s="112"/>
+      <c r="C76" s="112"/>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="107"/>
-      <c r="C77" s="107"/>
+      <c r="B77" s="112"/>
+      <c r="C77" s="112"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="107"/>
-      <c r="C78" s="107"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="112"/>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="107"/>
-      <c r="C79" s="107"/>
+      <c r="B79" s="112"/>
+      <c r="C79" s="112"/>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="107"/>
-      <c r="C80" s="107"/>
+      <c r="B80" s="112"/>
+      <c r="C80" s="112"/>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="107"/>
-      <c r="C81" s="107"/>
+      <c r="B81" s="112"/>
+      <c r="C81" s="112"/>
     </row>
     <row r="82" spans="2:3">
-      <c r="B82" s="107"/>
-      <c r="C82" s="107"/>
+      <c r="B82" s="112"/>
+      <c r="C82" s="112"/>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="107"/>
-      <c r="C83" s="107"/>
+      <c r="B83" s="112"/>
+      <c r="C83" s="112"/>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="107"/>
-      <c r="C84" s="107"/>
+      <c r="B84" s="112"/>
+      <c r="C84" s="112"/>
     </row>
     <row r="85" spans="2:3">
-      <c r="B85" s="107"/>
-      <c r="C85" s="107"/>
+      <c r="B85" s="112"/>
+      <c r="C85" s="112"/>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="107"/>
-      <c r="C86" s="107"/>
+      <c r="B86" s="112"/>
+      <c r="C86" s="112"/>
     </row>
     <row r="87" spans="2:3">
-      <c r="B87" s="107"/>
-      <c r="C87" s="107"/>
+      <c r="B87" s="112"/>
+      <c r="C87" s="112"/>
     </row>
     <row r="88" spans="2:3">
-      <c r="B88" s="107"/>
-      <c r="C88" s="107"/>
+      <c r="B88" s="112"/>
+      <c r="C88" s="112"/>
     </row>
     <row r="89" spans="2:3">
-      <c r="B89" s="107"/>
-      <c r="C89" s="107"/>
+      <c r="B89" s="112"/>
+      <c r="C89" s="112"/>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="107"/>
-      <c r="C90" s="107"/>
+      <c r="B90" s="112"/>
+      <c r="C90" s="112"/>
     </row>
     <row r="91" spans="2:3">
-      <c r="B91" s="107"/>
-      <c r="C91" s="107"/>
+      <c r="B91" s="112"/>
+      <c r="C91" s="112"/>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="107"/>
-      <c r="C92" s="107"/>
+      <c r="B92" s="112"/>
+      <c r="C92" s="112"/>
     </row>
     <row r="93" spans="2:3">
-      <c r="B93" s="107"/>
-      <c r="C93" s="107"/>
+      <c r="B93" s="112"/>
+      <c r="C93" s="112"/>
     </row>
     <row r="94" spans="2:3">
-      <c r="B94" s="107"/>
-      <c r="C94" s="107"/>
+      <c r="B94" s="112"/>
+      <c r="C94" s="112"/>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="107"/>
-      <c r="C95" s="107"/>
+      <c r="B95" s="112"/>
+      <c r="C95" s="112"/>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" s="107"/>
-      <c r="C96" s="107"/>
+      <c r="B96" s="112"/>
+      <c r="C96" s="112"/>
     </row>
     <row r="97" spans="2:3">
-      <c r="B97" s="107"/>
-      <c r="C97" s="107"/>
+      <c r="B97" s="112"/>
+      <c r="C97" s="112"/>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="107"/>
-      <c r="C98" s="107"/>
+      <c r="B98" s="112"/>
+      <c r="C98" s="112"/>
     </row>
     <row r="99" spans="2:3">
-      <c r="B99" s="107"/>
-      <c r="C99" s="107"/>
+      <c r="B99" s="112"/>
+      <c r="C99" s="112"/>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="107"/>
-      <c r="C100" s="107"/>
+      <c r="B100" s="112"/>
+      <c r="C100" s="112"/>
     </row>
     <row r="101" spans="2:3">
-      <c r="B101" s="107"/>
-      <c r="C101" s="107"/>
+      <c r="B101" s="112"/>
+      <c r="C101" s="112"/>
     </row>
     <row r="102" spans="2:3">
-      <c r="B102" s="107"/>
-      <c r="C102" s="107"/>
+      <c r="B102" s="112"/>
+      <c r="C102" s="112"/>
     </row>
     <row r="103" spans="2:3">
-      <c r="B103" s="107"/>
-      <c r="C103" s="107"/>
+      <c r="B103" s="112"/>
+      <c r="C103" s="112"/>
     </row>
     <row r="104" spans="2:3">
-      <c r="B104" s="107"/>
-      <c r="C104" s="107"/>
+      <c r="B104" s="112"/>
+      <c r="C104" s="112"/>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="107"/>
-      <c r="C105" s="107"/>
+      <c r="B105" s="112"/>
+      <c r="C105" s="112"/>
     </row>
     <row r="106" spans="2:3">
-      <c r="B106" s="107"/>
-      <c r="C106" s="107"/>
+      <c r="B106" s="112"/>
+      <c r="C106" s="112"/>
     </row>
     <row r="107" spans="2:3">
-      <c r="B107" s="107"/>
-      <c r="C107" s="107"/>
+      <c r="B107" s="112"/>
+      <c r="C107" s="112"/>
     </row>
     <row r="108" spans="2:3">
-      <c r="B108" s="107"/>
-      <c r="C108" s="107"/>
+      <c r="B108" s="112"/>
+      <c r="C108" s="112"/>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="107"/>
-      <c r="C109" s="107"/>
+      <c r="B109" s="112"/>
+      <c r="C109" s="112"/>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="107"/>
-      <c r="C110" s="107"/>
+      <c r="B110" s="112"/>
+      <c r="C110" s="112"/>
     </row>
     <row r="111" spans="2:3">
-      <c r="B111" s="107"/>
-      <c r="C111" s="107"/>
+      <c r="B111" s="112"/>
+      <c r="C111" s="112"/>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="107"/>
-      <c r="C112" s="107"/>
+      <c r="B112" s="112"/>
+      <c r="C112" s="112"/>
     </row>
     <row r="113" spans="2:3">
-      <c r="B113" s="107"/>
-      <c r="C113" s="107"/>
+      <c r="B113" s="112"/>
+      <c r="C113" s="112"/>
     </row>
     <row r="114" spans="2:3">
-      <c r="B114" s="107"/>
-      <c r="C114" s="107"/>
+      <c r="B114" s="112"/>
+      <c r="C114" s="112"/>
     </row>
     <row r="115" spans="2:3">
-      <c r="B115" s="107"/>
-      <c r="C115" s="107"/>
+      <c r="B115" s="112"/>
+      <c r="C115" s="112"/>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="107"/>
-      <c r="C116" s="107"/>
+      <c r="B116" s="112"/>
+      <c r="C116" s="112"/>
     </row>
     <row r="117" spans="2:3">
-      <c r="B117" s="107"/>
-      <c r="C117" s="107"/>
+      <c r="B117" s="112"/>
+      <c r="C117" s="112"/>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="107"/>
-      <c r="C118" s="107"/>
+      <c r="B118" s="112"/>
+      <c r="C118" s="112"/>
     </row>
     <row r="119" spans="2:3">
-      <c r="B119" s="107"/>
-      <c r="C119" s="107"/>
+      <c r="B119" s="112"/>
+      <c r="C119" s="112"/>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="107"/>
-      <c r="C120" s="107"/>
+      <c r="B120" s="112"/>
+      <c r="C120" s="112"/>
     </row>
     <row r="121" spans="2:3">
-      <c r="B121" s="107"/>
-      <c r="C121" s="107"/>
+      <c r="B121" s="112"/>
+      <c r="C121" s="112"/>
     </row>
     <row r="122" spans="2:3">
-      <c r="B122" s="107"/>
-      <c r="C122" s="107"/>
+      <c r="B122" s="112"/>
+      <c r="C122" s="112"/>
     </row>
     <row r="123" spans="2:3">
-      <c r="B123" s="107"/>
-      <c r="C123" s="107"/>
+      <c r="B123" s="112"/>
+      <c r="C123" s="112"/>
     </row>
     <row r="124" spans="2:3">
-      <c r="B124" s="107"/>
-      <c r="C124" s="107"/>
+      <c r="B124" s="112"/>
+      <c r="C124" s="112"/>
     </row>
     <row r="125" spans="2:3">
-      <c r="B125" s="107"/>
-      <c r="C125" s="107"/>
+      <c r="B125" s="112"/>
+      <c r="C125" s="112"/>
     </row>
     <row r="126" spans="2:3">
-      <c r="B126" s="107"/>
-      <c r="C126" s="107"/>
+      <c r="B126" s="112"/>
+      <c r="C126" s="112"/>
     </row>
     <row r="127" spans="2:3">
-      <c r="B127" s="107"/>
-      <c r="C127" s="107"/>
+      <c r="B127" s="112"/>
+      <c r="C127" s="112"/>
     </row>
     <row r="128" spans="2:3">
-      <c r="B128" s="107"/>
-      <c r="C128" s="107"/>
+      <c r="B128" s="112"/>
+      <c r="C128" s="112"/>
     </row>
     <row r="129" spans="2:3">
-      <c r="B129" s="107"/>
-      <c r="C129" s="107"/>
+      <c r="B129" s="112"/>
+      <c r="C129" s="112"/>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="107"/>
-      <c r="C130" s="107"/>
+      <c r="B130" s="112"/>
+      <c r="C130" s="112"/>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="107"/>
-      <c r="C131" s="107"/>
+      <c r="B131" s="112"/>
+      <c r="C131" s="112"/>
     </row>
     <row r="132" spans="2:3">
-      <c r="B132" s="107"/>
-      <c r="C132" s="107"/>
+      <c r="B132" s="112"/>
+      <c r="C132" s="112"/>
     </row>
     <row r="133" spans="2:3">
-      <c r="B133" s="107"/>
-      <c r="C133" s="107"/>
+      <c r="B133" s="112"/>
+      <c r="C133" s="112"/>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="107"/>
-      <c r="C134" s="107"/>
+      <c r="B134" s="112"/>
+      <c r="C134" s="112"/>
     </row>
     <row r="135" spans="2:3">
-      <c r="B135" s="107"/>
-      <c r="C135" s="107"/>
+      <c r="B135" s="112"/>
+      <c r="C135" s="112"/>
     </row>
     <row r="136" spans="2:3">
-      <c r="B136" s="107"/>
-      <c r="C136" s="107"/>
+      <c r="B136" s="112"/>
+      <c r="C136" s="112"/>
     </row>
     <row r="137" spans="2:3">
-      <c r="B137" s="107"/>
-      <c r="C137" s="107"/>
+      <c r="B137" s="112"/>
+      <c r="C137" s="112"/>
     </row>
     <row r="138" spans="2:3">
-      <c r="B138" s="107"/>
-      <c r="C138" s="107"/>
+      <c r="B138" s="112"/>
+      <c r="C138" s="112"/>
     </row>
     <row r="139" spans="2:3">
-      <c r="B139" s="107"/>
-      <c r="C139" s="107"/>
+      <c r="B139" s="112"/>
+      <c r="C139" s="112"/>
     </row>
     <row r="140" spans="2:3">
-      <c r="B140" s="107"/>
-      <c r="C140" s="107"/>
+      <c r="B140" s="112"/>
+      <c r="C140" s="112"/>
     </row>
     <row r="141" spans="2:3">
-      <c r="B141" s="107"/>
-      <c r="C141" s="107"/>
+      <c r="B141" s="112"/>
+      <c r="C141" s="112"/>
     </row>
     <row r="142" spans="2:3">
-      <c r="B142" s="107"/>
-      <c r="C142" s="107"/>
+      <c r="B142" s="112"/>
+      <c r="C142" s="112"/>
     </row>
     <row r="143" spans="2:3">
-      <c r="B143" s="107"/>
-      <c r="C143" s="107"/>
+      <c r="B143" s="112"/>
+      <c r="C143" s="112"/>
     </row>
     <row r="144" spans="2:3">
-      <c r="B144" s="107"/>
-      <c r="C144" s="107"/>
+      <c r="B144" s="112"/>
+      <c r="C144" s="112"/>
     </row>
     <row r="145" spans="2:3">
-      <c r="B145" s="107"/>
-      <c r="C145" s="107"/>
+      <c r="B145" s="112"/>
+      <c r="C145" s="112"/>
     </row>
     <row r="146" spans="2:3">
-      <c r="B146" s="107"/>
-      <c r="C146" s="107"/>
+      <c r="B146" s="112"/>
+      <c r="C146" s="112"/>
     </row>
     <row r="147" spans="2:3">
-      <c r="B147" s="107"/>
-      <c r="C147" s="107"/>
+      <c r="B147" s="112"/>
+      <c r="C147" s="112"/>
     </row>
     <row r="148" spans="2:3">
-      <c r="B148" s="107"/>
-      <c r="C148" s="107"/>
+      <c r="B148" s="112"/>
+      <c r="C148" s="112"/>
     </row>
     <row r="149" spans="2:3">
-      <c r="B149" s="107"/>
-      <c r="C149" s="107"/>
+      <c r="B149" s="112"/>
+      <c r="C149" s="112"/>
     </row>
     <row r="150" spans="2:3">
-      <c r="B150" s="107"/>
-      <c r="C150" s="107"/>
+      <c r="B150" s="112"/>
+      <c r="C150" s="112"/>
     </row>
     <row r="151" spans="2:3">
-      <c r="B151" s="107"/>
-      <c r="C151" s="107"/>
+      <c r="B151" s="112"/>
+      <c r="C151" s="112"/>
     </row>
     <row r="152" spans="2:3">
-      <c r="B152" s="107"/>
-      <c r="C152" s="107"/>
+      <c r="B152" s="112"/>
+      <c r="C152" s="112"/>
     </row>
     <row r="153" spans="2:3">
-      <c r="B153" s="107"/>
-      <c r="C153" s="107"/>
+      <c r="B153" s="112"/>
+      <c r="C153" s="112"/>
     </row>
     <row r="154" spans="2:3">
-      <c r="B154" s="107"/>
-      <c r="C154" s="107"/>
+      <c r="B154" s="112"/>
+      <c r="C154" s="112"/>
     </row>
     <row r="155" spans="2:3">
-      <c r="B155" s="107"/>
-      <c r="C155" s="107"/>
+      <c r="B155" s="112"/>
+      <c r="C155" s="112"/>
     </row>
     <row r="156" spans="2:3">
-      <c r="B156" s="107"/>
-      <c r="C156" s="107"/>
+      <c r="B156" s="112"/>
+      <c r="C156" s="112"/>
     </row>
     <row r="157" spans="2:3">
-      <c r="B157" s="107"/>
-      <c r="C157" s="107"/>
+      <c r="B157" s="112"/>
+      <c r="C157" s="112"/>
     </row>
     <row r="158" spans="2:3">
-      <c r="B158" s="107"/>
-      <c r="C158" s="107"/>
+      <c r="B158" s="112"/>
+      <c r="C158" s="112"/>
     </row>
     <row r="159" spans="2:3">
-      <c r="B159" s="107"/>
-      <c r="C159" s="107"/>
+      <c r="B159" s="112"/>
+      <c r="C159" s="112"/>
     </row>
     <row r="160" spans="2:3">
-      <c r="B160" s="107"/>
-      <c r="C160" s="107"/>
+      <c r="B160" s="112"/>
+      <c r="C160" s="112"/>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="107"/>
-      <c r="C161" s="107"/>
+      <c r="B161" s="112"/>
+      <c r="C161" s="112"/>
     </row>
     <row r="162" spans="2:3">
-      <c r="B162" s="107"/>
-      <c r="C162" s="107"/>
+      <c r="B162" s="112"/>
+      <c r="C162" s="112"/>
     </row>
     <row r="163" spans="2:3">
-      <c r="B163" s="107"/>
-      <c r="C163" s="107"/>
+      <c r="B163" s="112"/>
+      <c r="C163" s="112"/>
     </row>
     <row r="164" spans="2:3">
-      <c r="B164" s="107"/>
-      <c r="C164" s="107"/>
+      <c r="B164" s="112"/>
+      <c r="C164" s="112"/>
     </row>
     <row r="165" spans="2:3">
-      <c r="B165" s="107"/>
-      <c r="C165" s="107"/>
+      <c r="B165" s="112"/>
+      <c r="C165" s="112"/>
     </row>
     <row r="166" spans="2:3">
-      <c r="B166" s="107"/>
-      <c r="C166" s="107"/>
+      <c r="B166" s="112"/>
+      <c r="C166" s="112"/>
     </row>
     <row r="167" spans="2:3">
-      <c r="B167" s="107"/>
-      <c r="C167" s="107"/>
+      <c r="B167" s="112"/>
+      <c r="C167" s="112"/>
     </row>
     <row r="168" spans="2:3">
-      <c r="B168" s="107"/>
-      <c r="C168" s="107"/>
+      <c r="B168" s="112"/>
+      <c r="C168" s="112"/>
     </row>
     <row r="169" spans="2:3">
-      <c r="B169" s="107"/>
-      <c r="C169" s="107"/>
+      <c r="B169" s="112"/>
+      <c r="C169" s="112"/>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="107"/>
-      <c r="C170" s="107"/>
+      <c r="B170" s="112"/>
+      <c r="C170" s="112"/>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="107"/>
-      <c r="C171" s="107"/>
+      <c r="B171" s="112"/>
+      <c r="C171" s="112"/>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="107"/>
-      <c r="C172" s="107"/>
+      <c r="B172" s="112"/>
+      <c r="C172" s="112"/>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="107"/>
-      <c r="C173" s="107"/>
+      <c r="B173" s="112"/>
+      <c r="C173" s="112"/>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="107"/>
-      <c r="C174" s="107"/>
+      <c r="B174" s="112"/>
+      <c r="C174" s="112"/>
     </row>
     <row r="175" spans="2:3">
-      <c r="B175" s="107"/>
-      <c r="C175" s="107"/>
+      <c r="B175" s="112"/>
+      <c r="C175" s="112"/>
     </row>
     <row r="176" spans="2:3">
-      <c r="B176" s="107"/>
-      <c r="C176" s="107"/>
+      <c r="B176" s="112"/>
+      <c r="C176" s="112"/>
     </row>
     <row r="177" spans="2:3">
-      <c r="B177" s="107"/>
-      <c r="C177" s="107"/>
+      <c r="B177" s="112"/>
+      <c r="C177" s="112"/>
     </row>
     <row r="178" spans="2:3">
-      <c r="B178" s="107"/>
-      <c r="C178" s="107"/>
+      <c r="B178" s="112"/>
+      <c r="C178" s="112"/>
     </row>
     <row r="179" spans="2:3">
-      <c r="B179" s="107"/>
-      <c r="C179" s="107"/>
+      <c r="B179" s="112"/>
+      <c r="C179" s="112"/>
     </row>
     <row r="180" spans="2:3">
-      <c r="B180" s="107"/>
-      <c r="C180" s="107"/>
+      <c r="B180" s="112"/>
+      <c r="C180" s="112"/>
     </row>
     <row r="181" spans="2:3">
-      <c r="B181" s="107"/>
-      <c r="C181" s="107"/>
+      <c r="B181" s="112"/>
+      <c r="C181" s="112"/>
     </row>
     <row r="182" spans="2:3">
-      <c r="B182" s="107"/>
-      <c r="C182" s="107"/>
+      <c r="B182" s="112"/>
+      <c r="C182" s="112"/>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="107"/>
-      <c r="C183" s="107"/>
+      <c r="B183" s="112"/>
+      <c r="C183" s="112"/>
     </row>
     <row r="184" spans="2:3">
-      <c r="B184" s="107"/>
-      <c r="C184" s="107"/>
+      <c r="B184" s="112"/>
+      <c r="C184" s="112"/>
     </row>
     <row r="185" spans="2:3">
-      <c r="B185" s="107"/>
-      <c r="C185" s="107"/>
+      <c r="B185" s="112"/>
+      <c r="C185" s="112"/>
     </row>
     <row r="186" spans="2:3">
-      <c r="B186" s="107"/>
-      <c r="C186" s="107"/>
+      <c r="B186" s="112"/>
+      <c r="C186" s="112"/>
     </row>
     <row r="187" spans="2:3">
-      <c r="B187" s="107"/>
-      <c r="C187" s="107"/>
+      <c r="B187" s="112"/>
+      <c r="C187" s="112"/>
     </row>
     <row r="188" spans="2:3">
-      <c r="B188" s="107"/>
-      <c r="C188" s="107"/>
+      <c r="B188" s="112"/>
+      <c r="C188" s="112"/>
     </row>
     <row r="189" spans="2:3">
-      <c r="B189" s="107"/>
-      <c r="C189" s="107"/>
+      <c r="B189" s="112"/>
+      <c r="C189" s="112"/>
     </row>
     <row r="190" spans="2:3">
-      <c r="B190" s="107"/>
-      <c r="C190" s="107"/>
+      <c r="B190" s="112"/>
+      <c r="C190" s="112"/>
     </row>
     <row r="191" spans="2:3">
-      <c r="B191" s="107"/>
-      <c r="C191" s="107"/>
+      <c r="B191" s="112"/>
+      <c r="C191" s="112"/>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="107"/>
-      <c r="C192" s="107"/>
+      <c r="B192" s="112"/>
+      <c r="C192" s="112"/>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="107"/>
-      <c r="C193" s="107"/>
+      <c r="B193" s="112"/>
+      <c r="C193" s="112"/>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="107"/>
-      <c r="C194" s="107"/>
+      <c r="B194" s="112"/>
+      <c r="C194" s="112"/>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="107"/>
-      <c r="C195" s="107"/>
+      <c r="B195" s="112"/>
+      <c r="C195" s="112"/>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="107"/>
-      <c r="C196" s="107"/>
+      <c r="B196" s="112"/>
+      <c r="C196" s="112"/>
     </row>
     <row r="197" spans="2:3">
-      <c r="B197" s="107"/>
-      <c r="C197" s="107"/>
+      <c r="B197" s="112"/>
+      <c r="C197" s="112"/>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="107"/>
-      <c r="C198" s="107"/>
+      <c r="B198" s="112"/>
+      <c r="C198" s="112"/>
     </row>
     <row r="199" spans="2:3">
-      <c r="B199" s="107"/>
-      <c r="C199" s="107"/>
+      <c r="B199" s="112"/>
+      <c r="C199" s="112"/>
     </row>
     <row r="200" spans="2:3">
-      <c r="B200" s="107"/>
-      <c r="C200" s="107"/>
+      <c r="B200" s="112"/>
+      <c r="C200" s="112"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="atHJ4ImTqolJZr6RfLcsnKex9kAFfIpiyfyhOlDfWG3VuuTdwqqSjGULINt/FUAnR+f26FgFkcxXwG7zDTK+Jw==" saltValue="eoiXVYQkYU3pR4VfojM9Iw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/data/GIS KPIs.xlsx
+++ b/data/GIS KPIs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GlycoNet\Dropbox\13-CFI-MSI 2023-2029\7-Reporting\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GlycoNet\Dropbox\13-CFI-MSI 2023-2029\7-Reporting\Templates\KPIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="44805" windowHeight="22980" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="44805" windowHeight="22980" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fields" sheetId="3" state="hidden" r:id="rId1"/>
@@ -1297,16 +1297,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1326,6 +1326,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1334,18 +1337,9 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1354,6 +1348,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2334,11 +2334,11 @@
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9" ht="15">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="115" t="s">
         <v>184</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="114"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="116"/>
       <c r="D15" s="30"/>
       <c r="E15" s="107" t="s">
         <v>185</v>
@@ -2346,7 +2346,7 @@
       <c r="F15" s="108"/>
       <c r="G15" s="108"/>
       <c r="H15" s="108"/>
-      <c r="I15" s="111"/>
+      <c r="I15" s="109"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="84" t="s">
@@ -2355,7 +2355,7 @@
       <c r="B16" s="108" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="111"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="36"/>
       <c r="E16" s="82" t="s">
         <v>118</v>
@@ -2374,8 +2374,8 @@
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="115"/>
-      <c r="C17" s="116"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="114"/>
       <c r="E17" s="98"/>
       <c r="F17" s="52"/>
       <c r="G17" s="96"/>
@@ -2383,884 +2383,767 @@
       <c r="I17" s="99"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="115"/>
-      <c r="C18" s="116"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="114"/>
       <c r="F18" s="52"/>
       <c r="G18" s="97"/>
       <c r="H18" s="54"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="115"/>
-      <c r="C19" s="116"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="114"/>
       <c r="F19" s="86"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="115"/>
-      <c r="C20" s="116"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="114"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="115"/>
-      <c r="C21" s="116"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="114"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="115"/>
-      <c r="C22" s="116"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="114"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="115"/>
-      <c r="C23" s="116"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="114"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="115"/>
-      <c r="C24" s="116"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="114"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="115"/>
-      <c r="C25" s="116"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="114"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="115"/>
-      <c r="C26" s="116"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="114"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="115"/>
-      <c r="C27" s="116"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="114"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="115"/>
-      <c r="C28" s="116"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="114"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="115"/>
-      <c r="C29" s="116"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="114"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="115"/>
-      <c r="C30" s="116"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="114"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="115"/>
-      <c r="C31" s="116"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="114"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="115"/>
-      <c r="C32" s="116"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="114"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="115"/>
-      <c r="C33" s="116"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="114"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="115"/>
-      <c r="C34" s="116"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="114"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="115"/>
-      <c r="C35" s="116"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="114"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="115"/>
-      <c r="C36" s="116"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="114"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="115"/>
-      <c r="C37" s="116"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="114"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="115"/>
-      <c r="C38" s="116"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="114"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="115"/>
-      <c r="C39" s="116"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="114"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="115"/>
-      <c r="C40" s="116"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="114"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="115"/>
-      <c r="C41" s="116"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="114"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="115"/>
-      <c r="C42" s="116"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="114"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="115"/>
-      <c r="C43" s="116"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="114"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="115"/>
-      <c r="C44" s="116"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="114"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="115"/>
-      <c r="C45" s="116"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="114"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="115"/>
-      <c r="C46" s="116"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="115"/>
-      <c r="C47" s="116"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="115"/>
-      <c r="C48" s="116"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="114"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="115"/>
-      <c r="C49" s="116"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="115"/>
-      <c r="C50" s="116"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="114"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="115"/>
-      <c r="C51" s="116"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="114"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="115"/>
-      <c r="C52" s="116"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="114"/>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="115"/>
-      <c r="C53" s="116"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="114"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="115"/>
-      <c r="C54" s="116"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="114"/>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="115"/>
-      <c r="C55" s="116"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="114"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="115"/>
-      <c r="C56" s="116"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="114"/>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="115"/>
-      <c r="C57" s="116"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="114"/>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="115"/>
-      <c r="C58" s="116"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="114"/>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="115"/>
-      <c r="C59" s="116"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="114"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="115"/>
-      <c r="C60" s="116"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="114"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="115"/>
-      <c r="C61" s="116"/>
+      <c r="B61" s="113"/>
+      <c r="C61" s="114"/>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="115"/>
-      <c r="C62" s="116"/>
+      <c r="B62" s="113"/>
+      <c r="C62" s="114"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="115"/>
-      <c r="C63" s="116"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="114"/>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="115"/>
-      <c r="C64" s="116"/>
+      <c r="B64" s="113"/>
+      <c r="C64" s="114"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="115"/>
-      <c r="C65" s="116"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="114"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="115"/>
-      <c r="C66" s="116"/>
+      <c r="B66" s="113"/>
+      <c r="C66" s="114"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="115"/>
-      <c r="C67" s="116"/>
+      <c r="B67" s="113"/>
+      <c r="C67" s="114"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="115"/>
-      <c r="C68" s="116"/>
+      <c r="B68" s="113"/>
+      <c r="C68" s="114"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="115"/>
-      <c r="C69" s="116"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="114"/>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="115"/>
-      <c r="C70" s="116"/>
+      <c r="B70" s="113"/>
+      <c r="C70" s="114"/>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="115"/>
-      <c r="C71" s="116"/>
+      <c r="B71" s="113"/>
+      <c r="C71" s="114"/>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="115"/>
-      <c r="C72" s="116"/>
+      <c r="B72" s="113"/>
+      <c r="C72" s="114"/>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="115"/>
-      <c r="C73" s="116"/>
+      <c r="B73" s="113"/>
+      <c r="C73" s="114"/>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="115"/>
-      <c r="C74" s="116"/>
+      <c r="B74" s="113"/>
+      <c r="C74" s="114"/>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="115"/>
-      <c r="C75" s="116"/>
+      <c r="B75" s="113"/>
+      <c r="C75" s="114"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="115"/>
-      <c r="C76" s="116"/>
+      <c r="B76" s="113"/>
+      <c r="C76" s="114"/>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="115"/>
-      <c r="C77" s="116"/>
+      <c r="B77" s="113"/>
+      <c r="C77" s="114"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="115"/>
-      <c r="C78" s="116"/>
+      <c r="B78" s="113"/>
+      <c r="C78" s="114"/>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="115"/>
-      <c r="C79" s="116"/>
+      <c r="B79" s="113"/>
+      <c r="C79" s="114"/>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="115"/>
-      <c r="C80" s="116"/>
+      <c r="B80" s="113"/>
+      <c r="C80" s="114"/>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="115"/>
-      <c r="C81" s="116"/>
+      <c r="B81" s="113"/>
+      <c r="C81" s="114"/>
     </row>
     <row r="82" spans="2:3">
-      <c r="B82" s="115"/>
-      <c r="C82" s="116"/>
+      <c r="B82" s="113"/>
+      <c r="C82" s="114"/>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="115"/>
-      <c r="C83" s="116"/>
+      <c r="B83" s="113"/>
+      <c r="C83" s="114"/>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="115"/>
-      <c r="C84" s="116"/>
+      <c r="B84" s="113"/>
+      <c r="C84" s="114"/>
     </row>
     <row r="85" spans="2:3">
-      <c r="B85" s="115"/>
-      <c r="C85" s="116"/>
+      <c r="B85" s="113"/>
+      <c r="C85" s="114"/>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="115"/>
-      <c r="C86" s="116"/>
+      <c r="B86" s="113"/>
+      <c r="C86" s="114"/>
     </row>
     <row r="87" spans="2:3">
-      <c r="B87" s="115"/>
-      <c r="C87" s="116"/>
+      <c r="B87" s="113"/>
+      <c r="C87" s="114"/>
     </row>
     <row r="88" spans="2:3">
-      <c r="B88" s="115"/>
-      <c r="C88" s="116"/>
+      <c r="B88" s="113"/>
+      <c r="C88" s="114"/>
     </row>
     <row r="89" spans="2:3">
-      <c r="B89" s="115"/>
-      <c r="C89" s="116"/>
+      <c r="B89" s="113"/>
+      <c r="C89" s="114"/>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="115"/>
-      <c r="C90" s="116"/>
+      <c r="B90" s="113"/>
+      <c r="C90" s="114"/>
     </row>
     <row r="91" spans="2:3">
-      <c r="B91" s="115"/>
-      <c r="C91" s="116"/>
+      <c r="B91" s="113"/>
+      <c r="C91" s="114"/>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="115"/>
-      <c r="C92" s="116"/>
+      <c r="B92" s="113"/>
+      <c r="C92" s="114"/>
     </row>
     <row r="93" spans="2:3">
-      <c r="B93" s="115"/>
-      <c r="C93" s="116"/>
+      <c r="B93" s="113"/>
+      <c r="C93" s="114"/>
     </row>
     <row r="94" spans="2:3">
-      <c r="B94" s="115"/>
-      <c r="C94" s="116"/>
+      <c r="B94" s="113"/>
+      <c r="C94" s="114"/>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="115"/>
-      <c r="C95" s="116"/>
+      <c r="B95" s="113"/>
+      <c r="C95" s="114"/>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" s="115"/>
-      <c r="C96" s="116"/>
+      <c r="B96" s="113"/>
+      <c r="C96" s="114"/>
     </row>
     <row r="97" spans="2:3">
-      <c r="B97" s="115"/>
-      <c r="C97" s="116"/>
+      <c r="B97" s="113"/>
+      <c r="C97" s="114"/>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="115"/>
-      <c r="C98" s="116"/>
+      <c r="B98" s="113"/>
+      <c r="C98" s="114"/>
     </row>
     <row r="99" spans="2:3">
-      <c r="B99" s="115"/>
-      <c r="C99" s="116"/>
+      <c r="B99" s="113"/>
+      <c r="C99" s="114"/>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="115"/>
-      <c r="C100" s="116"/>
+      <c r="B100" s="113"/>
+      <c r="C100" s="114"/>
     </row>
     <row r="101" spans="2:3">
-      <c r="B101" s="115"/>
-      <c r="C101" s="116"/>
+      <c r="B101" s="113"/>
+      <c r="C101" s="114"/>
     </row>
     <row r="102" spans="2:3">
-      <c r="B102" s="115"/>
-      <c r="C102" s="116"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="114"/>
     </row>
     <row r="103" spans="2:3">
-      <c r="B103" s="115"/>
-      <c r="C103" s="116"/>
+      <c r="B103" s="113"/>
+      <c r="C103" s="114"/>
     </row>
     <row r="104" spans="2:3">
-      <c r="B104" s="115"/>
-      <c r="C104" s="116"/>
+      <c r="B104" s="113"/>
+      <c r="C104" s="114"/>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="115"/>
-      <c r="C105" s="116"/>
+      <c r="B105" s="113"/>
+      <c r="C105" s="114"/>
     </row>
     <row r="106" spans="2:3">
-      <c r="B106" s="115"/>
-      <c r="C106" s="116"/>
+      <c r="B106" s="113"/>
+      <c r="C106" s="114"/>
     </row>
     <row r="107" spans="2:3">
-      <c r="B107" s="115"/>
-      <c r="C107" s="116"/>
+      <c r="B107" s="113"/>
+      <c r="C107" s="114"/>
     </row>
     <row r="108" spans="2:3">
-      <c r="B108" s="115"/>
-      <c r="C108" s="116"/>
+      <c r="B108" s="113"/>
+      <c r="C108" s="114"/>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="115"/>
-      <c r="C109" s="116"/>
+      <c r="B109" s="113"/>
+      <c r="C109" s="114"/>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="115"/>
-      <c r="C110" s="116"/>
+      <c r="B110" s="113"/>
+      <c r="C110" s="114"/>
     </row>
     <row r="111" spans="2:3">
-      <c r="B111" s="115"/>
-      <c r="C111" s="116"/>
+      <c r="B111" s="113"/>
+      <c r="C111" s="114"/>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="115"/>
-      <c r="C112" s="116"/>
+      <c r="B112" s="113"/>
+      <c r="C112" s="114"/>
     </row>
     <row r="113" spans="2:3">
-      <c r="B113" s="115"/>
-      <c r="C113" s="116"/>
+      <c r="B113" s="113"/>
+      <c r="C113" s="114"/>
     </row>
     <row r="114" spans="2:3">
-      <c r="B114" s="115"/>
-      <c r="C114" s="116"/>
+      <c r="B114" s="113"/>
+      <c r="C114" s="114"/>
     </row>
     <row r="115" spans="2:3">
-      <c r="B115" s="115"/>
-      <c r="C115" s="116"/>
+      <c r="B115" s="113"/>
+      <c r="C115" s="114"/>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="115"/>
-      <c r="C116" s="116"/>
+      <c r="B116" s="113"/>
+      <c r="C116" s="114"/>
     </row>
     <row r="117" spans="2:3">
-      <c r="B117" s="115"/>
-      <c r="C117" s="116"/>
+      <c r="B117" s="113"/>
+      <c r="C117" s="114"/>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="115"/>
-      <c r="C118" s="116"/>
+      <c r="B118" s="113"/>
+      <c r="C118" s="114"/>
     </row>
     <row r="119" spans="2:3">
-      <c r="B119" s="115"/>
-      <c r="C119" s="116"/>
+      <c r="B119" s="113"/>
+      <c r="C119" s="114"/>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="115"/>
-      <c r="C120" s="116"/>
+      <c r="B120" s="113"/>
+      <c r="C120" s="114"/>
     </row>
     <row r="121" spans="2:3">
-      <c r="B121" s="115"/>
-      <c r="C121" s="116"/>
+      <c r="B121" s="113"/>
+      <c r="C121" s="114"/>
     </row>
     <row r="122" spans="2:3">
-      <c r="B122" s="115"/>
-      <c r="C122" s="116"/>
+      <c r="B122" s="113"/>
+      <c r="C122" s="114"/>
     </row>
     <row r="123" spans="2:3">
-      <c r="B123" s="115"/>
-      <c r="C123" s="116"/>
+      <c r="B123" s="113"/>
+      <c r="C123" s="114"/>
     </row>
     <row r="124" spans="2:3">
-      <c r="B124" s="115"/>
-      <c r="C124" s="116"/>
+      <c r="B124" s="113"/>
+      <c r="C124" s="114"/>
     </row>
     <row r="125" spans="2:3">
-      <c r="B125" s="115"/>
-      <c r="C125" s="116"/>
+      <c r="B125" s="113"/>
+      <c r="C125" s="114"/>
     </row>
     <row r="126" spans="2:3">
-      <c r="B126" s="115"/>
-      <c r="C126" s="116"/>
+      <c r="B126" s="113"/>
+      <c r="C126" s="114"/>
     </row>
     <row r="127" spans="2:3">
-      <c r="B127" s="115"/>
-      <c r="C127" s="116"/>
+      <c r="B127" s="113"/>
+      <c r="C127" s="114"/>
     </row>
     <row r="128" spans="2:3">
-      <c r="B128" s="115"/>
-      <c r="C128" s="116"/>
+      <c r="B128" s="113"/>
+      <c r="C128" s="114"/>
     </row>
     <row r="129" spans="2:3">
-      <c r="B129" s="115"/>
-      <c r="C129" s="116"/>
+      <c r="B129" s="113"/>
+      <c r="C129" s="114"/>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="115"/>
-      <c r="C130" s="116"/>
+      <c r="B130" s="113"/>
+      <c r="C130" s="114"/>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="115"/>
-      <c r="C131" s="116"/>
+      <c r="B131" s="113"/>
+      <c r="C131" s="114"/>
     </row>
     <row r="132" spans="2:3">
-      <c r="B132" s="115"/>
-      <c r="C132" s="116"/>
+      <c r="B132" s="113"/>
+      <c r="C132" s="114"/>
     </row>
     <row r="133" spans="2:3">
-      <c r="B133" s="115"/>
-      <c r="C133" s="116"/>
+      <c r="B133" s="113"/>
+      <c r="C133" s="114"/>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="115"/>
-      <c r="C134" s="116"/>
+      <c r="B134" s="113"/>
+      <c r="C134" s="114"/>
     </row>
     <row r="135" spans="2:3">
-      <c r="B135" s="115"/>
-      <c r="C135" s="116"/>
+      <c r="B135" s="113"/>
+      <c r="C135" s="114"/>
     </row>
     <row r="136" spans="2:3">
-      <c r="B136" s="115"/>
-      <c r="C136" s="116"/>
+      <c r="B136" s="113"/>
+      <c r="C136" s="114"/>
     </row>
     <row r="137" spans="2:3">
-      <c r="B137" s="115"/>
-      <c r="C137" s="116"/>
+      <c r="B137" s="113"/>
+      <c r="C137" s="114"/>
     </row>
     <row r="138" spans="2:3">
-      <c r="B138" s="115"/>
-      <c r="C138" s="116"/>
+      <c r="B138" s="113"/>
+      <c r="C138" s="114"/>
     </row>
     <row r="139" spans="2:3">
-      <c r="B139" s="115"/>
-      <c r="C139" s="116"/>
+      <c r="B139" s="113"/>
+      <c r="C139" s="114"/>
     </row>
     <row r="140" spans="2:3">
-      <c r="B140" s="115"/>
-      <c r="C140" s="116"/>
+      <c r="B140" s="113"/>
+      <c r="C140" s="114"/>
     </row>
     <row r="141" spans="2:3">
-      <c r="B141" s="115"/>
-      <c r="C141" s="116"/>
+      <c r="B141" s="113"/>
+      <c r="C141" s="114"/>
     </row>
     <row r="142" spans="2:3">
-      <c r="B142" s="115"/>
-      <c r="C142" s="116"/>
+      <c r="B142" s="113"/>
+      <c r="C142" s="114"/>
     </row>
     <row r="143" spans="2:3">
-      <c r="B143" s="115"/>
-      <c r="C143" s="116"/>
+      <c r="B143" s="113"/>
+      <c r="C143" s="114"/>
     </row>
     <row r="144" spans="2:3">
-      <c r="B144" s="115"/>
-      <c r="C144" s="116"/>
+      <c r="B144" s="113"/>
+      <c r="C144" s="114"/>
     </row>
     <row r="145" spans="2:3">
-      <c r="B145" s="115"/>
-      <c r="C145" s="116"/>
+      <c r="B145" s="113"/>
+      <c r="C145" s="114"/>
     </row>
     <row r="146" spans="2:3">
-      <c r="B146" s="115"/>
-      <c r="C146" s="116"/>
+      <c r="B146" s="113"/>
+      <c r="C146" s="114"/>
     </row>
     <row r="147" spans="2:3">
-      <c r="B147" s="115"/>
-      <c r="C147" s="116"/>
+      <c r="B147" s="113"/>
+      <c r="C147" s="114"/>
     </row>
     <row r="148" spans="2:3">
-      <c r="B148" s="115"/>
-      <c r="C148" s="116"/>
+      <c r="B148" s="113"/>
+      <c r="C148" s="114"/>
     </row>
     <row r="149" spans="2:3">
-      <c r="B149" s="115"/>
-      <c r="C149" s="116"/>
+      <c r="B149" s="113"/>
+      <c r="C149" s="114"/>
     </row>
     <row r="150" spans="2:3">
-      <c r="B150" s="115"/>
-      <c r="C150" s="116"/>
+      <c r="B150" s="113"/>
+      <c r="C150" s="114"/>
     </row>
     <row r="151" spans="2:3">
-      <c r="B151" s="115"/>
-      <c r="C151" s="116"/>
+      <c r="B151" s="113"/>
+      <c r="C151" s="114"/>
     </row>
     <row r="152" spans="2:3">
-      <c r="B152" s="115"/>
-      <c r="C152" s="116"/>
+      <c r="B152" s="113"/>
+      <c r="C152" s="114"/>
     </row>
     <row r="153" spans="2:3">
-      <c r="B153" s="115"/>
-      <c r="C153" s="116"/>
+      <c r="B153" s="113"/>
+      <c r="C153" s="114"/>
     </row>
     <row r="154" spans="2:3">
-      <c r="B154" s="115"/>
-      <c r="C154" s="116"/>
+      <c r="B154" s="113"/>
+      <c r="C154" s="114"/>
     </row>
     <row r="155" spans="2:3">
-      <c r="B155" s="115"/>
-      <c r="C155" s="116"/>
+      <c r="B155" s="113"/>
+      <c r="C155" s="114"/>
     </row>
     <row r="156" spans="2:3">
-      <c r="B156" s="115"/>
-      <c r="C156" s="116"/>
+      <c r="B156" s="113"/>
+      <c r="C156" s="114"/>
     </row>
     <row r="157" spans="2:3">
-      <c r="B157" s="115"/>
-      <c r="C157" s="116"/>
+      <c r="B157" s="113"/>
+      <c r="C157" s="114"/>
     </row>
     <row r="158" spans="2:3">
-      <c r="B158" s="115"/>
-      <c r="C158" s="116"/>
+      <c r="B158" s="113"/>
+      <c r="C158" s="114"/>
     </row>
     <row r="159" spans="2:3">
-      <c r="B159" s="115"/>
-      <c r="C159" s="116"/>
+      <c r="B159" s="113"/>
+      <c r="C159" s="114"/>
     </row>
     <row r="160" spans="2:3">
-      <c r="B160" s="115"/>
-      <c r="C160" s="116"/>
+      <c r="B160" s="113"/>
+      <c r="C160" s="114"/>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="115"/>
-      <c r="C161" s="116"/>
+      <c r="B161" s="113"/>
+      <c r="C161" s="114"/>
     </row>
     <row r="162" spans="2:3">
-      <c r="B162" s="115"/>
-      <c r="C162" s="116"/>
+      <c r="B162" s="113"/>
+      <c r="C162" s="114"/>
     </row>
     <row r="163" spans="2:3">
-      <c r="B163" s="115"/>
-      <c r="C163" s="116"/>
+      <c r="B163" s="113"/>
+      <c r="C163" s="114"/>
     </row>
     <row r="164" spans="2:3">
-      <c r="B164" s="115"/>
-      <c r="C164" s="116"/>
+      <c r="B164" s="113"/>
+      <c r="C164" s="114"/>
     </row>
     <row r="165" spans="2:3">
-      <c r="B165" s="115"/>
-      <c r="C165" s="116"/>
+      <c r="B165" s="113"/>
+      <c r="C165" s="114"/>
     </row>
     <row r="166" spans="2:3">
-      <c r="B166" s="115"/>
-      <c r="C166" s="116"/>
+      <c r="B166" s="113"/>
+      <c r="C166" s="114"/>
     </row>
     <row r="167" spans="2:3">
-      <c r="B167" s="115"/>
-      <c r="C167" s="116"/>
+      <c r="B167" s="113"/>
+      <c r="C167" s="114"/>
     </row>
     <row r="168" spans="2:3">
-      <c r="B168" s="115"/>
-      <c r="C168" s="116"/>
+      <c r="B168" s="113"/>
+      <c r="C168" s="114"/>
     </row>
     <row r="169" spans="2:3">
-      <c r="B169" s="115"/>
-      <c r="C169" s="116"/>
+      <c r="B169" s="113"/>
+      <c r="C169" s="114"/>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="115"/>
-      <c r="C170" s="116"/>
+      <c r="B170" s="113"/>
+      <c r="C170" s="114"/>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="115"/>
-      <c r="C171" s="116"/>
+      <c r="B171" s="113"/>
+      <c r="C171" s="114"/>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="115"/>
-      <c r="C172" s="116"/>
+      <c r="B172" s="113"/>
+      <c r="C172" s="114"/>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="115"/>
-      <c r="C173" s="116"/>
+      <c r="B173" s="113"/>
+      <c r="C173" s="114"/>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="115"/>
-      <c r="C174" s="116"/>
+      <c r="B174" s="113"/>
+      <c r="C174" s="114"/>
     </row>
     <row r="175" spans="2:3">
-      <c r="B175" s="115"/>
-      <c r="C175" s="116"/>
+      <c r="B175" s="113"/>
+      <c r="C175" s="114"/>
     </row>
     <row r="176" spans="2:3">
-      <c r="B176" s="115"/>
-      <c r="C176" s="116"/>
+      <c r="B176" s="113"/>
+      <c r="C176" s="114"/>
     </row>
     <row r="177" spans="2:3">
-      <c r="B177" s="115"/>
-      <c r="C177" s="116"/>
+      <c r="B177" s="113"/>
+      <c r="C177" s="114"/>
     </row>
     <row r="178" spans="2:3">
-      <c r="B178" s="115"/>
-      <c r="C178" s="116"/>
+      <c r="B178" s="113"/>
+      <c r="C178" s="114"/>
     </row>
     <row r="179" spans="2:3">
-      <c r="B179" s="115"/>
-      <c r="C179" s="116"/>
+      <c r="B179" s="113"/>
+      <c r="C179" s="114"/>
     </row>
     <row r="180" spans="2:3">
-      <c r="B180" s="115"/>
-      <c r="C180" s="116"/>
+      <c r="B180" s="113"/>
+      <c r="C180" s="114"/>
     </row>
     <row r="181" spans="2:3">
-      <c r="B181" s="115"/>
-      <c r="C181" s="116"/>
+      <c r="B181" s="113"/>
+      <c r="C181" s="114"/>
     </row>
     <row r="182" spans="2:3">
-      <c r="B182" s="115"/>
-      <c r="C182" s="116"/>
+      <c r="B182" s="113"/>
+      <c r="C182" s="114"/>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="115"/>
-      <c r="C183" s="116"/>
+      <c r="B183" s="113"/>
+      <c r="C183" s="114"/>
     </row>
     <row r="184" spans="2:3">
-      <c r="B184" s="115"/>
-      <c r="C184" s="116"/>
+      <c r="B184" s="113"/>
+      <c r="C184" s="114"/>
     </row>
     <row r="185" spans="2:3">
-      <c r="B185" s="115"/>
-      <c r="C185" s="116"/>
+      <c r="B185" s="113"/>
+      <c r="C185" s="114"/>
     </row>
     <row r="186" spans="2:3">
-      <c r="B186" s="115"/>
-      <c r="C186" s="116"/>
+      <c r="B186" s="113"/>
+      <c r="C186" s="114"/>
     </row>
     <row r="187" spans="2:3">
-      <c r="B187" s="115"/>
-      <c r="C187" s="116"/>
+      <c r="B187" s="113"/>
+      <c r="C187" s="114"/>
     </row>
     <row r="188" spans="2:3">
-      <c r="B188" s="115"/>
-      <c r="C188" s="116"/>
+      <c r="B188" s="113"/>
+      <c r="C188" s="114"/>
     </row>
     <row r="189" spans="2:3">
-      <c r="B189" s="115"/>
-      <c r="C189" s="116"/>
+      <c r="B189" s="113"/>
+      <c r="C189" s="114"/>
     </row>
     <row r="190" spans="2:3">
-      <c r="B190" s="115"/>
-      <c r="C190" s="116"/>
+      <c r="B190" s="113"/>
+      <c r="C190" s="114"/>
     </row>
     <row r="191" spans="2:3">
-      <c r="B191" s="115"/>
-      <c r="C191" s="116"/>
+      <c r="B191" s="113"/>
+      <c r="C191" s="114"/>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="115"/>
-      <c r="C192" s="116"/>
+      <c r="B192" s="113"/>
+      <c r="C192" s="114"/>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="115"/>
-      <c r="C193" s="116"/>
+      <c r="B193" s="113"/>
+      <c r="C193" s="114"/>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="115"/>
-      <c r="C194" s="116"/>
+      <c r="B194" s="113"/>
+      <c r="C194" s="114"/>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="115"/>
-      <c r="C195" s="116"/>
+      <c r="B195" s="113"/>
+      <c r="C195" s="114"/>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="115"/>
-      <c r="C196" s="116"/>
+      <c r="B196" s="113"/>
+      <c r="C196" s="114"/>
     </row>
     <row r="197" spans="2:3">
-      <c r="B197" s="115"/>
-      <c r="C197" s="116"/>
+      <c r="B197" s="113"/>
+      <c r="C197" s="114"/>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="115"/>
-      <c r="C198" s="116"/>
+      <c r="B198" s="113"/>
+      <c r="C198" s="114"/>
     </row>
     <row r="199" spans="2:3">
-      <c r="B199" s="115"/>
-      <c r="C199" s="116"/>
+      <c r="B199" s="113"/>
+      <c r="C199" s="114"/>
     </row>
     <row r="200" spans="2:3">
-      <c r="B200" s="115"/>
-      <c r="C200" s="116"/>
+      <c r="B200" s="113"/>
+      <c r="C200" s="114"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Fieg7e/RbUbNKBSn4Ew6LRPS5bW+VkMyDKRk3dHimb/71ksXW005tR7RyRcbQPmBDavIv0VnyWIE423CepCt0g==" saltValue="SMY4Ht9joNHKBu+Wlgisqg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="187">
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
@@ -3285,29 +3168,146 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3338,7 +3338,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:D99"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3354,16 +3354,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15">
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="100"/>
+      <c r="C1" s="102"/>
     </row>
     <row r="3" spans="2:3" ht="15">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="101"/>
+      <c r="C3" s="100"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
@@ -3374,10 +3374,10 @@
       </c>
     </row>
     <row r="5" spans="2:3" ht="17.100000000000001" customHeight="1">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="102"/>
+      <c r="C5" s="103"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="3" t="s">
@@ -3416,10 +3416,10 @@
       </c>
     </row>
     <row r="10" spans="2:3" ht="17.100000000000001" customHeight="1">
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="102"/>
+      <c r="C10" s="103"/>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="3" t="s">
@@ -3566,10 +3566,10 @@
       </c>
     </row>
     <row r="27" spans="2:3" ht="17.100000000000001" customHeight="1">
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="102"/>
+      <c r="C27" s="103"/>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="3" t="s">
@@ -3617,10 +3617,10 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="17.100000000000001" customHeight="1">
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="101"/>
+      <c r="C34" s="100"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
@@ -3659,10 +3659,10 @@
     </row>
     <row r="39" spans="2:4" ht="17.100000000000001" customHeight="1"/>
     <row r="40" spans="2:4" ht="15">
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="103"/>
+      <c r="C40" s="101"/>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="2" t="s">
@@ -3682,10 +3682,10 @@
       </c>
     </row>
     <row r="44" spans="2:4" ht="15">
-      <c r="B44" s="103" t="s">
+      <c r="B44" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="103"/>
+      <c r="C44" s="101"/>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="2" t="s">
@@ -3742,10 +3742,10 @@
       </c>
     </row>
     <row r="52" spans="2:3" ht="15">
-      <c r="B52" s="103" t="s">
+      <c r="B52" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="101"/>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="2" t="s">
@@ -3792,10 +3792,10 @@
       </c>
     </row>
     <row r="59" spans="2:3" ht="15">
-      <c r="B59" s="103" t="s">
+      <c r="B59" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="103"/>
+      <c r="C59" s="101"/>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="2" t="s">
@@ -3851,10 +3851,10 @@
       </c>
     </row>
     <row r="67" spans="2:3" ht="15">
-      <c r="B67" s="103" t="s">
+      <c r="B67" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="103"/>
+      <c r="C67" s="101"/>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="2" t="s">
@@ -3910,10 +3910,10 @@
       </c>
     </row>
     <row r="75" spans="2:3" ht="15">
-      <c r="B75" s="103" t="s">
+      <c r="B75" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="C75" s="103"/>
+      <c r="C75" s="101"/>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="2" t="s">
@@ -3987,10 +3987,10 @@
       </c>
     </row>
     <row r="85" spans="2:3" ht="15">
-      <c r="B85" s="103" t="s">
+      <c r="B85" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="C85" s="103"/>
+      <c r="C85" s="101"/>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="2" t="s">
@@ -4055,10 +4055,10 @@
       </c>
     </row>
     <row r="94" spans="2:3" ht="15">
-      <c r="B94" s="103" t="s">
+      <c r="B94" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="C94" s="103"/>
+      <c r="C94" s="101"/>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" s="2" t="s">
@@ -4107,6 +4107,11 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="8/SeBsbY6lGHSK+hJbnzoHVGXiWJ10+P/+rs43nw3SvmGiuFgi3yaca8gJE+q1DJQOPVCr9sCYwF3WoR86+NAg==" saltValue="aeJfQMGpNX6YydUAjibqVg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="14">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="B40:C40"/>
@@ -4116,11 +4121,6 @@
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4132,7 +4132,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -5264,7 +5264,7 @@
   <dimension ref="A1:C199"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25"/>
@@ -5305,9 +5305,15 @@
         <v>163</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="C5" s="51" t="str">
+        <f t="shared" ref="C5:C69" si="0">IFERROR(B5/A5,"")</f>
+        <v/>
+      </c>
+    </row>
     <row r="6" spans="1:3">
       <c r="C6" s="51" t="str">
-        <f t="shared" ref="C6:C69" si="0">IFERROR(B6/A6,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -8645,16 +8651,162 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="rFQsq/JRf0N8cInmEqIiKYMWMlkGKxmnUDNADRhy5yLE7ayCyDbU31wwIzWB4sMdpFurv/hzpumbdIBI5YT6Eg==" saltValue="vi6eEjBMXdpGC2wAd3+TuA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="178">
-    <mergeCell ref="B196:J196"/>
-    <mergeCell ref="B197:J197"/>
-    <mergeCell ref="B198:J198"/>
-    <mergeCell ref="B199:J199"/>
-    <mergeCell ref="B190:J190"/>
-    <mergeCell ref="B191:J191"/>
-    <mergeCell ref="B192:J192"/>
-    <mergeCell ref="B193:J193"/>
-    <mergeCell ref="B194:J194"/>
-    <mergeCell ref="B195:J195"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="B54:J54"/>
+    <mergeCell ref="B55:J55"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="B64:J64"/>
+    <mergeCell ref="B65:J65"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="B67:J67"/>
+    <mergeCell ref="B68:J68"/>
+    <mergeCell ref="B69:J69"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="B60:J60"/>
+    <mergeCell ref="B61:J61"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="B63:J63"/>
+    <mergeCell ref="B76:J76"/>
+    <mergeCell ref="B77:J77"/>
+    <mergeCell ref="B78:J78"/>
+    <mergeCell ref="B79:J79"/>
+    <mergeCell ref="B80:J80"/>
+    <mergeCell ref="B81:J81"/>
+    <mergeCell ref="B70:J70"/>
+    <mergeCell ref="B71:J71"/>
+    <mergeCell ref="B72:J72"/>
+    <mergeCell ref="B73:J73"/>
+    <mergeCell ref="B74:J74"/>
+    <mergeCell ref="B75:J75"/>
+    <mergeCell ref="B88:J88"/>
+    <mergeCell ref="B89:J89"/>
+    <mergeCell ref="B90:J90"/>
+    <mergeCell ref="B91:J91"/>
+    <mergeCell ref="B92:J92"/>
+    <mergeCell ref="B93:J93"/>
+    <mergeCell ref="B82:J82"/>
+    <mergeCell ref="B83:J83"/>
+    <mergeCell ref="B84:J84"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="B86:J86"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B100:J100"/>
+    <mergeCell ref="B101:J101"/>
+    <mergeCell ref="B102:J102"/>
+    <mergeCell ref="B103:J103"/>
+    <mergeCell ref="B104:J104"/>
+    <mergeCell ref="B105:J105"/>
+    <mergeCell ref="B94:J94"/>
+    <mergeCell ref="B95:J95"/>
+    <mergeCell ref="B96:J96"/>
+    <mergeCell ref="B97:J97"/>
+    <mergeCell ref="B98:J98"/>
+    <mergeCell ref="B99:J99"/>
+    <mergeCell ref="B112:J112"/>
+    <mergeCell ref="B113:J113"/>
+    <mergeCell ref="B114:J114"/>
+    <mergeCell ref="B115:J115"/>
+    <mergeCell ref="B116:J116"/>
+    <mergeCell ref="B117:J117"/>
+    <mergeCell ref="B106:J106"/>
+    <mergeCell ref="B107:J107"/>
+    <mergeCell ref="B108:J108"/>
+    <mergeCell ref="B109:J109"/>
+    <mergeCell ref="B110:J110"/>
+    <mergeCell ref="B111:J111"/>
+    <mergeCell ref="B124:J124"/>
+    <mergeCell ref="B125:J125"/>
+    <mergeCell ref="B126:J126"/>
+    <mergeCell ref="B127:J127"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="B129:J129"/>
+    <mergeCell ref="B118:J118"/>
+    <mergeCell ref="B119:J119"/>
+    <mergeCell ref="B120:J120"/>
+    <mergeCell ref="B121:J121"/>
+    <mergeCell ref="B122:J122"/>
+    <mergeCell ref="B123:J123"/>
+    <mergeCell ref="B136:J136"/>
+    <mergeCell ref="B137:J137"/>
+    <mergeCell ref="B138:J138"/>
+    <mergeCell ref="B139:J139"/>
+    <mergeCell ref="B140:J140"/>
+    <mergeCell ref="B141:J141"/>
+    <mergeCell ref="B130:J130"/>
+    <mergeCell ref="B131:J131"/>
+    <mergeCell ref="B132:J132"/>
+    <mergeCell ref="B133:J133"/>
+    <mergeCell ref="B134:J134"/>
+    <mergeCell ref="B135:J135"/>
+    <mergeCell ref="B148:J148"/>
+    <mergeCell ref="B149:J149"/>
+    <mergeCell ref="B150:J150"/>
+    <mergeCell ref="B151:J151"/>
+    <mergeCell ref="B152:J152"/>
+    <mergeCell ref="B153:J153"/>
+    <mergeCell ref="B142:J142"/>
+    <mergeCell ref="B143:J143"/>
+    <mergeCell ref="B144:J144"/>
+    <mergeCell ref="B145:J145"/>
+    <mergeCell ref="B146:J146"/>
+    <mergeCell ref="B147:J147"/>
+    <mergeCell ref="B160:J160"/>
+    <mergeCell ref="B161:J161"/>
+    <mergeCell ref="B162:J162"/>
+    <mergeCell ref="B163:J163"/>
+    <mergeCell ref="B164:J164"/>
+    <mergeCell ref="B165:J165"/>
+    <mergeCell ref="B154:J154"/>
+    <mergeCell ref="B155:J155"/>
+    <mergeCell ref="B156:J156"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="B158:J158"/>
+    <mergeCell ref="B159:J159"/>
+    <mergeCell ref="B172:J172"/>
+    <mergeCell ref="B173:J173"/>
+    <mergeCell ref="B174:J174"/>
+    <mergeCell ref="B175:J175"/>
+    <mergeCell ref="B176:J176"/>
+    <mergeCell ref="B177:J177"/>
+    <mergeCell ref="B166:J166"/>
+    <mergeCell ref="B167:J167"/>
+    <mergeCell ref="B168:J168"/>
+    <mergeCell ref="B169:J169"/>
+    <mergeCell ref="B170:J170"/>
+    <mergeCell ref="B171:J171"/>
     <mergeCell ref="B184:J184"/>
     <mergeCell ref="B185:J185"/>
     <mergeCell ref="B186:J186"/>
@@ -8667,162 +8819,16 @@
     <mergeCell ref="B181:J181"/>
     <mergeCell ref="B182:J182"/>
     <mergeCell ref="B183:J183"/>
-    <mergeCell ref="B172:J172"/>
-    <mergeCell ref="B173:J173"/>
-    <mergeCell ref="B174:J174"/>
-    <mergeCell ref="B175:J175"/>
-    <mergeCell ref="B176:J176"/>
-    <mergeCell ref="B177:J177"/>
-    <mergeCell ref="B166:J166"/>
-    <mergeCell ref="B167:J167"/>
-    <mergeCell ref="B168:J168"/>
-    <mergeCell ref="B169:J169"/>
-    <mergeCell ref="B170:J170"/>
-    <mergeCell ref="B171:J171"/>
-    <mergeCell ref="B160:J160"/>
-    <mergeCell ref="B161:J161"/>
-    <mergeCell ref="B162:J162"/>
-    <mergeCell ref="B163:J163"/>
-    <mergeCell ref="B164:J164"/>
-    <mergeCell ref="B165:J165"/>
-    <mergeCell ref="B154:J154"/>
-    <mergeCell ref="B155:J155"/>
-    <mergeCell ref="B156:J156"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="B158:J158"/>
-    <mergeCell ref="B159:J159"/>
-    <mergeCell ref="B148:J148"/>
-    <mergeCell ref="B149:J149"/>
-    <mergeCell ref="B150:J150"/>
-    <mergeCell ref="B151:J151"/>
-    <mergeCell ref="B152:J152"/>
-    <mergeCell ref="B153:J153"/>
-    <mergeCell ref="B142:J142"/>
-    <mergeCell ref="B143:J143"/>
-    <mergeCell ref="B144:J144"/>
-    <mergeCell ref="B145:J145"/>
-    <mergeCell ref="B146:J146"/>
-    <mergeCell ref="B147:J147"/>
-    <mergeCell ref="B136:J136"/>
-    <mergeCell ref="B137:J137"/>
-    <mergeCell ref="B138:J138"/>
-    <mergeCell ref="B139:J139"/>
-    <mergeCell ref="B140:J140"/>
-    <mergeCell ref="B141:J141"/>
-    <mergeCell ref="B130:J130"/>
-    <mergeCell ref="B131:J131"/>
-    <mergeCell ref="B132:J132"/>
-    <mergeCell ref="B133:J133"/>
-    <mergeCell ref="B134:J134"/>
-    <mergeCell ref="B135:J135"/>
-    <mergeCell ref="B124:J124"/>
-    <mergeCell ref="B125:J125"/>
-    <mergeCell ref="B126:J126"/>
-    <mergeCell ref="B127:J127"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="B129:J129"/>
-    <mergeCell ref="B118:J118"/>
-    <mergeCell ref="B119:J119"/>
-    <mergeCell ref="B120:J120"/>
-    <mergeCell ref="B121:J121"/>
-    <mergeCell ref="B122:J122"/>
-    <mergeCell ref="B123:J123"/>
-    <mergeCell ref="B112:J112"/>
-    <mergeCell ref="B113:J113"/>
-    <mergeCell ref="B114:J114"/>
-    <mergeCell ref="B115:J115"/>
-    <mergeCell ref="B116:J116"/>
-    <mergeCell ref="B117:J117"/>
-    <mergeCell ref="B106:J106"/>
-    <mergeCell ref="B107:J107"/>
-    <mergeCell ref="B108:J108"/>
-    <mergeCell ref="B109:J109"/>
-    <mergeCell ref="B110:J110"/>
-    <mergeCell ref="B111:J111"/>
-    <mergeCell ref="B100:J100"/>
-    <mergeCell ref="B101:J101"/>
-    <mergeCell ref="B102:J102"/>
-    <mergeCell ref="B103:J103"/>
-    <mergeCell ref="B104:J104"/>
-    <mergeCell ref="B105:J105"/>
-    <mergeCell ref="B94:J94"/>
-    <mergeCell ref="B95:J95"/>
-    <mergeCell ref="B96:J96"/>
-    <mergeCell ref="B97:J97"/>
-    <mergeCell ref="B98:J98"/>
-    <mergeCell ref="B99:J99"/>
-    <mergeCell ref="B88:J88"/>
-    <mergeCell ref="B89:J89"/>
-    <mergeCell ref="B90:J90"/>
-    <mergeCell ref="B91:J91"/>
-    <mergeCell ref="B92:J92"/>
-    <mergeCell ref="B93:J93"/>
-    <mergeCell ref="B82:J82"/>
-    <mergeCell ref="B83:J83"/>
-    <mergeCell ref="B84:J84"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="B86:J86"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B76:J76"/>
-    <mergeCell ref="B77:J77"/>
-    <mergeCell ref="B78:J78"/>
-    <mergeCell ref="B79:J79"/>
-    <mergeCell ref="B80:J80"/>
-    <mergeCell ref="B81:J81"/>
-    <mergeCell ref="B70:J70"/>
-    <mergeCell ref="B71:J71"/>
-    <mergeCell ref="B72:J72"/>
-    <mergeCell ref="B73:J73"/>
-    <mergeCell ref="B74:J74"/>
-    <mergeCell ref="B75:J75"/>
-    <mergeCell ref="B64:J64"/>
-    <mergeCell ref="B65:J65"/>
-    <mergeCell ref="B66:J66"/>
-    <mergeCell ref="B67:J67"/>
-    <mergeCell ref="B68:J68"/>
-    <mergeCell ref="B69:J69"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="B60:J60"/>
-    <mergeCell ref="B61:J61"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="B63:J63"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="B54:J54"/>
-    <mergeCell ref="B55:J55"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B196:J196"/>
+    <mergeCell ref="B197:J197"/>
+    <mergeCell ref="B198:J198"/>
+    <mergeCell ref="B199:J199"/>
+    <mergeCell ref="B190:J190"/>
+    <mergeCell ref="B191:J191"/>
+    <mergeCell ref="B192:J192"/>
+    <mergeCell ref="B193:J193"/>
+    <mergeCell ref="B194:J194"/>
+    <mergeCell ref="B195:J195"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8848,7 +8854,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" customHeight="1"/>
@@ -9177,7 +9183,7 @@
       <c r="B19" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="111"/>
+      <c r="C19" s="109"/>
       <c r="D19" s="70" t="s">
         <v>141</v>
       </c>
@@ -9198,738 +9204,896 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
       <c r="D24" s="57"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
       <c r="D25" s="57"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
       <c r="D26" s="57"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
       <c r="D27" s="57"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="110"/>
       <c r="D28" s="57"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
       <c r="D29" s="57"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="B30" s="109"/>
-      <c r="C30" s="109"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="110"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32" s="109"/>
-      <c r="C32" s="109"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="109"/>
-      <c r="C35" s="109"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="109"/>
-      <c r="C36" s="109"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="110"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="110"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="109"/>
-      <c r="C38" s="109"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="110"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="109"/>
-      <c r="C40" s="109"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="110"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="109"/>
-      <c r="C41" s="109"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="110"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="109"/>
-      <c r="C42" s="109"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="109"/>
-      <c r="C43" s="109"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="110"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="110"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="109"/>
-      <c r="C45" s="109"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="110"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="109"/>
-      <c r="C46" s="109"/>
+      <c r="B46" s="110"/>
+      <c r="C46" s="110"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="109"/>
-      <c r="C47" s="109"/>
+      <c r="B47" s="110"/>
+      <c r="C47" s="110"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="109"/>
-      <c r="C48" s="109"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="110"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="109"/>
-      <c r="C49" s="109"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="110"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="109"/>
-      <c r="C50" s="109"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="110"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="109"/>
-      <c r="C51" s="109"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="110"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="109"/>
-      <c r="C52" s="109"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="110"/>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="109"/>
-      <c r="C53" s="109"/>
+      <c r="B53" s="110"/>
+      <c r="C53" s="110"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
+      <c r="B54" s="110"/>
+      <c r="C54" s="110"/>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="109"/>
-      <c r="C55" s="109"/>
+      <c r="B55" s="110"/>
+      <c r="C55" s="110"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="109"/>
-      <c r="C56" s="109"/>
+      <c r="B56" s="110"/>
+      <c r="C56" s="110"/>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="109"/>
-      <c r="C57" s="109"/>
+      <c r="B57" s="110"/>
+      <c r="C57" s="110"/>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="109"/>
-      <c r="C58" s="109"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="110"/>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="109"/>
-      <c r="C59" s="109"/>
+      <c r="B59" s="110"/>
+      <c r="C59" s="110"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="109"/>
-      <c r="C60" s="109"/>
+      <c r="B60" s="110"/>
+      <c r="C60" s="110"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="109"/>
-      <c r="C61" s="109"/>
+      <c r="B61" s="110"/>
+      <c r="C61" s="110"/>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="109"/>
-      <c r="C62" s="109"/>
+      <c r="B62" s="110"/>
+      <c r="C62" s="110"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="109"/>
-      <c r="C63" s="109"/>
+      <c r="B63" s="110"/>
+      <c r="C63" s="110"/>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="109"/>
-      <c r="C64" s="109"/>
+      <c r="B64" s="110"/>
+      <c r="C64" s="110"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="109"/>
-      <c r="C65" s="109"/>
+      <c r="B65" s="110"/>
+      <c r="C65" s="110"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="109"/>
-      <c r="C66" s="109"/>
+      <c r="B66" s="110"/>
+      <c r="C66" s="110"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="109"/>
-      <c r="C67" s="109"/>
+      <c r="B67" s="110"/>
+      <c r="C67" s="110"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="109"/>
-      <c r="C68" s="109"/>
+      <c r="B68" s="110"/>
+      <c r="C68" s="110"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="109"/>
-      <c r="C69" s="109"/>
+      <c r="B69" s="110"/>
+      <c r="C69" s="110"/>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="109"/>
-      <c r="C70" s="109"/>
+      <c r="B70" s="110"/>
+      <c r="C70" s="110"/>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="109"/>
-      <c r="C71" s="109"/>
+      <c r="B71" s="110"/>
+      <c r="C71" s="110"/>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="109"/>
-      <c r="C72" s="109"/>
+      <c r="B72" s="110"/>
+      <c r="C72" s="110"/>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="109"/>
-      <c r="C73" s="109"/>
+      <c r="B73" s="110"/>
+      <c r="C73" s="110"/>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="109"/>
-      <c r="C74" s="109"/>
+      <c r="B74" s="110"/>
+      <c r="C74" s="110"/>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="109"/>
-      <c r="C75" s="109"/>
+      <c r="B75" s="110"/>
+      <c r="C75" s="110"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="109"/>
-      <c r="C76" s="109"/>
+      <c r="B76" s="110"/>
+      <c r="C76" s="110"/>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="109"/>
-      <c r="C77" s="109"/>
+      <c r="B77" s="110"/>
+      <c r="C77" s="110"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="109"/>
-      <c r="C78" s="109"/>
+      <c r="B78" s="110"/>
+      <c r="C78" s="110"/>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="109"/>
-      <c r="C79" s="109"/>
+      <c r="B79" s="110"/>
+      <c r="C79" s="110"/>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="109"/>
-      <c r="C80" s="109"/>
+      <c r="B80" s="110"/>
+      <c r="C80" s="110"/>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="109"/>
-      <c r="C81" s="109"/>
+      <c r="B81" s="110"/>
+      <c r="C81" s="110"/>
     </row>
     <row r="82" spans="2:3">
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
+      <c r="B82" s="110"/>
+      <c r="C82" s="110"/>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="109"/>
-      <c r="C83" s="109"/>
+      <c r="B83" s="110"/>
+      <c r="C83" s="110"/>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="109"/>
-      <c r="C84" s="109"/>
+      <c r="B84" s="110"/>
+      <c r="C84" s="110"/>
     </row>
     <row r="85" spans="2:3">
-      <c r="B85" s="109"/>
-      <c r="C85" s="109"/>
+      <c r="B85" s="110"/>
+      <c r="C85" s="110"/>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="109"/>
-      <c r="C86" s="109"/>
+      <c r="B86" s="110"/>
+      <c r="C86" s="110"/>
     </row>
     <row r="87" spans="2:3">
-      <c r="B87" s="109"/>
-      <c r="C87" s="109"/>
+      <c r="B87" s="110"/>
+      <c r="C87" s="110"/>
     </row>
     <row r="88" spans="2:3">
-      <c r="B88" s="109"/>
-      <c r="C88" s="109"/>
+      <c r="B88" s="110"/>
+      <c r="C88" s="110"/>
     </row>
     <row r="89" spans="2:3">
-      <c r="B89" s="109"/>
-      <c r="C89" s="109"/>
+      <c r="B89" s="110"/>
+      <c r="C89" s="110"/>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="109"/>
-      <c r="C90" s="109"/>
+      <c r="B90" s="110"/>
+      <c r="C90" s="110"/>
     </row>
     <row r="91" spans="2:3">
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
+      <c r="B91" s="110"/>
+      <c r="C91" s="110"/>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="109"/>
-      <c r="C92" s="109"/>
+      <c r="B92" s="110"/>
+      <c r="C92" s="110"/>
     </row>
     <row r="93" spans="2:3">
-      <c r="B93" s="109"/>
-      <c r="C93" s="109"/>
+      <c r="B93" s="110"/>
+      <c r="C93" s="110"/>
     </row>
     <row r="94" spans="2:3">
-      <c r="B94" s="109"/>
-      <c r="C94" s="109"/>
+      <c r="B94" s="110"/>
+      <c r="C94" s="110"/>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="109"/>
-      <c r="C95" s="109"/>
+      <c r="B95" s="110"/>
+      <c r="C95" s="110"/>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" s="109"/>
-      <c r="C96" s="109"/>
+      <c r="B96" s="110"/>
+      <c r="C96" s="110"/>
     </row>
     <row r="97" spans="2:3">
-      <c r="B97" s="109"/>
-      <c r="C97" s="109"/>
+      <c r="B97" s="110"/>
+      <c r="C97" s="110"/>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="109"/>
-      <c r="C98" s="109"/>
+      <c r="B98" s="110"/>
+      <c r="C98" s="110"/>
     </row>
     <row r="99" spans="2:3">
-      <c r="B99" s="109"/>
-      <c r="C99" s="109"/>
+      <c r="B99" s="110"/>
+      <c r="C99" s="110"/>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="109"/>
-      <c r="C100" s="109"/>
+      <c r="B100" s="110"/>
+      <c r="C100" s="110"/>
     </row>
     <row r="101" spans="2:3">
-      <c r="B101" s="109"/>
-      <c r="C101" s="109"/>
+      <c r="B101" s="110"/>
+      <c r="C101" s="110"/>
     </row>
     <row r="102" spans="2:3">
-      <c r="B102" s="109"/>
-      <c r="C102" s="109"/>
+      <c r="B102" s="110"/>
+      <c r="C102" s="110"/>
     </row>
     <row r="103" spans="2:3">
-      <c r="B103" s="109"/>
-      <c r="C103" s="109"/>
+      <c r="B103" s="110"/>
+      <c r="C103" s="110"/>
     </row>
     <row r="104" spans="2:3">
-      <c r="B104" s="109"/>
-      <c r="C104" s="109"/>
+      <c r="B104" s="110"/>
+      <c r="C104" s="110"/>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="109"/>
-      <c r="C105" s="109"/>
+      <c r="B105" s="110"/>
+      <c r="C105" s="110"/>
     </row>
     <row r="106" spans="2:3">
-      <c r="B106" s="109"/>
-      <c r="C106" s="109"/>
+      <c r="B106" s="110"/>
+      <c r="C106" s="110"/>
     </row>
     <row r="107" spans="2:3">
-      <c r="B107" s="109"/>
-      <c r="C107" s="109"/>
+      <c r="B107" s="110"/>
+      <c r="C107" s="110"/>
     </row>
     <row r="108" spans="2:3">
-      <c r="B108" s="109"/>
-      <c r="C108" s="109"/>
+      <c r="B108" s="110"/>
+      <c r="C108" s="110"/>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="109"/>
-      <c r="C109" s="109"/>
+      <c r="B109" s="110"/>
+      <c r="C109" s="110"/>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="109"/>
-      <c r="C110" s="109"/>
+      <c r="B110" s="110"/>
+      <c r="C110" s="110"/>
     </row>
     <row r="111" spans="2:3">
-      <c r="B111" s="109"/>
-      <c r="C111" s="109"/>
+      <c r="B111" s="110"/>
+      <c r="C111" s="110"/>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="109"/>
-      <c r="C112" s="109"/>
+      <c r="B112" s="110"/>
+      <c r="C112" s="110"/>
     </row>
     <row r="113" spans="2:3">
-      <c r="B113" s="109"/>
-      <c r="C113" s="109"/>
+      <c r="B113" s="110"/>
+      <c r="C113" s="110"/>
     </row>
     <row r="114" spans="2:3">
-      <c r="B114" s="109"/>
-      <c r="C114" s="109"/>
+      <c r="B114" s="110"/>
+      <c r="C114" s="110"/>
     </row>
     <row r="115" spans="2:3">
-      <c r="B115" s="109"/>
-      <c r="C115" s="109"/>
+      <c r="B115" s="110"/>
+      <c r="C115" s="110"/>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="109"/>
-      <c r="C116" s="109"/>
+      <c r="B116" s="110"/>
+      <c r="C116" s="110"/>
     </row>
     <row r="117" spans="2:3">
-      <c r="B117" s="109"/>
-      <c r="C117" s="109"/>
+      <c r="B117" s="110"/>
+      <c r="C117" s="110"/>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="109"/>
-      <c r="C118" s="109"/>
+      <c r="B118" s="110"/>
+      <c r="C118" s="110"/>
     </row>
     <row r="119" spans="2:3">
-      <c r="B119" s="109"/>
-      <c r="C119" s="109"/>
+      <c r="B119" s="110"/>
+      <c r="C119" s="110"/>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="109"/>
-      <c r="C120" s="109"/>
+      <c r="B120" s="110"/>
+      <c r="C120" s="110"/>
     </row>
     <row r="121" spans="2:3">
-      <c r="B121" s="109"/>
-      <c r="C121" s="109"/>
+      <c r="B121" s="110"/>
+      <c r="C121" s="110"/>
     </row>
     <row r="122" spans="2:3">
-      <c r="B122" s="109"/>
-      <c r="C122" s="109"/>
+      <c r="B122" s="110"/>
+      <c r="C122" s="110"/>
     </row>
     <row r="123" spans="2:3">
-      <c r="B123" s="109"/>
-      <c r="C123" s="109"/>
+      <c r="B123" s="110"/>
+      <c r="C123" s="110"/>
     </row>
     <row r="124" spans="2:3">
-      <c r="B124" s="109"/>
-      <c r="C124" s="109"/>
+      <c r="B124" s="110"/>
+      <c r="C124" s="110"/>
     </row>
     <row r="125" spans="2:3">
-      <c r="B125" s="109"/>
-      <c r="C125" s="109"/>
+      <c r="B125" s="110"/>
+      <c r="C125" s="110"/>
     </row>
     <row r="126" spans="2:3">
-      <c r="B126" s="109"/>
-      <c r="C126" s="109"/>
+      <c r="B126" s="110"/>
+      <c r="C126" s="110"/>
     </row>
     <row r="127" spans="2:3">
-      <c r="B127" s="109"/>
-      <c r="C127" s="109"/>
+      <c r="B127" s="110"/>
+      <c r="C127" s="110"/>
     </row>
     <row r="128" spans="2:3">
-      <c r="B128" s="109"/>
-      <c r="C128" s="109"/>
+      <c r="B128" s="110"/>
+      <c r="C128" s="110"/>
     </row>
     <row r="129" spans="2:3">
-      <c r="B129" s="109"/>
-      <c r="C129" s="109"/>
+      <c r="B129" s="110"/>
+      <c r="C129" s="110"/>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="109"/>
-      <c r="C130" s="109"/>
+      <c r="B130" s="110"/>
+      <c r="C130" s="110"/>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="109"/>
-      <c r="C131" s="109"/>
+      <c r="B131" s="110"/>
+      <c r="C131" s="110"/>
     </row>
     <row r="132" spans="2:3">
-      <c r="B132" s="109"/>
-      <c r="C132" s="109"/>
+      <c r="B132" s="110"/>
+      <c r="C132" s="110"/>
     </row>
     <row r="133" spans="2:3">
-      <c r="B133" s="109"/>
-      <c r="C133" s="109"/>
+      <c r="B133" s="110"/>
+      <c r="C133" s="110"/>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="109"/>
-      <c r="C134" s="109"/>
+      <c r="B134" s="110"/>
+      <c r="C134" s="110"/>
     </row>
     <row r="135" spans="2:3">
-      <c r="B135" s="109"/>
-      <c r="C135" s="109"/>
+      <c r="B135" s="110"/>
+      <c r="C135" s="110"/>
     </row>
     <row r="136" spans="2:3">
-      <c r="B136" s="109"/>
-      <c r="C136" s="109"/>
+      <c r="B136" s="110"/>
+      <c r="C136" s="110"/>
     </row>
     <row r="137" spans="2:3">
-      <c r="B137" s="109"/>
-      <c r="C137" s="109"/>
+      <c r="B137" s="110"/>
+      <c r="C137" s="110"/>
     </row>
     <row r="138" spans="2:3">
-      <c r="B138" s="109"/>
-      <c r="C138" s="109"/>
+      <c r="B138" s="110"/>
+      <c r="C138" s="110"/>
     </row>
     <row r="139" spans="2:3">
-      <c r="B139" s="109"/>
-      <c r="C139" s="109"/>
+      <c r="B139" s="110"/>
+      <c r="C139" s="110"/>
     </row>
     <row r="140" spans="2:3">
-      <c r="B140" s="109"/>
-      <c r="C140" s="109"/>
+      <c r="B140" s="110"/>
+      <c r="C140" s="110"/>
     </row>
     <row r="141" spans="2:3">
-      <c r="B141" s="109"/>
-      <c r="C141" s="109"/>
+      <c r="B141" s="110"/>
+      <c r="C141" s="110"/>
     </row>
     <row r="142" spans="2:3">
-      <c r="B142" s="109"/>
-      <c r="C142" s="109"/>
+      <c r="B142" s="110"/>
+      <c r="C142" s="110"/>
     </row>
     <row r="143" spans="2:3">
-      <c r="B143" s="109"/>
-      <c r="C143" s="109"/>
+      <c r="B143" s="110"/>
+      <c r="C143" s="110"/>
     </row>
     <row r="144" spans="2:3">
-      <c r="B144" s="109"/>
-      <c r="C144" s="109"/>
+      <c r="B144" s="110"/>
+      <c r="C144" s="110"/>
     </row>
     <row r="145" spans="2:3">
-      <c r="B145" s="109"/>
-      <c r="C145" s="109"/>
+      <c r="B145" s="110"/>
+      <c r="C145" s="110"/>
     </row>
     <row r="146" spans="2:3">
-      <c r="B146" s="109"/>
-      <c r="C146" s="109"/>
+      <c r="B146" s="110"/>
+      <c r="C146" s="110"/>
     </row>
     <row r="147" spans="2:3">
-      <c r="B147" s="109"/>
-      <c r="C147" s="109"/>
+      <c r="B147" s="110"/>
+      <c r="C147" s="110"/>
     </row>
     <row r="148" spans="2:3">
-      <c r="B148" s="109"/>
-      <c r="C148" s="109"/>
+      <c r="B148" s="110"/>
+      <c r="C148" s="110"/>
     </row>
     <row r="149" spans="2:3">
-      <c r="B149" s="109"/>
-      <c r="C149" s="109"/>
+      <c r="B149" s="110"/>
+      <c r="C149" s="110"/>
     </row>
     <row r="150" spans="2:3">
-      <c r="B150" s="109"/>
-      <c r="C150" s="109"/>
+      <c r="B150" s="110"/>
+      <c r="C150" s="110"/>
     </row>
     <row r="151" spans="2:3">
-      <c r="B151" s="109"/>
-      <c r="C151" s="109"/>
+      <c r="B151" s="110"/>
+      <c r="C151" s="110"/>
     </row>
     <row r="152" spans="2:3">
-      <c r="B152" s="109"/>
-      <c r="C152" s="109"/>
+      <c r="B152" s="110"/>
+      <c r="C152" s="110"/>
     </row>
     <row r="153" spans="2:3">
-      <c r="B153" s="109"/>
-      <c r="C153" s="109"/>
+      <c r="B153" s="110"/>
+      <c r="C153" s="110"/>
     </row>
     <row r="154" spans="2:3">
-      <c r="B154" s="109"/>
-      <c r="C154" s="109"/>
+      <c r="B154" s="110"/>
+      <c r="C154" s="110"/>
     </row>
     <row r="155" spans="2:3">
-      <c r="B155" s="109"/>
-      <c r="C155" s="109"/>
+      <c r="B155" s="110"/>
+      <c r="C155" s="110"/>
     </row>
     <row r="156" spans="2:3">
-      <c r="B156" s="109"/>
-      <c r="C156" s="109"/>
+      <c r="B156" s="110"/>
+      <c r="C156" s="110"/>
     </row>
     <row r="157" spans="2:3">
-      <c r="B157" s="109"/>
-      <c r="C157" s="109"/>
+      <c r="B157" s="110"/>
+      <c r="C157" s="110"/>
     </row>
     <row r="158" spans="2:3">
-      <c r="B158" s="109"/>
-      <c r="C158" s="109"/>
+      <c r="B158" s="110"/>
+      <c r="C158" s="110"/>
     </row>
     <row r="159" spans="2:3">
-      <c r="B159" s="109"/>
-      <c r="C159" s="109"/>
+      <c r="B159" s="110"/>
+      <c r="C159" s="110"/>
     </row>
     <row r="160" spans="2:3">
-      <c r="B160" s="109"/>
-      <c r="C160" s="109"/>
+      <c r="B160" s="110"/>
+      <c r="C160" s="110"/>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="109"/>
-      <c r="C161" s="109"/>
+      <c r="B161" s="110"/>
+      <c r="C161" s="110"/>
     </row>
     <row r="162" spans="2:3">
-      <c r="B162" s="109"/>
-      <c r="C162" s="109"/>
+      <c r="B162" s="110"/>
+      <c r="C162" s="110"/>
     </row>
     <row r="163" spans="2:3">
-      <c r="B163" s="109"/>
-      <c r="C163" s="109"/>
+      <c r="B163" s="110"/>
+      <c r="C163" s="110"/>
     </row>
     <row r="164" spans="2:3">
-      <c r="B164" s="109"/>
-      <c r="C164" s="109"/>
+      <c r="B164" s="110"/>
+      <c r="C164" s="110"/>
     </row>
     <row r="165" spans="2:3">
-      <c r="B165" s="109"/>
-      <c r="C165" s="109"/>
+      <c r="B165" s="110"/>
+      <c r="C165" s="110"/>
     </row>
     <row r="166" spans="2:3">
-      <c r="B166" s="109"/>
-      <c r="C166" s="109"/>
+      <c r="B166" s="110"/>
+      <c r="C166" s="110"/>
     </row>
     <row r="167" spans="2:3">
-      <c r="B167" s="109"/>
-      <c r="C167" s="109"/>
+      <c r="B167" s="110"/>
+      <c r="C167" s="110"/>
     </row>
     <row r="168" spans="2:3">
-      <c r="B168" s="109"/>
-      <c r="C168" s="109"/>
+      <c r="B168" s="110"/>
+      <c r="C168" s="110"/>
     </row>
     <row r="169" spans="2:3">
-      <c r="B169" s="109"/>
-      <c r="C169" s="109"/>
+      <c r="B169" s="110"/>
+      <c r="C169" s="110"/>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="109"/>
-      <c r="C170" s="109"/>
+      <c r="B170" s="110"/>
+      <c r="C170" s="110"/>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="109"/>
-      <c r="C171" s="109"/>
+      <c r="B171" s="110"/>
+      <c r="C171" s="110"/>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="109"/>
-      <c r="C172" s="109"/>
+      <c r="B172" s="110"/>
+      <c r="C172" s="110"/>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="109"/>
-      <c r="C173" s="109"/>
+      <c r="B173" s="110"/>
+      <c r="C173" s="110"/>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="109"/>
-      <c r="C174" s="109"/>
+      <c r="B174" s="110"/>
+      <c r="C174" s="110"/>
     </row>
     <row r="175" spans="2:3">
-      <c r="B175" s="109"/>
-      <c r="C175" s="109"/>
+      <c r="B175" s="110"/>
+      <c r="C175" s="110"/>
     </row>
     <row r="176" spans="2:3">
-      <c r="B176" s="109"/>
-      <c r="C176" s="109"/>
+      <c r="B176" s="110"/>
+      <c r="C176" s="110"/>
     </row>
     <row r="177" spans="2:3">
-      <c r="B177" s="109"/>
-      <c r="C177" s="109"/>
+      <c r="B177" s="110"/>
+      <c r="C177" s="110"/>
     </row>
     <row r="178" spans="2:3">
-      <c r="B178" s="109"/>
-      <c r="C178" s="109"/>
+      <c r="B178" s="110"/>
+      <c r="C178" s="110"/>
     </row>
     <row r="179" spans="2:3">
-      <c r="B179" s="109"/>
-      <c r="C179" s="109"/>
+      <c r="B179" s="110"/>
+      <c r="C179" s="110"/>
     </row>
     <row r="180" spans="2:3">
-      <c r="B180" s="109"/>
-      <c r="C180" s="109"/>
+      <c r="B180" s="110"/>
+      <c r="C180" s="110"/>
     </row>
     <row r="181" spans="2:3">
-      <c r="B181" s="109"/>
-      <c r="C181" s="109"/>
+      <c r="B181" s="110"/>
+      <c r="C181" s="110"/>
     </row>
     <row r="182" spans="2:3">
-      <c r="B182" s="109"/>
-      <c r="C182" s="109"/>
+      <c r="B182" s="110"/>
+      <c r="C182" s="110"/>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="109"/>
-      <c r="C183" s="109"/>
+      <c r="B183" s="110"/>
+      <c r="C183" s="110"/>
     </row>
     <row r="184" spans="2:3">
-      <c r="B184" s="109"/>
-      <c r="C184" s="109"/>
+      <c r="B184" s="110"/>
+      <c r="C184" s="110"/>
     </row>
     <row r="185" spans="2:3">
-      <c r="B185" s="109"/>
-      <c r="C185" s="109"/>
+      <c r="B185" s="110"/>
+      <c r="C185" s="110"/>
     </row>
     <row r="186" spans="2:3">
-      <c r="B186" s="109"/>
-      <c r="C186" s="109"/>
+      <c r="B186" s="110"/>
+      <c r="C186" s="110"/>
     </row>
     <row r="187" spans="2:3">
-      <c r="B187" s="109"/>
-      <c r="C187" s="109"/>
+      <c r="B187" s="110"/>
+      <c r="C187" s="110"/>
     </row>
     <row r="188" spans="2:3">
-      <c r="B188" s="109"/>
-      <c r="C188" s="109"/>
+      <c r="B188" s="110"/>
+      <c r="C188" s="110"/>
     </row>
     <row r="189" spans="2:3">
-      <c r="B189" s="109"/>
-      <c r="C189" s="109"/>
+      <c r="B189" s="110"/>
+      <c r="C189" s="110"/>
     </row>
     <row r="190" spans="2:3">
-      <c r="B190" s="109"/>
-      <c r="C190" s="109"/>
+      <c r="B190" s="110"/>
+      <c r="C190" s="110"/>
     </row>
     <row r="191" spans="2:3">
-      <c r="B191" s="109"/>
-      <c r="C191" s="109"/>
+      <c r="B191" s="110"/>
+      <c r="C191" s="110"/>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="109"/>
-      <c r="C192" s="109"/>
+      <c r="B192" s="110"/>
+      <c r="C192" s="110"/>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="109"/>
-      <c r="C193" s="109"/>
+      <c r="B193" s="110"/>
+      <c r="C193" s="110"/>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="109"/>
-      <c r="C194" s="109"/>
+      <c r="B194" s="110"/>
+      <c r="C194" s="110"/>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="109"/>
-      <c r="C195" s="109"/>
+      <c r="B195" s="110"/>
+      <c r="C195" s="110"/>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="109"/>
-      <c r="C196" s="109"/>
+      <c r="B196" s="110"/>
+      <c r="C196" s="110"/>
     </row>
     <row r="197" spans="2:3">
-      <c r="B197" s="109"/>
-      <c r="C197" s="109"/>
+      <c r="B197" s="110"/>
+      <c r="C197" s="110"/>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="109"/>
-      <c r="C198" s="109"/>
+      <c r="B198" s="110"/>
+      <c r="C198" s="110"/>
     </row>
     <row r="199" spans="2:3">
-      <c r="B199" s="109"/>
-      <c r="C199" s="109"/>
+      <c r="B199" s="110"/>
+      <c r="C199" s="110"/>
     </row>
     <row r="200" spans="2:3">
-      <c r="B200" s="109"/>
-      <c r="C200" s="109"/>
+      <c r="B200" s="110"/>
+      <c r="C200" s="110"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BGMC4AvE4h2RkU/1Z5L8lM7Gkpf36wZEkOS2bf/fXkY2c7V3IutWw8MDvR0OArH+R4XtzT0vdjd1Z/OKd7bSVA==" saltValue="CtSfpvPuBPmw1hG9ryqZXw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="182">
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B200:C200"/>
     <mergeCell ref="B194:C194"/>
@@ -9954,164 +10118,6 @@
     <mergeCell ref="B177:C177"/>
     <mergeCell ref="B178:C178"/>
     <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11009,140 +11015,30 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="atHJ4ImTqolJZr6RfLcsnKex9kAFfIpiyfyhOlDfWG3VuuTdwqqSjGULINt/FUAnR+f26FgFkcxXwG7zDTK+Jw==" saltValue="eoiXVYQkYU3pR4VfojM9Iw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="182">
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B63:C63"/>
@@ -11167,30 +11063,140 @@
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B192:C192"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
